--- a/xml/studyFile.xlsx
+++ b/xml/studyFile.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_idea_project\jsp\xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E1AA57-B1AB-47C7-A6EF-6AD8090433A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="8568" yWindow="0" windowWidth="13428" windowHeight="12960" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hadoop" sheetId="1" r:id="rId1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="1394">
   <si>
     <t>离职原因:工作和待遇能更上一个台阶</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -7455,11 +7456,19 @@
     <t>vesion controller添加项目-git（项目右键有git）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>org.apache.jasper.JasperException</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomcat版本过高，改成7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="60">
     <font>
       <sz val="11"/>
@@ -8510,15 +8519,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8531,8 +8531,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8540,10 +8546,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8551,12 +8566,6 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8604,74 +8613,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -10372,8 +10313,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1925954" y="23288625"/>
-          <a:ext cx="2314576" cy="1455792"/>
+          <a:off x="1874519" y="22837140"/>
+          <a:ext cx="2263141" cy="1432932"/>
           <a:chOff x="1874519" y="20931132"/>
           <a:chExt cx="4853941" cy="3338940"/>
         </a:xfrm>
@@ -13930,8 +13871,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="14380104"/>
-          <a:ext cx="4927136" cy="651575"/>
+          <a:off x="0" y="13673667"/>
+          <a:ext cx="4784261" cy="619825"/>
           <a:chOff x="0" y="20182417"/>
           <a:chExt cx="6858594" cy="746825"/>
         </a:xfrm>
@@ -15714,8 +15655,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3238500" y="13009245"/>
-          <a:ext cx="5084445" cy="2480578"/>
+          <a:off x="3147060" y="12763500"/>
+          <a:ext cx="4945380" cy="2438668"/>
           <a:chOff x="2144578" y="13073857"/>
           <a:chExt cx="5113020" cy="3346619"/>
         </a:xfrm>
@@ -16740,8 +16681,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1216310" y="3964108"/>
-          <a:ext cx="2985463" cy="963929"/>
+          <a:off x="1203172" y="3921410"/>
+          <a:ext cx="2932912" cy="947507"/>
           <a:chOff x="1163758" y="886548"/>
           <a:chExt cx="2932912" cy="947507"/>
         </a:xfrm>
@@ -16897,8 +16838,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14707914" y="545224"/>
-          <a:ext cx="3001886" cy="963930"/>
+          <a:off x="14359758" y="538655"/>
+          <a:ext cx="2932913" cy="947507"/>
           <a:chOff x="1163758" y="886548"/>
           <a:chExt cx="2932912" cy="947507"/>
         </a:xfrm>
@@ -17039,8 +16980,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14458294" y="7570733"/>
-          <a:ext cx="2295853" cy="653612"/>
+          <a:off x="14110138" y="7475483"/>
+          <a:ext cx="2246587" cy="643758"/>
           <a:chOff x="1163758" y="886548"/>
           <a:chExt cx="2932912" cy="947507"/>
         </a:xfrm>
@@ -17181,8 +17122,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1287517" y="13213474"/>
-          <a:ext cx="2985463" cy="960645"/>
+          <a:off x="1274379" y="13032827"/>
+          <a:ext cx="2932912" cy="947508"/>
           <a:chOff x="887861" y="3711203"/>
           <a:chExt cx="2932912" cy="947507"/>
         </a:xfrm>
@@ -17936,7 +17877,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="373545"/>
@@ -18180,17 +18121,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Z132"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="L94" workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="8" width="7.21875" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" customWidth="1"/>
+    <col min="1" max="8" width="7.1796875" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:23" s="16" customFormat="1">
@@ -18738,7 +18679,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="17.25">
+    <row r="94" spans="1:20">
       <c r="A94" s="82"/>
       <c r="B94" s="83"/>
       <c r="C94" s="84"/>
@@ -18952,7 +18893,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="17.25">
+    <row r="108" spans="1:12">
       <c r="A108" s="76" t="s">
         <v>850</v>
       </c>
@@ -18970,7 +18911,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="17.25">
+    <row r="109" spans="1:12">
       <c r="A109" s="85" t="s">
         <v>849</v>
       </c>
@@ -19098,7 +19039,7 @@
       <c r="F117" s="80"/>
       <c r="G117" s="81"/>
     </row>
-    <row r="118" spans="1:17" ht="17.25" thickBot="1">
+    <row r="118" spans="1:17" ht="16.8" thickBot="1">
       <c r="A118" s="82"/>
       <c r="B118" s="83"/>
       <c r="C118" s="84"/>
@@ -19189,7 +19130,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A109" r:id="rId1"/>
+    <hyperlink ref="A109" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -19198,16 +19139,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="D2:M41"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:13">
@@ -19284,7 +19225,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="29" spans="4:5" ht="17.25">
+    <row r="29" spans="4:5">
       <c r="D29" s="107" t="s">
         <v>1118</v>
       </c>
@@ -19299,7 +19240,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="32" spans="4:5" ht="17.25">
+    <row r="32" spans="4:5">
       <c r="D32" s="108" t="s">
         <v>1120</v>
       </c>
@@ -19309,7 +19250,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="35" spans="4:5" ht="17.25">
+    <row r="35" spans="4:5">
       <c r="D35" s="107" t="s">
         <v>1122</v>
       </c>
@@ -19330,7 +19271,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="39" spans="4:5" ht="17.25">
+    <row r="39" spans="4:5">
       <c r="D39" s="108" t="s">
         <v>1125</v>
       </c>
@@ -19353,16 +19294,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5">
+    <row r="1" spans="1:7" ht="23.4">
       <c r="A1" s="63" t="s">
         <v>627</v>
       </c>
@@ -19428,26 +19369,26 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A2:K89"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="J22" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
       <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="3"/>
-    <col min="2" max="2" width="19.5546875" style="3" customWidth="1"/>
-    <col min="3" max="4" width="8.77734375" style="3"/>
-    <col min="5" max="5" width="5.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="85.109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="41.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="135.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.44140625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="8.77734375" style="3"/>
+    <col min="1" max="1" width="8.81640625" style="3"/>
+    <col min="2" max="2" width="19.54296875" style="3" customWidth="1"/>
+    <col min="3" max="4" width="8.81640625" style="3"/>
+    <col min="5" max="5" width="5.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.453125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="85.08984375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="41.36328125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="135.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.453125" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
@@ -19923,7 +19864,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="7:10" ht="14.45" customHeight="1">
+    <row r="75" spans="7:10" ht="14.4" customHeight="1">
       <c r="H75" s="11" t="s">
         <v>90</v>
       </c>
@@ -19986,19 +19927,19 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B7:F23"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="2" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="46.6640625" customWidth="1"/>
+    <col min="2" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="46.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="2:6">
@@ -20127,14 +20068,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A34:K71"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
@@ -20279,21 +20220,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X203"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="E64" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
       <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="30.36328125" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="8" max="8" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -20860,7 +20801,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="16.149999999999999" customHeight="1">
+    <row r="61" spans="1:13" ht="16.2" customHeight="1">
       <c r="A61" t="s">
         <v>1351</v>
       </c>
@@ -21489,14 +21430,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="E1:G44"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="D25" workbookViewId="0">
       <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
     <row r="1" spans="5:7">
       <c r="E1" t="s">
@@ -21521,7 +21462,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="11" spans="5:7" ht="33.75">
+    <row r="11" spans="5:7" ht="33">
       <c r="E11" s="115" t="s">
         <v>1331</v>
       </c>
@@ -21655,14 +21596,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="E2:Q68"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
     <row r="2" spans="5:8">
       <c r="F2" t="s">
@@ -21899,7 +21840,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="44" spans="7:12" ht="18.75">
+    <row r="44" spans="7:12" ht="17.399999999999999">
       <c r="G44" s="51"/>
       <c r="L44" s="61" t="s">
         <v>602</v>
@@ -22024,21 +21965,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A2:Y133"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22166,7 +22107,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="25" spans="3:13" ht="17.25">
+    <row r="25" spans="3:13">
       <c r="E25" s="20" t="s">
         <v>253</v>
       </c>
@@ -22754,7 +22695,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="110" spans="3:19" ht="16.149999999999999" customHeight="1">
+    <row r="110" spans="3:19" ht="16.2" customHeight="1">
       <c r="E110" t="s">
         <v>620</v>
       </c>
@@ -22772,7 +22713,7 @@
       <c r="R110" s="140"/>
       <c r="S110" s="141"/>
     </row>
-    <row r="111" spans="3:19" ht="30.75">
+    <row r="111" spans="3:19" ht="28.2">
       <c r="C111" ph="1"/>
       <c r="G111" s="55" t="s">
         <v>649</v>
@@ -23002,30 +22943,30 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:Z124"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="2" width="8.77734375" style="1"/>
-    <col min="3" max="3" width="15.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" style="1" customWidth="1"/>
-    <col min="10" max="11" width="2.44140625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="8.77734375" style="1"/>
-    <col min="14" max="14" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.6640625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="2" width="8.81640625" style="1"/>
+    <col min="3" max="3" width="15.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="2.453125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="8.81640625" style="1"/>
+    <col min="14" max="14" width="14.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.90625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.6328125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
@@ -23153,10 +23094,10 @@
       <c r="I16" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="M16" s="152" t="s">
+      <c r="M16" s="149" t="s">
         <v>263</v>
       </c>
-      <c r="N16" s="153"/>
+      <c r="N16" s="150"/>
       <c r="O16" s="39" t="s">
         <v>260</v>
       </c>
@@ -23174,7 +23115,7 @@
       <c r="B17" s="58" t="s">
         <v>1290</v>
       </c>
-      <c r="M17" s="151" t="s">
+      <c r="M17" s="153" t="s">
         <v>1100</v>
       </c>
       <c r="N17" s="12" t="s">
@@ -23189,13 +23130,13 @@
       <c r="Q17" s="41" t="s">
         <v>929</v>
       </c>
-      <c r="S17" s="149" t="s">
+      <c r="S17" s="154" t="s">
         <v>745</v>
       </c>
-      <c r="T17" s="150"/>
-      <c r="U17" s="150"/>
-      <c r="V17" s="150"/>
-      <c r="W17" s="150"/>
+      <c r="T17" s="155"/>
+      <c r="U17" s="155"/>
+      <c r="V17" s="155"/>
+      <c r="W17" s="155"/>
     </row>
     <row r="18" spans="2:26">
       <c r="B18" s="58" t="s">
@@ -23210,7 +23151,7 @@
       <c r="I18" s="12">
         <v>1</v>
       </c>
-      <c r="M18" s="151"/>
+      <c r="M18" s="153"/>
       <c r="N18" s="12" t="s">
         <v>908</v>
       </c>
@@ -23223,11 +23164,11 @@
       <c r="Q18" s="14" t="s">
         <v>854</v>
       </c>
-      <c r="S18" s="149"/>
-      <c r="T18" s="150"/>
-      <c r="U18" s="150"/>
-      <c r="V18" s="150"/>
-      <c r="W18" s="150"/>
+      <c r="S18" s="154"/>
+      <c r="T18" s="155"/>
+      <c r="U18" s="155"/>
+      <c r="V18" s="155"/>
+      <c r="W18" s="155"/>
     </row>
     <row r="19" spans="2:26">
       <c r="B19" s="58" t="s">
@@ -23245,7 +23186,7 @@
       <c r="I19" s="57">
         <v>1</v>
       </c>
-      <c r="M19" s="151"/>
+      <c r="M19" s="153"/>
       <c r="N19" s="18" t="s">
         <v>1101</v>
       </c>
@@ -23258,11 +23199,11 @@
       <c r="Q19" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="S19" s="149"/>
-      <c r="T19" s="150"/>
-      <c r="U19" s="150"/>
-      <c r="V19" s="150"/>
-      <c r="W19" s="150"/>
+      <c r="S19" s="154"/>
+      <c r="T19" s="155"/>
+      <c r="U19" s="155"/>
+      <c r="V19" s="155"/>
+      <c r="W19" s="155"/>
     </row>
     <row r="20" spans="2:26">
       <c r="E20" s="12">
@@ -23281,7 +23222,7 @@
       <c r="Q20" s="14"/>
     </row>
     <row r="21" spans="2:26">
-      <c r="M21" s="151" t="s">
+      <c r="M21" s="153" t="s">
         <v>257</v>
       </c>
       <c r="N21" s="12" t="s">
@@ -23296,16 +23237,16 @@
       <c r="Q21" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="R21" s="149" t="s">
+      <c r="R21" s="154" t="s">
         <v>482</v>
       </c>
-      <c r="S21" s="150"/>
-      <c r="T21" s="150"/>
-      <c r="U21" s="150"/>
-      <c r="V21" s="150"/>
+      <c r="S21" s="155"/>
+      <c r="T21" s="155"/>
+      <c r="U21" s="155"/>
+      <c r="V21" s="155"/>
     </row>
     <row r="22" spans="2:26">
-      <c r="M22" s="151"/>
+      <c r="M22" s="153"/>
       <c r="N22" s="18" t="s">
         <v>448</v>
       </c>
@@ -23318,11 +23259,11 @@
       <c r="Q22" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="R22" s="149"/>
-      <c r="S22" s="150"/>
-      <c r="T22" s="150"/>
-      <c r="U22" s="150"/>
-      <c r="V22" s="150"/>
+      <c r="R22" s="154"/>
+      <c r="S22" s="155"/>
+      <c r="T22" s="155"/>
+      <c r="U22" s="155"/>
+      <c r="V22" s="155"/>
     </row>
     <row r="23" spans="2:26">
       <c r="H23" s="12" t="s">
@@ -23331,7 +23272,7 @@
       <c r="I23" s="12">
         <v>2</v>
       </c>
-      <c r="M23" s="151"/>
+      <c r="M23" s="153"/>
       <c r="N23" s="18" t="s">
         <v>259</v>
       </c>
@@ -23344,11 +23285,11 @@
       <c r="Q23" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="R23" s="149"/>
-      <c r="S23" s="150"/>
-      <c r="T23" s="150"/>
-      <c r="U23" s="150"/>
-      <c r="V23" s="150"/>
+      <c r="R23" s="154"/>
+      <c r="S23" s="155"/>
+      <c r="T23" s="155"/>
+      <c r="U23" s="155"/>
+      <c r="V23" s="155"/>
     </row>
     <row r="24" spans="2:26">
       <c r="H24" s="12" t="s">
@@ -23368,7 +23309,7 @@
       </c>
     </row>
     <row r="25" spans="2:26">
-      <c r="M25" s="151" t="s">
+      <c r="M25" s="153" t="s">
         <v>424</v>
       </c>
       <c r="N25" s="39" t="s">
@@ -23391,7 +23332,7 @@
       </c>
     </row>
     <row r="26" spans="2:26">
-      <c r="M26" s="151"/>
+      <c r="M26" s="153"/>
       <c r="N26" s="90" t="s">
         <v>1001</v>
       </c>
@@ -23410,7 +23351,7 @@
       </c>
     </row>
     <row r="27" spans="2:26">
-      <c r="M27" s="151"/>
+      <c r="M27" s="153"/>
       <c r="N27" s="39" t="s">
         <v>425</v>
       </c>
@@ -23423,17 +23364,17 @@
       <c r="Q27" s="42" t="s">
         <v>429</v>
       </c>
-      <c r="R27" s="149" t="s">
+      <c r="R27" s="154" t="s">
         <v>1128</v>
       </c>
-      <c r="S27" s="150"/>
-      <c r="T27" s="150"/>
-      <c r="U27" s="150"/>
-      <c r="V27" s="150"/>
-      <c r="W27" s="150"/>
-      <c r="X27" s="150"/>
-      <c r="Y27" s="150"/>
-      <c r="Z27" s="150"/>
+      <c r="S27" s="155"/>
+      <c r="T27" s="155"/>
+      <c r="U27" s="155"/>
+      <c r="V27" s="155"/>
+      <c r="W27" s="155"/>
+      <c r="X27" s="155"/>
+      <c r="Y27" s="155"/>
+      <c r="Z27" s="155"/>
     </row>
     <row r="28" spans="2:26">
       <c r="G28" s="12" t="s">
@@ -23445,7 +23386,7 @@
       <c r="I28" s="12">
         <v>4</v>
       </c>
-      <c r="M28" s="151"/>
+      <c r="M28" s="153"/>
       <c r="N28" s="39" t="s">
         <v>426</v>
       </c>
@@ -23458,15 +23399,15 @@
       <c r="Q28" s="42" t="s">
         <v>429</v>
       </c>
-      <c r="R28" s="149"/>
-      <c r="S28" s="150"/>
-      <c r="T28" s="150"/>
-      <c r="U28" s="150"/>
-      <c r="V28" s="150"/>
-      <c r="W28" s="150"/>
-      <c r="X28" s="150"/>
-      <c r="Y28" s="150"/>
-      <c r="Z28" s="150"/>
+      <c r="R28" s="154"/>
+      <c r="S28" s="155"/>
+      <c r="T28" s="155"/>
+      <c r="U28" s="155"/>
+      <c r="V28" s="155"/>
+      <c r="W28" s="155"/>
+      <c r="X28" s="155"/>
+      <c r="Y28" s="155"/>
+      <c r="Z28" s="155"/>
     </row>
     <row r="29" spans="2:26">
       <c r="H29" s="1" t="s">
@@ -23843,8 +23784,8 @@
     </row>
     <row r="79" spans="3:9">
       <c r="D79" s="57"/>
-      <c r="E79" s="152"/>
-      <c r="F79" s="153"/>
+      <c r="E79" s="149"/>
+      <c r="F79" s="150"/>
       <c r="G79" s="57"/>
     </row>
     <row r="80" spans="3:9">
@@ -23885,22 +23826,22 @@
       <c r="G83" s="57"/>
     </row>
     <row r="84" spans="3:7">
-      <c r="D84" s="154" t="s">
+      <c r="D84" s="151" t="s">
         <v>474</v>
       </c>
       <c r="E84" s="138" t="s">
         <v>988</v>
       </c>
       <c r="F84" s="138"/>
-      <c r="G84" s="154" t="s">
+      <c r="G84" s="151" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="85" spans="3:7">
-      <c r="D85" s="155"/>
+      <c r="D85" s="152"/>
       <c r="E85" s="138"/>
       <c r="F85" s="138"/>
-      <c r="G85" s="155"/>
+      <c r="G85" s="152"/>
     </row>
     <row r="86" spans="3:7">
       <c r="E86" s="36" t="s">
@@ -24164,6 +24105,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="R21:V23"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="R27:Z28"/>
+    <mergeCell ref="S17:W19"/>
     <mergeCell ref="E84:F85"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="D84:D85"/>
@@ -24171,11 +24117,6 @@
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="M25:M28"/>
     <mergeCell ref="E78:F78"/>
-    <mergeCell ref="R21:V23"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="R27:Z28"/>
-    <mergeCell ref="S17:W19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A24:XFD25 A21:Q23 A28:Q28 Q61:XFD63 A1:P4 A6:P6 B5:P5 AA27:XFD28 A48:B48 D48:XFD48 A7:G7 I7:P7 A79:B79 D79:E79 A80:XFD83 A86:XFD94 A84:E84 A85:C85 G84:XFD84 G79:XFD79 H85:XFD85 A53:B63 D53:XFD53 H101:K101 A95:D95 F95:XFD95 F101 A17:Q19 W23:XFD23 A20:V20 AB17:XFD22 S17:W19 A45:E45 A43:B43 D43 F43:XFD43 A44:C44 E44:XFD44 A46:C47 E46:XFD47 A70:C70 E70:XFD70 G45:XFD45 G96:XFD97 F98:XFD100 A64:XFD69 D63:G63 A49:XFD51 A52:H52 J52:XFD52 E54:G54 I54:XFD60 A16:XFD16 D15:G15 I15:XFD15 A29:XFD30 H110:O110 F102:XFD105 F109:O109 E111:O112 F113:O113 D116:O121 F115:O115 E114:O114 E99:E105 E108:O108 A126:XFD1062 A123:C125 P123:XFD125 D124:O125 A96:C121 P106:XFD121 A122:D122 D123:E123 F122:XFD122 G123:O123 M101:XFD101 A71:XFD71 A72:B72 D72:XFD72 A73:XFD78 A27:N27 P27:Q27 A26:M26 O26:XFD26 A33:XFD42 A8:P9 AK1:XFD14 A31:L32 P31:XFD32 D12:P14 A11 C11:P11 B10:P10">
@@ -24205,27 +24146,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:AL123"/>
   <sheetViews>
     <sheetView showGridLines="0" defaultGridColor="0" colorId="49" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
       <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="5" width="9.21875" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
+    <col min="1" max="5" width="9.1796875" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" customWidth="1"/>
-    <col min="10" max="11" width="9.21875" customWidth="1"/>
-    <col min="12" max="12" width="5.109375" customWidth="1"/>
-    <col min="13" max="13" width="8.77734375" customWidth="1"/>
-    <col min="16" max="16" width="8.77734375" customWidth="1"/>
-    <col min="17" max="17" width="8.77734375" style="48"/>
-    <col min="18" max="18" width="15.5546875" customWidth="1"/>
-    <col min="30" max="30" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" customWidth="1"/>
+    <col min="10" max="11" width="9.1796875" customWidth="1"/>
+    <col min="12" max="12" width="5.08984375" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" customWidth="1"/>
+    <col min="16" max="16" width="8.81640625" customWidth="1"/>
+    <col min="17" max="17" width="8.81640625" style="48"/>
+    <col min="18" max="18" width="15.54296875" customWidth="1"/>
+    <col min="30" max="30" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:35">
@@ -24277,20 +24218,20 @@
       </c>
     </row>
     <row r="12" spans="3:35">
-      <c r="C12" s="158" t="s">
+      <c r="C12" s="157" t="s">
         <v>311</v>
       </c>
-      <c r="D12" s="158"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="158"/>
-      <c r="J12" s="158"/>
-      <c r="K12" s="158"/>
-      <c r="L12" s="158"/>
-      <c r="M12" s="158"/>
-      <c r="N12" s="158"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="157"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="157"/>
+      <c r="I12" s="157"/>
+      <c r="J12" s="157"/>
+      <c r="K12" s="157"/>
+      <c r="L12" s="157"/>
+      <c r="M12" s="157"/>
+      <c r="N12" s="157"/>
       <c r="T12" t="s">
         <v>294</v>
       </c>
@@ -24302,18 +24243,18 @@
       </c>
     </row>
     <row r="13" spans="3:35">
-      <c r="C13" s="158"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="158"/>
-      <c r="K13" s="158"/>
-      <c r="L13" s="158"/>
-      <c r="M13" s="158"/>
-      <c r="N13" s="158"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="157"/>
+      <c r="J13" s="157"/>
+      <c r="K13" s="157"/>
+      <c r="L13" s="157"/>
+      <c r="M13" s="157"/>
+      <c r="N13" s="157"/>
       <c r="T13" t="s">
         <v>295</v>
       </c>
@@ -24345,7 +24286,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="3:30" ht="17.25">
+    <row r="17" spans="3:30">
       <c r="C17" t="s">
         <v>315</v>
       </c>
@@ -24353,79 +24294,79 @@
         <v>298</v>
       </c>
     </row>
-    <row r="18" spans="3:30" ht="16.149999999999999" customHeight="1">
+    <row r="18" spans="3:30" ht="16.2" customHeight="1">
       <c r="C18" t="s">
         <v>316</v>
       </c>
-      <c r="T18" s="157" t="s">
+      <c r="T18" s="156" t="s">
         <v>299</v>
       </c>
-      <c r="U18" s="157"/>
-      <c r="V18" s="157"/>
-      <c r="W18" s="157"/>
-      <c r="X18" s="157"/>
+      <c r="U18" s="156"/>
+      <c r="V18" s="156"/>
+      <c r="W18" s="156"/>
+      <c r="X18" s="156"/>
     </row>
     <row r="19" spans="3:30">
-      <c r="T19" s="157"/>
-      <c r="U19" s="157"/>
-      <c r="V19" s="157"/>
-      <c r="W19" s="157"/>
-      <c r="X19" s="157"/>
+      <c r="T19" s="156"/>
+      <c r="U19" s="156"/>
+      <c r="V19" s="156"/>
+      <c r="W19" s="156"/>
+      <c r="X19" s="156"/>
     </row>
     <row r="20" spans="3:30">
-      <c r="T20" s="157"/>
-      <c r="U20" s="157"/>
-      <c r="V20" s="157"/>
-      <c r="W20" s="157"/>
-      <c r="X20" s="157"/>
+      <c r="T20" s="156"/>
+      <c r="U20" s="156"/>
+      <c r="V20" s="156"/>
+      <c r="W20" s="156"/>
+      <c r="X20" s="156"/>
     </row>
     <row r="21" spans="3:30">
-      <c r="T21" s="157"/>
-      <c r="U21" s="157"/>
-      <c r="V21" s="157"/>
-      <c r="W21" s="157"/>
-      <c r="X21" s="157"/>
+      <c r="T21" s="156"/>
+      <c r="U21" s="156"/>
+      <c r="V21" s="156"/>
+      <c r="W21" s="156"/>
+      <c r="X21" s="156"/>
     </row>
     <row r="22" spans="3:30">
-      <c r="T22" s="157"/>
-      <c r="U22" s="157"/>
-      <c r="V22" s="157"/>
-      <c r="W22" s="157"/>
-      <c r="X22" s="157"/>
+      <c r="T22" s="156"/>
+      <c r="U22" s="156"/>
+      <c r="V22" s="156"/>
+      <c r="W22" s="156"/>
+      <c r="X22" s="156"/>
     </row>
     <row r="23" spans="3:30">
-      <c r="T23" s="157"/>
-      <c r="U23" s="157"/>
-      <c r="V23" s="157"/>
-      <c r="W23" s="157"/>
-      <c r="X23" s="157"/>
+      <c r="T23" s="156"/>
+      <c r="U23" s="156"/>
+      <c r="V23" s="156"/>
+      <c r="W23" s="156"/>
+      <c r="X23" s="156"/>
     </row>
     <row r="24" spans="3:30">
-      <c r="T24" s="157"/>
-      <c r="U24" s="157"/>
-      <c r="V24" s="157"/>
-      <c r="W24" s="157"/>
-      <c r="X24" s="157"/>
+      <c r="T24" s="156"/>
+      <c r="U24" s="156"/>
+      <c r="V24" s="156"/>
+      <c r="W24" s="156"/>
+      <c r="X24" s="156"/>
     </row>
     <row r="25" spans="3:30">
       <c r="D25" t="s">
         <v>286</v>
       </c>
-      <c r="T25" s="157"/>
-      <c r="U25" s="157"/>
-      <c r="V25" s="157"/>
-      <c r="W25" s="157"/>
-      <c r="X25" s="157"/>
+      <c r="T25" s="156"/>
+      <c r="U25" s="156"/>
+      <c r="V25" s="156"/>
+      <c r="W25" s="156"/>
+      <c r="X25" s="156"/>
     </row>
     <row r="26" spans="3:30">
       <c r="E26" t="s">
         <v>287</v>
       </c>
-      <c r="T26" s="157"/>
-      <c r="U26" s="157"/>
-      <c r="V26" s="157"/>
-      <c r="W26" s="157"/>
-      <c r="X26" s="157"/>
+      <c r="T26" s="156"/>
+      <c r="U26" s="156"/>
+      <c r="V26" s="156"/>
+      <c r="W26" s="156"/>
+      <c r="X26" s="156"/>
     </row>
     <row r="27" spans="3:30">
       <c r="D27" s="1" t="s">
@@ -24434,32 +24375,32 @@
       <c r="G27" s="36" t="s">
         <v>383</v>
       </c>
-      <c r="T27" s="157"/>
-      <c r="U27" s="157"/>
-      <c r="V27" s="157"/>
-      <c r="W27" s="157"/>
-      <c r="X27" s="157"/>
+      <c r="T27" s="156"/>
+      <c r="U27" s="156"/>
+      <c r="V27" s="156"/>
+      <c r="W27" s="156"/>
+      <c r="X27" s="156"/>
     </row>
     <row r="28" spans="3:30">
       <c r="D28" s="1"/>
       <c r="G28" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="T28" s="157"/>
-      <c r="U28" s="157"/>
-      <c r="V28" s="157"/>
-      <c r="W28" s="157"/>
-      <c r="X28" s="157"/>
-    </row>
-    <row r="29" spans="3:30" ht="25.9" customHeight="1">
+      <c r="T28" s="156"/>
+      <c r="U28" s="156"/>
+      <c r="V28" s="156"/>
+      <c r="W28" s="156"/>
+      <c r="X28" s="156"/>
+    </row>
+    <row r="29" spans="3:30" ht="25.95" customHeight="1">
       <c r="D29" t="s">
         <v>283</v>
       </c>
-      <c r="T29" s="157"/>
-      <c r="U29" s="157"/>
-      <c r="V29" s="157"/>
-      <c r="W29" s="157"/>
-      <c r="X29" s="157"/>
+      <c r="T29" s="156"/>
+      <c r="U29" s="156"/>
+      <c r="V29" s="156"/>
+      <c r="W29" s="156"/>
+      <c r="X29" s="156"/>
     </row>
     <row r="30" spans="3:30">
       <c r="E30" t="s">
@@ -24488,53 +24429,53 @@
       <c r="F32" t="s">
         <v>279</v>
       </c>
-      <c r="T32" s="157" t="s">
+      <c r="T32" s="156" t="s">
         <v>301</v>
       </c>
-      <c r="U32" s="157"/>
-      <c r="V32" s="157"/>
-      <c r="W32" s="157"/>
-      <c r="X32" s="157"/>
-      <c r="Y32" s="157"/>
-      <c r="Z32" s="157"/>
-      <c r="AA32" s="157"/>
-      <c r="AB32" s="157"/>
-      <c r="AC32" s="157"/>
-      <c r="AD32" s="157"/>
+      <c r="U32" s="156"/>
+      <c r="V32" s="156"/>
+      <c r="W32" s="156"/>
+      <c r="X32" s="156"/>
+      <c r="Y32" s="156"/>
+      <c r="Z32" s="156"/>
+      <c r="AA32" s="156"/>
+      <c r="AB32" s="156"/>
+      <c r="AC32" s="156"/>
+      <c r="AD32" s="156"/>
     </row>
     <row r="33" spans="4:38">
       <c r="D33" t="s">
         <v>290</v>
       </c>
-      <c r="T33" s="157" t="s">
+      <c r="T33" s="156" t="s">
         <v>302</v>
       </c>
-      <c r="U33" s="157"/>
-      <c r="V33" s="157"/>
-      <c r="W33" s="157"/>
-      <c r="X33" s="157"/>
-      <c r="Y33" s="157"/>
-      <c r="Z33" s="157"/>
-      <c r="AA33" s="157"/>
-      <c r="AB33" s="157"/>
-      <c r="AC33" s="157"/>
+      <c r="U33" s="156"/>
+      <c r="V33" s="156"/>
+      <c r="W33" s="156"/>
+      <c r="X33" s="156"/>
+      <c r="Y33" s="156"/>
+      <c r="Z33" s="156"/>
+      <c r="AA33" s="156"/>
+      <c r="AB33" s="156"/>
+      <c r="AC33" s="156"/>
     </row>
     <row r="34" spans="4:38">
       <c r="E34" t="s">
         <v>291</v>
       </c>
-      <c r="T34" s="157" t="s">
+      <c r="T34" s="156" t="s">
         <v>303</v>
       </c>
-      <c r="U34" s="157"/>
-      <c r="V34" s="157"/>
-      <c r="W34" s="157"/>
-      <c r="X34" s="157"/>
-      <c r="Y34" s="157"/>
-      <c r="Z34" s="157"/>
-      <c r="AA34" s="157"/>
-      <c r="AB34" s="157"/>
-      <c r="AC34" s="157"/>
+      <c r="U34" s="156"/>
+      <c r="V34" s="156"/>
+      <c r="W34" s="156"/>
+      <c r="X34" s="156"/>
+      <c r="Y34" s="156"/>
+      <c r="Z34" s="156"/>
+      <c r="AA34" s="156"/>
+      <c r="AB34" s="156"/>
+      <c r="AC34" s="156"/>
     </row>
     <row r="35" spans="4:38">
       <c r="D35" t="s">
@@ -24715,7 +24656,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="57" spans="4:31" ht="17.25" thickBot="1">
+    <row r="57" spans="4:31" ht="16.8" thickBot="1">
       <c r="AD57" t="s">
         <v>1026</v>
       </c>
@@ -24975,7 +24916,7 @@
       <c r="I98" s="33"/>
       <c r="J98" s="33"/>
     </row>
-    <row r="99" spans="1:17" ht="17.25" thickBot="1">
+    <row r="99" spans="1:17" ht="16.8" thickBot="1">
       <c r="D99" s="33"/>
       <c r="E99" s="32"/>
       <c r="F99" s="32"/>
@@ -25091,19 +25032,19 @@
       <c r="A118" s="44" t="s">
         <v>542</v>
       </c>
-      <c r="B118" s="151" t="s">
+      <c r="B118" s="153" t="s">
         <v>529</v>
       </c>
-      <c r="C118" s="151"/>
-      <c r="D118" s="151"/>
-      <c r="E118" s="151"/>
+      <c r="C118" s="153"/>
+      <c r="D118" s="153"/>
+      <c r="E118" s="153"/>
       <c r="F118" s="44" t="s">
         <v>532</v>
       </c>
-      <c r="G118" s="152" t="s">
+      <c r="G118" s="149" t="s">
         <v>535</v>
       </c>
-      <c r="H118" s="153"/>
+      <c r="H118" s="150"/>
       <c r="I118" s="44" t="s">
         <v>538</v>
       </c>
@@ -25112,19 +25053,19 @@
       <c r="A119" s="44" t="s">
         <v>528</v>
       </c>
-      <c r="B119" s="152" t="s">
+      <c r="B119" s="149" t="s">
         <v>530</v>
       </c>
-      <c r="C119" s="156"/>
-      <c r="D119" s="156"/>
-      <c r="E119" s="153"/>
+      <c r="C119" s="158"/>
+      <c r="D119" s="158"/>
+      <c r="E119" s="150"/>
       <c r="F119" s="44" t="s">
         <v>533</v>
       </c>
-      <c r="G119" s="152" t="s">
+      <c r="G119" s="149" t="s">
         <v>536</v>
       </c>
-      <c r="H119" s="153"/>
+      <c r="H119" s="150"/>
       <c r="I119" s="44" t="s">
         <v>540</v>
       </c>
@@ -25133,12 +25074,12 @@
       <c r="A120" s="44" t="s">
         <v>527</v>
       </c>
-      <c r="B120" s="152" t="s">
+      <c r="B120" s="149" t="s">
         <v>531</v>
       </c>
-      <c r="C120" s="156"/>
-      <c r="D120" s="156"/>
-      <c r="E120" s="153"/>
+      <c r="C120" s="158"/>
+      <c r="D120" s="158"/>
+      <c r="E120" s="150"/>
       <c r="F120" s="44" t="s">
         <v>534</v>
       </c>
@@ -25155,17 +25096,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="T18:X29"/>
-    <mergeCell ref="T32:AD32"/>
-    <mergeCell ref="T33:AC33"/>
-    <mergeCell ref="T34:AC34"/>
-    <mergeCell ref="C12:N13"/>
     <mergeCell ref="B118:E118"/>
     <mergeCell ref="B119:E119"/>
     <mergeCell ref="B120:E120"/>
     <mergeCell ref="G118:H118"/>
     <mergeCell ref="G119:H119"/>
     <mergeCell ref="G120:H120"/>
+    <mergeCell ref="T18:X29"/>
+    <mergeCell ref="T32:AD32"/>
+    <mergeCell ref="T33:AC33"/>
+    <mergeCell ref="T34:AC34"/>
+    <mergeCell ref="C12:N13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25178,24 +25119,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B3:N28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="B26:N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="2" width="8.77734375" style="24"/>
-    <col min="3" max="3" width="12.21875" style="24" customWidth="1"/>
+    <col min="1" max="2" width="8.81640625" style="24"/>
+    <col min="3" max="3" width="12.1796875" style="24" customWidth="1"/>
     <col min="4" max="4" width="16" style="24" customWidth="1"/>
-    <col min="5" max="8" width="8.77734375" style="24"/>
-    <col min="9" max="12" width="8.77734375" style="25"/>
-    <col min="13" max="13" width="10.6640625" style="25" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="25"/>
-    <col min="15" max="16384" width="8.77734375" style="24"/>
+    <col min="5" max="8" width="8.81640625" style="24"/>
+    <col min="9" max="12" width="8.81640625" style="25"/>
+    <col min="13" max="13" width="10.6328125" style="25" customWidth="1"/>
+    <col min="14" max="14" width="8.81640625" style="25"/>
+    <col min="15" max="16384" width="8.81640625" style="24"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:14">
@@ -25220,7 +25161,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="16.5">
+    <row r="5" spans="2:14" ht="15.6">
       <c r="B5" s="21" t="s">
         <v>163</v>
       </c>
@@ -25257,307 +25198,329 @@
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="12" spans="2:14" ht="26.45" customHeight="1">
-      <c r="B12" s="164" t="s">
+    <row r="12" spans="2:14" ht="26.4" customHeight="1">
+      <c r="B12" s="162" t="s">
         <v>274</v>
       </c>
-      <c r="C12" s="164"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="163" t="s">
+      <c r="C12" s="162"/>
+      <c r="D12" s="162"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="159" t="s">
         <v>275</v>
       </c>
-      <c r="J12" s="163"/>
-      <c r="K12" s="163"/>
-      <c r="L12" s="163"/>
-      <c r="M12" s="163"/>
-      <c r="N12" s="163"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="159"/>
+      <c r="L12" s="159"/>
+      <c r="M12" s="159"/>
+      <c r="N12" s="159"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1">
-      <c r="B13" s="159" t="s">
+      <c r="B13" s="160" t="s">
         <v>273</v>
       </c>
-      <c r="C13" s="159"/>
-      <c r="D13" s="159"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="160" t="s">
+      <c r="C13" s="160"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="161" t="s">
         <v>276</v>
       </c>
-      <c r="J13" s="160"/>
-      <c r="K13" s="160"/>
-      <c r="L13" s="160"/>
-      <c r="M13" s="160"/>
-      <c r="N13" s="160"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="161"/>
+      <c r="L13" s="161"/>
+      <c r="M13" s="161"/>
+      <c r="N13" s="161"/>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1">
-      <c r="B14" s="159" t="s">
+      <c r="B14" s="160" t="s">
         <v>352</v>
       </c>
-      <c r="C14" s="159"/>
-      <c r="D14" s="159"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="160" t="s">
+      <c r="C14" s="160"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="161" t="s">
         <v>353</v>
       </c>
-      <c r="J14" s="160"/>
-      <c r="K14" s="160"/>
-      <c r="L14" s="160"/>
-      <c r="M14" s="160"/>
-      <c r="N14" s="160"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="161"/>
+      <c r="L14" s="161"/>
+      <c r="M14" s="161"/>
+      <c r="N14" s="161"/>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1">
-      <c r="B15" s="161" t="s">
+      <c r="B15" s="163" t="s">
         <v>397</v>
       </c>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="160" t="s">
+      <c r="C15" s="163"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="161" t="s">
         <v>398</v>
       </c>
-      <c r="J15" s="160"/>
-      <c r="K15" s="160"/>
-      <c r="L15" s="160"/>
-      <c r="M15" s="160"/>
-      <c r="N15" s="160"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="161"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="161"/>
+      <c r="N15" s="161"/>
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1">
-      <c r="B16" s="159" t="s">
+      <c r="B16" s="160" t="s">
         <v>548</v>
       </c>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="162" t="s">
+      <c r="C16" s="160"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="164" t="s">
         <v>549</v>
       </c>
-      <c r="J16" s="162"/>
-      <c r="K16" s="162"/>
-      <c r="L16" s="162"/>
-      <c r="M16" s="162"/>
-      <c r="N16" s="162"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="164"/>
+      <c r="M16" s="164"/>
+      <c r="N16" s="164"/>
     </row>
     <row r="17" spans="2:14" ht="15" customHeight="1">
-      <c r="B17" s="159" t="s">
+      <c r="B17" s="160" t="s">
         <v>699</v>
       </c>
-      <c r="C17" s="159"/>
-      <c r="D17" s="159"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="160" t="s">
+      <c r="C17" s="160"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="161" t="s">
         <v>700</v>
       </c>
-      <c r="J17" s="160"/>
-      <c r="K17" s="160"/>
-      <c r="L17" s="160"/>
-      <c r="M17" s="160"/>
-      <c r="N17" s="160"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="161"/>
+      <c r="L17" s="161"/>
+      <c r="M17" s="161"/>
+      <c r="N17" s="161"/>
     </row>
     <row r="18" spans="2:14" ht="15" customHeight="1">
-      <c r="B18" s="159" t="s">
+      <c r="B18" s="160" t="s">
         <v>701</v>
       </c>
-      <c r="C18" s="159"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="160" t="s">
+      <c r="C18" s="160"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="161" t="s">
         <v>702</v>
       </c>
-      <c r="J18" s="160"/>
-      <c r="K18" s="160"/>
-      <c r="L18" s="160"/>
-      <c r="M18" s="160"/>
-      <c r="N18" s="160"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="161"/>
+      <c r="N18" s="161"/>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1">
-      <c r="B19" s="159" t="s">
+      <c r="B19" s="160" t="s">
         <v>829</v>
       </c>
-      <c r="C19" s="159"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="160" t="s">
+      <c r="C19" s="160"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="161" t="s">
         <v>830</v>
       </c>
-      <c r="J19" s="160"/>
-      <c r="K19" s="160"/>
-      <c r="L19" s="160"/>
-      <c r="M19" s="160"/>
-      <c r="N19" s="160"/>
+      <c r="J19" s="161"/>
+      <c r="K19" s="161"/>
+      <c r="L19" s="161"/>
+      <c r="M19" s="161"/>
+      <c r="N19" s="161"/>
     </row>
     <row r="20" spans="2:14" ht="15" customHeight="1">
-      <c r="B20" s="159" t="s">
+      <c r="B20" s="160" t="s">
         <v>1137</v>
       </c>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="160" t="s">
+      <c r="C20" s="160"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="161" t="s">
         <v>1138</v>
       </c>
-      <c r="J20" s="160"/>
-      <c r="K20" s="160"/>
-      <c r="L20" s="160"/>
-      <c r="M20" s="160"/>
-      <c r="N20" s="160"/>
+      <c r="J20" s="161"/>
+      <c r="K20" s="161"/>
+      <c r="L20" s="161"/>
+      <c r="M20" s="161"/>
+      <c r="N20" s="161"/>
     </row>
     <row r="21" spans="2:14" ht="15" customHeight="1">
-      <c r="B21" s="159" t="s">
+      <c r="B21" s="160" t="s">
         <v>1385</v>
       </c>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
-      <c r="H21" s="159"/>
-      <c r="I21" s="160" t="s">
+      <c r="C21" s="160"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="161" t="s">
         <v>1386</v>
       </c>
-      <c r="J21" s="160"/>
-      <c r="K21" s="160"/>
-      <c r="L21" s="160"/>
-      <c r="M21" s="160"/>
-      <c r="N21" s="160"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="161"/>
+      <c r="M21" s="161"/>
+      <c r="N21" s="161"/>
     </row>
     <row r="22" spans="2:14" ht="15" customHeight="1">
-      <c r="B22" s="159" t="s">
+      <c r="B22" s="160" t="s">
         <v>1387</v>
       </c>
-      <c r="C22" s="159"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="160" t="s">
+      <c r="C22" s="160"/>
+      <c r="D22" s="160"/>
+      <c r="E22" s="160"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="161" t="s">
         <v>1388</v>
       </c>
-      <c r="J22" s="160"/>
-      <c r="K22" s="160"/>
-      <c r="L22" s="160"/>
-      <c r="M22" s="160"/>
-      <c r="N22" s="160"/>
+      <c r="J22" s="161"/>
+      <c r="K22" s="161"/>
+      <c r="L22" s="161"/>
+      <c r="M22" s="161"/>
+      <c r="N22" s="161"/>
     </row>
     <row r="23" spans="2:14" ht="15" customHeight="1">
-      <c r="B23" s="159"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="159"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="160"/>
-      <c r="K23" s="160"/>
-      <c r="L23" s="160"/>
-      <c r="M23" s="160"/>
-      <c r="N23" s="160"/>
+      <c r="B23" s="160" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C23" s="160"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="161" t="s">
+        <v>1393</v>
+      </c>
+      <c r="J23" s="161"/>
+      <c r="K23" s="161"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="161"/>
+      <c r="N23" s="161"/>
     </row>
     <row r="24" spans="2:14" ht="15" customHeight="1">
-      <c r="B24" s="159"/>
-      <c r="C24" s="159"/>
-      <c r="D24" s="159"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="159"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="160"/>
-      <c r="K24" s="160"/>
-      <c r="L24" s="160"/>
-      <c r="M24" s="160"/>
-      <c r="N24" s="160"/>
+      <c r="B24" s="160"/>
+      <c r="C24" s="160"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="161"/>
+      <c r="K24" s="161"/>
+      <c r="L24" s="161"/>
+      <c r="M24" s="161"/>
+      <c r="N24" s="161"/>
     </row>
     <row r="25" spans="2:14" ht="15" customHeight="1">
-      <c r="B25" s="159"/>
-      <c r="C25" s="159"/>
-      <c r="D25" s="159"/>
-      <c r="E25" s="159"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="160"/>
-      <c r="K25" s="160"/>
-      <c r="L25" s="160"/>
-      <c r="M25" s="160"/>
-      <c r="N25" s="160"/>
+      <c r="B25" s="160"/>
+      <c r="C25" s="160"/>
+      <c r="D25" s="160"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="161"/>
+      <c r="K25" s="161"/>
+      <c r="L25" s="161"/>
+      <c r="M25" s="161"/>
+      <c r="N25" s="161"/>
     </row>
     <row r="26" spans="2:14" ht="15" customHeight="1">
-      <c r="B26" s="159"/>
-      <c r="C26" s="159"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="160"/>
-      <c r="J26" s="160"/>
-      <c r="K26" s="160"/>
-      <c r="L26" s="160"/>
-      <c r="M26" s="160"/>
-      <c r="N26" s="160"/>
+      <c r="B26" s="160"/>
+      <c r="C26" s="160"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="161"/>
+      <c r="K26" s="161"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="161"/>
+      <c r="N26" s="161"/>
     </row>
     <row r="27" spans="2:14" ht="15" customHeight="1">
-      <c r="B27" s="159"/>
-      <c r="C27" s="159"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="159"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="159"/>
-      <c r="I27" s="160"/>
-      <c r="J27" s="160"/>
-      <c r="K27" s="160"/>
-      <c r="L27" s="160"/>
-      <c r="M27" s="160"/>
-      <c r="N27" s="160"/>
+      <c r="B27" s="160"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="161"/>
+      <c r="J27" s="161"/>
+      <c r="K27" s="161"/>
+      <c r="L27" s="161"/>
+      <c r="M27" s="161"/>
+      <c r="N27" s="161"/>
     </row>
     <row r="28" spans="2:14" ht="15" customHeight="1">
-      <c r="B28" s="159"/>
-      <c r="C28" s="159"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="159"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="159"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="160"/>
-      <c r="K28" s="160"/>
-      <c r="L28" s="160"/>
-      <c r="M28" s="160"/>
-      <c r="N28" s="160"/>
+      <c r="B28" s="160"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="161"/>
+      <c r="J28" s="161"/>
+      <c r="K28" s="161"/>
+      <c r="L28" s="161"/>
+      <c r="M28" s="161"/>
+      <c r="N28" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="I19:N19"/>
     <mergeCell ref="I12:N12"/>
     <mergeCell ref="B24:H24"/>
     <mergeCell ref="I24:N24"/>
@@ -25574,24 +25537,6 @@
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="I14:N14"/>
     <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="I15:N15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="I17:N17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="I28:N28"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="I26:N26"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25601,14 +25546,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:AE87"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
@@ -26227,7 +26172,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="80" spans="2:5" ht="17.25">
+    <row r="80" spans="2:5">
       <c r="D80" t="s">
         <v>786</v>
       </c>
@@ -26253,7 +26198,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="17.25">
+    <row r="84" spans="2:5">
       <c r="D84" t="s">
         <v>792</v>
       </c>

--- a/xml/studyFile.xlsx
+++ b/xml/studyFile.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_idea_project\jsp\xml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E1AA57-B1AB-47C7-A6EF-6AD8090433A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8568" yWindow="0" windowWidth="13428" windowHeight="12960" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Hadoop" sheetId="1" r:id="rId1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="1394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="1399">
   <si>
     <t>离职原因:工作和待遇能更上一个台阶</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1727,10 +1726,6 @@
   </si>
   <si>
     <t>span行内元素： 不会换行 &lt;span class="demonstration"&gt;滑块&amp;nbsp&lt;/span&gt;不会换行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>常见的块级元素有：div、p、h1-h6、ol-li、table、header等等</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -7457,19 +7452,71 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>org.apache.jasper.JasperException</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tomcat版本过高，改成7</t>
+    <t>sql高级：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>select  * from t_user where name in (SELECT name FROM t_user GROUP BY name  having count(name) &gt;8) ORDER BY name</t>
+  </si>
+  <si>
+    <t>查询某列次数大于某次的所有数据，按该列排序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>count在from后面是，必须用group by</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询重复的数据必须自查询in</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>@RequestParam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"checkedSkuList"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) List&lt;String&gt; checkedSkuList</t>
+    </r>
+  </si>
+  <si>
+    <t>mvc接受前端参数：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见的块级元素有：div、p、h1-h6、ol-li、table、header等等</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="60">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="63">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7934,6 +7981,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF808000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF008000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -8185,7 +8251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8459,6 +8525,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8519,6 +8588,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8531,14 +8609,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8546,19 +8618,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8566,6 +8629,12 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8613,6 +8682,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -10313,8 +10450,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1874519" y="22837140"/>
-          <a:ext cx="2263141" cy="1432932"/>
+          <a:off x="1925954" y="23288625"/>
+          <a:ext cx="2314576" cy="1455792"/>
           <a:chOff x="1874519" y="20931132"/>
           <a:chExt cx="4853941" cy="3338940"/>
         </a:xfrm>
@@ -13871,8 +14008,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="13673667"/>
-          <a:ext cx="4784261" cy="619825"/>
+          <a:off x="0" y="14380104"/>
+          <a:ext cx="4927136" cy="651575"/>
           <a:chOff x="0" y="20182417"/>
           <a:chExt cx="6858594" cy="746825"/>
         </a:xfrm>
@@ -15632,15 +15769,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>183148</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>21222</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -15655,8 +15792,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3147060" y="12763500"/>
-          <a:ext cx="4945380" cy="2438668"/>
+          <a:off x="2533650" y="13268324"/>
+          <a:ext cx="4829175" cy="2269123"/>
           <a:chOff x="2144578" y="13073857"/>
           <a:chExt cx="5113020" cy="3346619"/>
         </a:xfrm>
@@ -16681,8 +16818,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1203172" y="3921410"/>
-          <a:ext cx="2932912" cy="947507"/>
+          <a:off x="1215304" y="3986564"/>
+          <a:ext cx="2981442" cy="965604"/>
           <a:chOff x="1163758" y="886548"/>
           <a:chExt cx="2932912" cy="947507"/>
         </a:xfrm>
@@ -16838,8 +16975,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14359758" y="538655"/>
-          <a:ext cx="2932913" cy="947507"/>
+          <a:off x="14671382" y="545894"/>
+          <a:ext cx="3008590" cy="965606"/>
           <a:chOff x="1163758" y="886548"/>
           <a:chExt cx="2932912" cy="947507"/>
         </a:xfrm>
@@ -16980,8 +17117,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14110138" y="7475483"/>
-          <a:ext cx="2246587" cy="643758"/>
+          <a:off x="14421762" y="7590842"/>
+          <a:ext cx="2299876" cy="654617"/>
           <a:chOff x="1163758" y="886548"/>
           <a:chExt cx="2932912" cy="947507"/>
         </a:xfrm>
@@ -17122,8 +17259,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1274379" y="13032827"/>
-          <a:ext cx="2932912" cy="947508"/>
+          <a:off x="1286511" y="13252016"/>
+          <a:ext cx="2981442" cy="961986"/>
           <a:chOff x="887861" y="3711203"/>
           <a:chExt cx="2932912" cy="947507"/>
         </a:xfrm>
@@ -17877,7 +18014,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="373545"/>
@@ -18121,26 +18258,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z132"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="L94" workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="8" width="7.1796875" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" customWidth="1"/>
+    <col min="1" max="8" width="7.21875" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:23" s="16" customFormat="1">
       <c r="A2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B2"/>
       <c r="C2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D2" s="15"/>
       <c r="F2" s="15"/>
@@ -18152,7 +18289,7 @@
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D3" s="15"/>
       <c r="F3" s="15"/>
@@ -18208,7 +18345,7 @@
     </row>
     <row r="14" spans="1:23">
       <c r="B14" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>144</v>
@@ -18216,30 +18353,30 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="B16" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="B17" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="B18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="B19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K19" t="s">
         <v>146</v>
@@ -18247,12 +18384,12 @@
     </row>
     <row r="20" spans="1:18">
       <c r="B20" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="B21" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H21" t="s">
         <v>145</v>
@@ -18263,15 +18400,15 @@
     </row>
     <row r="22" spans="1:18">
       <c r="B22" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N22" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="B23" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K23" t="s">
         <v>148</v>
@@ -18279,12 +18416,12 @@
     </row>
     <row r="24" spans="1:18">
       <c r="B24" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="B25" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H25" t="s">
         <v>172</v>
@@ -18295,20 +18432,20 @@
     </row>
     <row r="26" spans="1:18">
       <c r="B26" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="B29" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="R29" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J30" t="s">
         <v>151</v>
@@ -18319,7 +18456,7 @@
     </row>
     <row r="33" spans="6:25">
       <c r="F33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K33" t="s">
         <v>153</v>
@@ -18485,7 +18622,7 @@
     </row>
     <row r="64" spans="8:26">
       <c r="K64" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="66" spans="8:11">
@@ -18505,12 +18642,12 @@
     </row>
     <row r="73" spans="8:11">
       <c r="J73" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="74" spans="8:11">
       <c r="J74" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="76" spans="8:11">
@@ -18523,70 +18660,70 @@
     </row>
     <row r="77" spans="8:11">
       <c r="H77" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J77" t="s">
         <v>1116</v>
-      </c>
-      <c r="J77" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="78" spans="8:11">
       <c r="H78" t="s">
+        <v>633</v>
+      </c>
+      <c r="J78" t="s">
         <v>634</v>
-      </c>
-      <c r="J78" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="79" spans="8:11">
       <c r="H79" t="s">
+        <v>639</v>
+      </c>
+      <c r="J79" t="s">
         <v>640</v>
-      </c>
-      <c r="J79" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="81" spans="1:20">
       <c r="A81" s="76" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B81" s="77"/>
       <c r="C81" s="78"/>
     </row>
     <row r="82" spans="1:20">
       <c r="A82" s="79" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B82" s="80"/>
       <c r="C82" s="81"/>
     </row>
     <row r="83" spans="1:20">
       <c r="A83" s="79" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B83" s="80"/>
       <c r="C83" s="81"/>
       <c r="H83" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="84" spans="1:20">
       <c r="A84" s="79" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B84" s="80"/>
       <c r="C84" s="81"/>
       <c r="I84" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="85" spans="1:20">
       <c r="A85" s="79" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B85" s="80"/>
       <c r="C85" s="81"/>
       <c r="I85" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -18594,63 +18731,63 @@
       <c r="B86" s="83"/>
       <c r="C86" s="84"/>
       <c r="I86" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="87" spans="1:20">
       <c r="A87" s="76" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B87" s="77"/>
       <c r="C87" s="78"/>
       <c r="I87" s="16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="T87" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="88" spans="1:20">
       <c r="B88" s="80"/>
       <c r="C88" s="81"/>
       <c r="J88" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="89" spans="1:20">
       <c r="A89" s="104" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B89" s="80"/>
       <c r="C89" s="81"/>
       <c r="J89" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="90" spans="1:20">
       <c r="A90" s="79" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B90" s="80"/>
       <c r="C90" s="81"/>
       <c r="D90" t="s">
-        <v>833</v>
-      </c>
-      <c r="Q90" s="129" t="s">
-        <v>724</v>
-      </c>
-      <c r="R90" s="129"/>
-      <c r="S90" s="129"/>
-      <c r="T90" s="129"/>
+        <v>832</v>
+      </c>
+      <c r="Q90" s="130" t="s">
+        <v>723</v>
+      </c>
+      <c r="R90" s="130"/>
+      <c r="S90" s="130"/>
+      <c r="T90" s="130"/>
     </row>
     <row r="91" spans="1:20">
       <c r="A91" s="79" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B91" s="80"/>
       <c r="C91" s="81"/>
       <c r="D91" s="65" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E91" s="65"/>
     </row>
@@ -18659,10 +18796,10 @@
       <c r="B92" s="80"/>
       <c r="C92" s="81"/>
       <c r="E92" s="65" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H92" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -18670,27 +18807,27 @@
       <c r="B93" s="80"/>
       <c r="C93" s="81"/>
       <c r="E93" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I93" t="s">
+        <v>673</v>
+      </c>
+      <c r="J93" t="s">
         <v>674</v>
       </c>
-      <c r="J93" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20">
+    </row>
+    <row r="94" spans="1:20" ht="17.25">
       <c r="A94" s="82"/>
       <c r="B94" s="83"/>
       <c r="C94" s="84"/>
       <c r="D94" s="64" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I94" t="s">
+        <v>675</v>
+      </c>
+      <c r="J94" t="s">
         <v>676</v>
-      </c>
-      <c r="J94" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -18698,93 +18835,93 @@
       <c r="B95" s="77"/>
       <c r="C95" s="78"/>
       <c r="E95" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J95" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="96" spans="1:20">
       <c r="A96" s="79" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B96" s="80"/>
       <c r="C96" s="81"/>
       <c r="D96" s="76" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E96" s="77"/>
       <c r="F96" s="77"/>
       <c r="G96" s="78"/>
       <c r="K96" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="79" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B97" s="80"/>
       <c r="C97" s="81"/>
       <c r="D97" s="79" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E97" s="80"/>
       <c r="F97" s="80"/>
       <c r="G97" s="81"/>
       <c r="K97" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="79" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B98" s="80"/>
       <c r="C98" s="81"/>
       <c r="D98" s="79" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E98" s="80"/>
       <c r="F98" s="80"/>
       <c r="G98" s="81"/>
       <c r="K98" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L98" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="79" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B99" s="80"/>
       <c r="C99" s="81"/>
       <c r="D99" s="79"/>
       <c r="E99" s="80" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F99" s="80"/>
       <c r="G99" s="81"/>
       <c r="L99" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="79" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B100" s="80"/>
       <c r="C100" s="81"/>
       <c r="D100" s="79"/>
       <c r="E100" s="80" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F100" s="80"/>
       <c r="G100" s="81"/>
       <c r="L100" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -18793,12 +18930,12 @@
       <c r="C101" s="81"/>
       <c r="D101" s="79"/>
       <c r="E101" s="80" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F101" s="80"/>
       <c r="G101" s="81"/>
       <c r="L101" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -18806,13 +18943,13 @@
       <c r="B102" s="80"/>
       <c r="C102" s="81"/>
       <c r="D102" s="82" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E102" s="83"/>
       <c r="F102" s="83"/>
       <c r="G102" s="84"/>
       <c r="K102" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -18820,7 +18957,7 @@
       <c r="B103" s="80"/>
       <c r="C103" s="81"/>
       <c r="D103" s="76" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E103" s="77"/>
       <c r="F103" s="77"/>
@@ -18828,7 +18965,7 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="79" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B104" s="80"/>
       <c r="C104" s="81"/>
@@ -18837,29 +18974,29 @@
       <c r="F104" s="80"/>
       <c r="G104" s="81"/>
       <c r="K104" t="s">
+        <v>657</v>
+      </c>
+      <c r="L104" t="s">
         <v>658</v>
-      </c>
-      <c r="L104" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="79" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B105" s="80"/>
       <c r="C105" s="81"/>
       <c r="D105" s="79" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E105" s="80"/>
       <c r="F105" s="80"/>
       <c r="G105" s="81"/>
       <c r="K105" t="s">
+        <v>659</v>
+      </c>
+      <c r="L105" t="s">
         <v>660</v>
-      </c>
-      <c r="L105" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -18867,13 +19004,13 @@
       <c r="B106" s="80"/>
       <c r="C106" s="81"/>
       <c r="D106" s="79" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E106" s="80"/>
       <c r="F106" s="80"/>
       <c r="G106" s="81"/>
       <c r="L106" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -18882,95 +19019,95 @@
       <c r="C107" s="84"/>
       <c r="D107" s="79"/>
       <c r="E107" s="80" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F107" s="80"/>
       <c r="G107" s="81"/>
       <c r="I107" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J107" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="17.25">
       <c r="A108" s="76" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B108" s="77"/>
       <c r="C108" s="78"/>
       <c r="D108" s="79"/>
       <c r="E108" s="80" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F108" s="80"/>
       <c r="G108" s="81" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="J108" s="22" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="17.25">
       <c r="A109" s="85" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B109" s="80"/>
       <c r="C109" s="81"/>
       <c r="D109" s="79"/>
       <c r="E109" s="80" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F109" s="80"/>
       <c r="G109" s="81"/>
       <c r="J109" s="67" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K109" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="79" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B110" s="80"/>
       <c r="C110" s="81"/>
       <c r="D110" s="82" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E110" s="83"/>
       <c r="F110" s="83"/>
       <c r="G110" s="84"/>
       <c r="I110" t="s">
+        <v>825</v>
+      </c>
+      <c r="J110" t="s">
         <v>826</v>
-      </c>
-      <c r="J110" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="79" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B111" s="80"/>
       <c r="C111" s="81"/>
       <c r="D111" s="76" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E111" s="77"/>
       <c r="F111" s="77"/>
       <c r="G111" s="78"/>
       <c r="I111" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J111" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="79" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B112" s="80"/>
       <c r="C112" s="81"/>
@@ -18979,12 +19116,12 @@
       <c r="F112" s="80"/>
       <c r="G112" s="81"/>
       <c r="J112" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="113" spans="1:17">
       <c r="A113" s="79" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B113" s="80"/>
       <c r="C113" s="81"/>
@@ -18993,12 +19130,12 @@
       <c r="F113" s="80"/>
       <c r="G113" s="81"/>
       <c r="J113" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="114" spans="1:17">
       <c r="A114" s="79" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B114" s="80"/>
       <c r="C114" s="81"/>
@@ -19007,12 +19144,12 @@
       <c r="F114" s="80"/>
       <c r="G114" s="81"/>
       <c r="J114" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="115" spans="1:17">
       <c r="A115" s="79" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B115" s="80"/>
       <c r="C115" s="81"/>
@@ -19039,7 +19176,7 @@
       <c r="F117" s="80"/>
       <c r="G117" s="81"/>
     </row>
-    <row r="118" spans="1:17" ht="16.8" thickBot="1">
+    <row r="118" spans="1:17" ht="17.25" thickBot="1">
       <c r="A118" s="82"/>
       <c r="B118" s="83"/>
       <c r="C118" s="84"/>
@@ -19063,65 +19200,65 @@
     </row>
     <row r="120" spans="1:17">
       <c r="D120" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E120" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="121" spans="1:17">
       <c r="E121" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="122" spans="1:17">
       <c r="F122" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="124" spans="1:17">
       <c r="E124" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="125" spans="1:17">
       <c r="F125" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="126" spans="1:17">
       <c r="F126" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="127" spans="1:17">
       <c r="G127" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="128" spans="1:17">
       <c r="E128" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="129" spans="6:6">
       <c r="F129" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="130" spans="6:6">
       <c r="F130" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="131" spans="6:6">
       <c r="F131" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="132" spans="6:6">
       <c r="F132" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -19130,7 +19267,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A109" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A109" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -19139,151 +19276,151 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:M41"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="12" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:13">
       <c r="L2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="M2" t="s">
         <v>1036</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="3" spans="4:13">
       <c r="D3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="L3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="M3" t="s">
         <v>1038</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="4" spans="4:13">
       <c r="F4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="5" spans="4:13">
       <c r="D5" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="L5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="M5" t="s">
         <v>1040</v>
-      </c>
-      <c r="M5" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="6" spans="4:13">
       <c r="L6" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="M6" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="8" spans="4:13">
       <c r="D8" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="L8" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="M8" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="11" spans="4:13">
       <c r="D11" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="13" spans="4:13">
       <c r="D13" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="18" spans="4:5">
       <c r="D18" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="20" spans="4:5">
       <c r="D20" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="29" spans="4:5">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" ht="17.25">
       <c r="D29" s="107" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="30" spans="4:5">
       <c r="D30" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="31" spans="4:5">
       <c r="E31" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="32" spans="4:5">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" ht="17.25">
       <c r="D32" s="108" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="33" spans="4:5">
       <c r="D33" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" ht="17.25">
+      <c r="D35" s="107" t="s">
         <v>1121</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5">
-      <c r="D35" s="107" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="36" spans="4:5">
       <c r="D36" s="88" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="37" spans="4:5">
       <c r="D37" s="88"/>
       <c r="E37" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="38" spans="4:5">
       <c r="E38" s="88" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="39" spans="4:5">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" ht="17.25">
       <c r="D39" s="108" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="40" spans="4:5">
       <c r="D40" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="41" spans="4:5">
       <c r="E41" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
   </sheetData>
@@ -19294,70 +19431,70 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4">
+    <row r="1" spans="1:7" ht="22.5">
       <c r="A1" s="63" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C1" t="s">
         <v>1389</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>1390</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="G15" s="62" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="F20" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
+        <v>666</v>
+      </c>
+      <c r="F21" s="55" t="s">
         <v>667</v>
-      </c>
-      <c r="F21" s="55" t="s">
-        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -19369,31 +19506,31 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K89"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="J22" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
       <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="3"/>
-    <col min="2" max="2" width="19.54296875" style="3" customWidth="1"/>
-    <col min="3" max="4" width="8.81640625" style="3"/>
-    <col min="5" max="5" width="5.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.453125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="85.08984375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="41.36328125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="135.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.453125" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="8.81640625" style="3"/>
+    <col min="1" max="1" width="8.77734375" style="3"/>
+    <col min="2" max="2" width="19.5546875" style="3" customWidth="1"/>
+    <col min="3" max="4" width="8.77734375" style="3"/>
+    <col min="5" max="5" width="5.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="85.109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="41.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="135.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.44140625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
       <c r="B2" s="3" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>2</v>
@@ -19436,11 +19573,11 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="166" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="165"/>
-      <c r="C14" s="165"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="166"/>
       <c r="H14" s="6" t="s">
         <v>17</v>
       </c>
@@ -19701,7 +19838,7 @@
         <v>391</v>
       </c>
       <c r="K43" s="52" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="44" spans="2:11">
@@ -19709,10 +19846,10 @@
         <v>25</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="45" spans="2:11">
@@ -19726,7 +19863,7 @@
         <v>392</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="46" spans="2:11">
@@ -19751,7 +19888,7 @@
     </row>
     <row r="51" spans="6:10">
       <c r="H51" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="52" spans="6:10">
@@ -19809,17 +19946,17 @@
       </c>
     </row>
     <row r="62" spans="6:10">
-      <c r="F62" s="165" t="s">
+      <c r="F62" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="G62" s="165"/>
+      <c r="G62" s="166"/>
       <c r="H62" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="63" spans="6:10">
-      <c r="F63" s="165"/>
-      <c r="G63" s="165"/>
+      <c r="F63" s="166"/>
+      <c r="G63" s="166"/>
       <c r="H63" s="6" t="s">
         <v>42</v>
       </c>
@@ -19864,7 +20001,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="7:10" ht="14.4" customHeight="1">
+    <row r="75" spans="7:10" ht="14.45" customHeight="1">
       <c r="H75" s="11" t="s">
         <v>90</v>
       </c>
@@ -19927,19 +20064,19 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:F23"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="3" width="13.81640625" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" customWidth="1"/>
-    <col min="6" max="6" width="46.6328125" customWidth="1"/>
+    <col min="2" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="2:6">
@@ -20035,7 +20172,7 @@
         <v>126</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -20046,7 +20183,7 @@
         <v>127</v>
       </c>
       <c r="F22" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -20068,147 +20205,147 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A34:K71"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="B35" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="B57" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="B60" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F60" t="s">
         <v>1305</v>
-      </c>
-      <c r="F60" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="B61" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="B63" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="B64" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="B65" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="B66" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="B68" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G68" t="s">
         <v>1314</v>
-      </c>
-      <c r="G68" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B69" t="s">
+        <v>1315</v>
+      </c>
+      <c r="H69" t="s">
         <v>1316</v>
       </c>
-      <c r="H69" t="s">
+      <c r="K69" t="s">
         <v>1317</v>
-      </c>
-      <c r="K69" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B71" t="s">
         <v>1319</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" t="s">
         <v>1320</v>
       </c>
-      <c r="D71" t="s">
+      <c r="G71" t="s">
         <v>1321</v>
-      </c>
-      <c r="G71" t="s">
-        <v>1322</v>
       </c>
     </row>
   </sheetData>
@@ -20220,26 +20357,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X203"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X210"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E64" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView showGridLines="0" topLeftCell="A178" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="D218" sqref="D218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" customWidth="1"/>
-    <col min="6" max="6" width="30.36328125" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
-    <col min="8" max="8" width="10.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="N1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -20254,12 +20391,12 @@
         <v>198</v>
       </c>
       <c r="N2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>194</v>
@@ -20268,13 +20405,13 @@
         <v>196</v>
       </c>
       <c r="F3" s="93" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>199</v>
       </c>
       <c r="N3" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -20285,28 +20422,28 @@
         <v>197</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>200</v>
       </c>
       <c r="N4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="O5" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="O6" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="N8" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -20314,22 +20451,22 @@
         <v>209</v>
       </c>
       <c r="N9" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="N10" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="D14" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="D15" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -20366,17 +20503,17 @@
         <v>190</v>
       </c>
       <c r="V20" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21" spans="1:24">
       <c r="T21" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="22" spans="1:24">
       <c r="V22" s="60" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -20384,28 +20521,28 @@
         <v>333</v>
       </c>
       <c r="J23" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="24" spans="1:24">
       <c r="H24" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="V24" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="25" spans="1:24">
       <c r="E25" s="68" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K25" s="120" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="26" spans="1:24">
       <c r="E26" s="68" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>225</v>
@@ -20414,27 +20551,27 @@
         <v>227</v>
       </c>
       <c r="V26" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>510</v>
-      </c>
-      <c r="B27" s="130" t="s">
-        <v>865</v>
-      </c>
-      <c r="C27" s="130"/>
+        <v>509</v>
+      </c>
+      <c r="B27" s="131" t="s">
+        <v>864</v>
+      </c>
+      <c r="C27" s="131"/>
       <c r="E27" s="68" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G27" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G28" t="s">
         <v>232</v>
@@ -20442,120 +20579,120 @@
     </row>
     <row r="29" spans="1:24">
       <c r="A29" t="s">
+        <v>721</v>
+      </c>
+      <c r="B29" t="s">
         <v>722</v>
       </c>
-      <c r="B29" t="s">
-        <v>723</v>
-      </c>
       <c r="G29" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="30" spans="1:24">
       <c r="B30" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G30" s="119" t="s">
         <v>1362</v>
       </c>
-      <c r="G30" s="119" t="s">
-        <v>1363</v>
-      </c>
       <c r="H30" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="31" spans="1:24">
       <c r="A31" s="29" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B31" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G31" t="s">
         <v>233</v>
       </c>
       <c r="Q31" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="U31" t="s">
+        <v>1265</v>
+      </c>
+      <c r="X31" t="s">
         <v>1266</v>
-      </c>
-      <c r="X31" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="32" spans="1:24">
       <c r="A32" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B32" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G32" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="B33" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H33" s="69" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="I33" s="69"/>
       <c r="J33" s="69"/>
       <c r="K33" s="111"/>
-      <c r="L33" s="137" t="s">
-        <v>1277</v>
-      </c>
-      <c r="M33" s="137"/>
-      <c r="N33" s="137"/>
-      <c r="O33" s="137"/>
-      <c r="P33" s="137"/>
+      <c r="L33" s="138" t="s">
+        <v>1276</v>
+      </c>
+      <c r="M33" s="138"/>
+      <c r="N33" s="138"/>
+      <c r="O33" s="138"/>
+      <c r="P33" s="138"/>
       <c r="Q33" s="80" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="R33" s="80"/>
       <c r="S33" s="80"/>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" t="s">
-        <v>995</v>
-      </c>
-      <c r="H34" s="135" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I34" s="136"/>
-      <c r="J34" s="136"/>
-      <c r="K34" s="136"/>
-      <c r="L34" s="137" t="s">
+        <v>994</v>
+      </c>
+      <c r="H34" s="136" t="s">
+        <v>1268</v>
+      </c>
+      <c r="I34" s="137"/>
+      <c r="J34" s="137"/>
+      <c r="K34" s="137"/>
+      <c r="L34" s="138" t="s">
+        <v>1277</v>
+      </c>
+      <c r="M34" s="138"/>
+      <c r="N34" s="138"/>
+      <c r="O34" s="138"/>
+      <c r="P34" s="138"/>
+      <c r="Q34" s="80" t="s">
         <v>1278</v>
-      </c>
-      <c r="M34" s="137"/>
-      <c r="N34" s="137"/>
-      <c r="O34" s="137"/>
-      <c r="P34" s="137"/>
-      <c r="Q34" s="80" t="s">
-        <v>1279</v>
       </c>
       <c r="R34" s="80"/>
       <c r="S34" s="80"/>
     </row>
     <row r="35" spans="1:19">
-      <c r="H35" s="135" t="s">
-        <v>1268</v>
-      </c>
-      <c r="I35" s="136"/>
-      <c r="J35" s="136"/>
-      <c r="K35" s="136"/>
-      <c r="L35" s="131" t="s">
-        <v>1271</v>
-      </c>
-      <c r="M35" s="132"/>
-      <c r="N35" s="132"/>
-      <c r="O35" s="132"/>
-      <c r="P35" s="133"/>
+      <c r="H35" s="136" t="s">
+        <v>1267</v>
+      </c>
+      <c r="I35" s="137"/>
+      <c r="J35" s="137"/>
+      <c r="K35" s="137"/>
+      <c r="L35" s="132" t="s">
+        <v>1270</v>
+      </c>
+      <c r="M35" s="133"/>
+      <c r="N35" s="133"/>
+      <c r="O35" s="133"/>
+      <c r="P35" s="134"/>
       <c r="Q35" s="112"/>
       <c r="R35" s="112"/>
       <c r="S35" s="112"/>
@@ -20570,7 +20707,7 @@
     </row>
     <row r="37" spans="1:19">
       <c r="B37" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H37" t="s">
         <v>229</v>
@@ -20578,10 +20715,10 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B38" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="I38" t="s">
         <v>230</v>
@@ -20589,7 +20726,7 @@
     </row>
     <row r="39" spans="1:19">
       <c r="B39" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I39" t="s">
         <v>231</v>
@@ -20597,23 +20734,23 @@
     </row>
     <row r="40" spans="1:19">
       <c r="F40" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="G40" s="69" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H40" s="132" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I40" s="133"/>
+      <c r="J40" s="133"/>
+      <c r="K40" s="133"/>
+      <c r="L40" s="133"/>
+      <c r="M40" s="133"/>
+      <c r="N40" s="133"/>
+      <c r="O40" s="134"/>
+      <c r="P40" s="69" t="s">
         <v>1045</v>
-      </c>
-      <c r="H40" s="131" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I40" s="132"/>
-      <c r="J40" s="132"/>
-      <c r="K40" s="132"/>
-      <c r="L40" s="132"/>
-      <c r="M40" s="132"/>
-      <c r="N40" s="132"/>
-      <c r="O40" s="133"/>
-      <c r="P40" s="69" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -20621,15 +20758,15 @@
         <v>249</v>
       </c>
       <c r="H41" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" t="s">
+        <v>717</v>
+      </c>
+      <c r="B42" t="s">
         <v>718</v>
-      </c>
-      <c r="B42" t="s">
-        <v>719</v>
       </c>
       <c r="I42" t="s">
         <v>234</v>
@@ -20637,73 +20774,73 @@
     </row>
     <row r="43" spans="1:19">
       <c r="B43" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H43" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="44" spans="1:19">
       <c r="B44" s="16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I44" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="B45" s="16" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H45" t="s">
+        <v>751</v>
+      </c>
+      <c r="I45" t="s">
         <v>752</v>
       </c>
-      <c r="I45" t="s">
-        <v>753</v>
-      </c>
       <c r="L45" s="16" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="46" spans="1:19">
       <c r="B46" s="88" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G46" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="L46" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="47" spans="1:19">
       <c r="B47" s="16" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="48" spans="1:19">
       <c r="B48" s="16"/>
       <c r="H48" s="16" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="G49" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H49" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H50" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -20711,10 +20848,10 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H51" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -20722,10 +20859,10 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H52" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -20733,18 +20870,18 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I53" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="B54" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I54" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -20752,7 +20889,7 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -20760,10 +20897,10 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G56" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -20771,640 +20908,665 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H57" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="M57" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G59" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G60" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="16.2" customHeight="1">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="16.149999999999999" customHeight="1">
       <c r="A61" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G61" s="66" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="B62" s="53" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G63" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G64" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H64" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="G67" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H67" t="s">
         <v>1074</v>
-      </c>
-      <c r="H67" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="H68" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="I88" s="30" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="98" spans="1:16">
       <c r="A98" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="103" spans="1:16">
       <c r="I103" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="105" spans="1:16">
       <c r="I105" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="106" spans="1:16">
       <c r="A106" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="107" spans="1:16">
       <c r="A107" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I107" t="s">
+        <v>1244</v>
+      </c>
+      <c r="P107" t="s">
         <v>1245</v>
-      </c>
-      <c r="P107" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="108" spans="1:16">
       <c r="A108" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="109" spans="1:16">
       <c r="A109" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="110" spans="1:16">
       <c r="A110" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="111" spans="1:16">
       <c r="A111" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="112" spans="1:16">
       <c r="A112" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="B124" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="B130" s="58" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
     <row r="131" spans="1:6">
       <c r="B131" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D131" s="1"/>
     </row>
     <row r="132" spans="1:6">
       <c r="B132" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="58" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C143" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="F143" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B145" t="s">
         <v>1189</v>
-      </c>
-      <c r="B145" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="B146" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C149" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="B161" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="58"/>
       <c r="B162" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="B163" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="B164" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="B167" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="B168" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="B169" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
+        <v>505</v>
+      </c>
+      <c r="B171" t="s">
         <v>506</v>
-      </c>
-      <c r="B171" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="B172" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="B173" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="58" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="B176" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="B177" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="B178" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="B179" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="B180" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="B181" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="193" spans="1:12">
       <c r="A193" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="195" spans="1:12">
       <c r="A195" t="s">
-        <v>1229</v>
-      </c>
-      <c r="J195" s="134" t="s">
-        <v>511</v>
-      </c>
-      <c r="K195" s="134"/>
-      <c r="L195" s="134"/>
+        <v>1228</v>
+      </c>
+      <c r="J195" s="135" t="s">
+        <v>510</v>
+      </c>
+      <c r="K195" s="135"/>
+      <c r="L195" s="135"/>
     </row>
     <row r="196" spans="1:12">
-      <c r="J196" s="134"/>
-      <c r="K196" s="134"/>
-      <c r="L196" s="134"/>
+      <c r="J196" s="135"/>
+      <c r="K196" s="135"/>
+      <c r="L196" s="135"/>
     </row>
     <row r="197" spans="1:12">
       <c r="A197" t="s">
-        <v>1230</v>
-      </c>
-      <c r="J197" s="134"/>
-      <c r="K197" s="134"/>
-      <c r="L197" s="134"/>
+        <v>1229</v>
+      </c>
+      <c r="J197" s="135"/>
+      <c r="K197" s="135"/>
+      <c r="L197" s="135"/>
     </row>
     <row r="198" spans="1:12">
       <c r="A198" t="s">
-        <v>1231</v>
-      </c>
-      <c r="J198" s="134"/>
-      <c r="K198" s="134"/>
-      <c r="L198" s="134"/>
+        <v>1230</v>
+      </c>
+      <c r="J198" s="135"/>
+      <c r="K198" s="135"/>
+      <c r="L198" s="135"/>
     </row>
     <row r="199" spans="1:12">
       <c r="A199" t="s">
-        <v>1232</v>
-      </c>
-      <c r="J199" s="134"/>
-      <c r="K199" s="134"/>
-      <c r="L199" s="134"/>
+        <v>1231</v>
+      </c>
+      <c r="J199" s="135"/>
+      <c r="K199" s="135"/>
+      <c r="L199" s="135"/>
     </row>
     <row r="200" spans="1:12">
       <c r="B200" t="s">
-        <v>1233</v>
-      </c>
-      <c r="J200" s="134"/>
-      <c r="K200" s="134"/>
-      <c r="L200" s="134"/>
+        <v>1232</v>
+      </c>
+      <c r="J200" s="135"/>
+      <c r="K200" s="135"/>
+      <c r="L200" s="135"/>
     </row>
     <row r="201" spans="1:12">
-      <c r="J201" s="134"/>
-      <c r="K201" s="134"/>
-      <c r="L201" s="134"/>
+      <c r="J201" s="135"/>
+      <c r="K201" s="135"/>
+      <c r="L201" s="135"/>
     </row>
     <row r="202" spans="1:12">
-      <c r="J202" s="134"/>
-      <c r="K202" s="134"/>
-      <c r="L202" s="134"/>
+      <c r="J202" s="135"/>
+      <c r="K202" s="135"/>
+      <c r="L202" s="135"/>
     </row>
     <row r="203" spans="1:12">
-      <c r="J203" s="134"/>
-      <c r="K203" s="134"/>
-      <c r="L203" s="134"/>
+      <c r="J203" s="135"/>
+      <c r="K203" s="135"/>
+      <c r="L203" s="135"/>
+    </row>
+    <row r="205" spans="1:12">
+      <c r="A205" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
+      <c r="A206" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
+      <c r="A207" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>1395</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -21430,14 +21592,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:G44"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="D25" workbookViewId="0">
       <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="5:7">
       <c r="E1" t="s">
@@ -21446,146 +21608,146 @@
     </row>
     <row r="3" spans="5:7">
       <c r="E3" t="s">
+        <v>466</v>
+      </c>
+      <c r="G3" t="s">
         <v>467</v>
-      </c>
-      <c r="G3" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="7" spans="5:7">
       <c r="E7" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="8" spans="5:7">
       <c r="E8" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="11" spans="5:7" ht="33">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7" ht="33.75">
       <c r="E11" s="115" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="14" spans="5:7">
       <c r="E14" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="16" spans="5:7">
       <c r="E16" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="F24" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="F25" t="s">
+        <v>1332</v>
+      </c>
+      <c r="G25" t="s">
         <v>1333</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="F26" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="F27" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="F28" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="F29" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="33" spans="5:6">
       <c r="E33" s="116" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="F33" s="117"/>
     </row>
     <row r="34" spans="5:6">
       <c r="E34" s="118" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="F34" s="117"/>
     </row>
     <row r="35" spans="5:6">
       <c r="E35" s="118" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="F35" s="117"/>
     </row>
     <row r="36" spans="5:6">
       <c r="E36" s="118" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="F36" s="117"/>
     </row>
     <row r="37" spans="5:6">
       <c r="E37" s="118" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="F37" s="117"/>
     </row>
     <row r="38" spans="5:6">
       <c r="E38" s="118" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="F38" s="117"/>
     </row>
     <row r="39" spans="5:6">
       <c r="E39" s="118" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="F39" s="117"/>
     </row>
     <row r="40" spans="5:6">
       <c r="E40" s="118" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="F40" s="117"/>
     </row>
     <row r="44" spans="5:6">
       <c r="E44" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
   </sheetData>
@@ -21596,14 +21758,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:Q68"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="5:8">
       <c r="F2" t="s">
@@ -21612,7 +21774,7 @@
     </row>
     <row r="3" spans="5:8">
       <c r="G3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="5:8">
@@ -21630,12 +21792,12 @@
         <v>186</v>
       </c>
       <c r="H6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="5:8">
       <c r="H7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="5:8">
@@ -21643,82 +21805,82 @@
         <v>213</v>
       </c>
       <c r="H8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="5:8">
       <c r="H9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="5:8">
       <c r="E10" s="58" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="5:8">
       <c r="E11" s="58" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="5:8">
       <c r="E12" s="58" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="13" spans="5:8">
       <c r="E13" s="58" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="14" spans="5:8">
       <c r="H14" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" spans="5:8">
       <c r="G15" s="43" t="s">
+        <v>493</v>
+      </c>
+      <c r="H15" t="s">
         <v>494</v>
-      </c>
-      <c r="H15" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="17" spans="7:17">
       <c r="H17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18" spans="7:17">
       <c r="G18" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="I18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="19" spans="7:17">
       <c r="I19" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="7:17">
       <c r="I20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="21" spans="7:17">
       <c r="Q21" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="22" spans="7:17">
@@ -21729,18 +21891,18 @@
         <v>215</v>
       </c>
       <c r="K22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P22" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="23" spans="7:17">
       <c r="H23" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="Q23" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="24" spans="7:17">
@@ -21748,27 +21910,27 @@
         <v>216</v>
       </c>
       <c r="K24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="25" spans="7:17">
       <c r="I25" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="26" spans="7:17">
       <c r="I26" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="27" spans="7:17">
       <c r="I27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="29" spans="7:17">
       <c r="G29" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="30" spans="7:17">
@@ -21781,7 +21943,7 @@
         <v>217</v>
       </c>
       <c r="I31" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="32" spans="7:17">
@@ -21814,114 +21976,114 @@
     </row>
     <row r="39" spans="7:12">
       <c r="G39" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="40" spans="7:12">
       <c r="G40" t="s">
+        <v>499</v>
+      </c>
+      <c r="H40" t="s">
         <v>500</v>
-      </c>
-      <c r="H40" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="41" spans="7:12">
       <c r="H41" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="42" spans="7:12">
       <c r="H42" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="43" spans="7:12">
       <c r="G43" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="44" spans="7:12" ht="17.399999999999999">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="44" spans="7:12" ht="18.75">
       <c r="G44" s="51"/>
       <c r="L44" s="61" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="45" spans="7:12">
       <c r="G45" s="52" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="46" spans="7:12">
       <c r="G46" s="53" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="48" spans="7:12">
       <c r="G48" s="43" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="53" spans="7:13">
       <c r="G53" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="54" spans="7:13">
       <c r="H54" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I54" t="s">
         <v>1083</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>1084</v>
-      </c>
-      <c r="J54" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="58" spans="7:13">
       <c r="G58" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="59" spans="7:13">
       <c r="G59" s="105" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="60" spans="7:13">
       <c r="H60" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="L60" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="61" spans="7:13">
       <c r="G61" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I61" t="s">
         <v>1086</v>
       </c>
-      <c r="I61" t="s">
+      <c r="K61" t="s">
         <v>1087</v>
       </c>
-      <c r="K61" t="s">
+      <c r="M61" t="s">
         <v>1088</v>
-      </c>
-      <c r="M61" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="63" spans="7:13">
       <c r="G63" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="64" spans="7:13">
       <c r="H64" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="65" spans="7:13">
       <c r="G65" s="106" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H65" s="106"/>
       <c r="I65" s="106"/>
@@ -21932,7 +22094,7 @@
     </row>
     <row r="66" spans="7:13">
       <c r="G66" s="106" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H66" s="106"/>
       <c r="I66" s="106"/>
@@ -21943,7 +22105,7 @@
     </row>
     <row r="67" spans="7:13">
       <c r="G67" s="106" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H67" s="106"/>
       <c r="I67" s="106"/>
@@ -21954,7 +22116,7 @@
     </row>
     <row r="68" spans="7:13">
       <c r="G68" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
   </sheetData>
@@ -21965,66 +22127,66 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A2:Y133"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView showGridLines="0" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="4" max="4" width="13.90625" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:9">
       <c r="F2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="3" spans="4:9">
       <c r="F3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="4" spans="4:9">
       <c r="E4" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F4" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="5" spans="4:9">
       <c r="F5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="6" spans="4:9">
       <c r="F6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="7" spans="4:9">
       <c r="G7" s="29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="4:9">
       <c r="E8" t="s">
+        <v>415</v>
+      </c>
+      <c r="F8" t="s">
         <v>416</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>417</v>
-      </c>
-      <c r="G8" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="9" spans="4:9">
@@ -22032,82 +22194,82 @@
         <v>252</v>
       </c>
       <c r="E9" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="10" spans="4:9">
       <c r="D10" s="66" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="12" spans="4:9">
       <c r="H12" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="I12" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="13" spans="4:9">
       <c r="H13" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="I13" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="14" spans="4:9">
       <c r="I14" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="17" spans="3:13">
       <c r="D17" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="19" spans="3:13">
       <c r="C19" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D19" s="17"/>
       <c r="K19" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="20" spans="3:13">
       <c r="E20" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K20" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="21" spans="3:13">
       <c r="D21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="22" spans="3:13">
       <c r="F22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="3:13">
       <c r="F23" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" ht="17.25">
       <c r="E25" s="20" t="s">
         <v>253</v>
       </c>
@@ -22124,247 +22286,253 @@
     </row>
     <row r="30" spans="3:13">
       <c r="K30" t="s">
+        <v>957</v>
+      </c>
+      <c r="M30" t="s">
         <v>958</v>
-      </c>
-      <c r="M30" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="31" spans="3:13">
       <c r="E31" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M31" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="32" spans="3:13">
       <c r="D32" t="s">
+        <v>402</v>
+      </c>
+      <c r="E32" t="s">
         <v>403</v>
       </c>
-      <c r="E32" t="s">
-        <v>404</v>
-      </c>
       <c r="M32" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="33" spans="4:20">
       <c r="E33" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M33" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="36" spans="4:20">
       <c r="E36" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="T36" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="37" spans="4:20">
       <c r="D37" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E37" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="38" spans="4:20">
       <c r="E38" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="40" spans="4:20">
       <c r="D40" t="s">
+        <v>567</v>
+      </c>
+      <c r="E40" t="s">
         <v>568</v>
-      </c>
-      <c r="E40" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="41" spans="4:20">
       <c r="G41" s="19" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="42" spans="4:20">
       <c r="E42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G42" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H42" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="43" spans="4:20">
       <c r="E43" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G43" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="44" spans="4:20">
       <c r="E44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="47" spans="4:20">
       <c r="D47" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I47" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="48" spans="4:20">
       <c r="E48" s="54" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J48" s="54" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="49" spans="1:18">
       <c r="E49" s="54" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L49" s="54" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="50" spans="1:18">
       <c r="E50" s="54" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="K50" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="L50" s="54" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="51" spans="1:18">
       <c r="E51" s="54" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L51" s="54" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="52" spans="1:18">
       <c r="F52" s="54" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="J52" s="94" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L52" s="54"/>
     </row>
     <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E53" s="54" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="J53" s="94"/>
       <c r="L53" s="54"/>
     </row>
     <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E54" s="99" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F54" s="54"/>
       <c r="J54" s="54" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="L54" s="54"/>
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="58" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B55" s="58"/>
       <c r="C55" s="58"/>
       <c r="E55" s="99" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="J55" s="54"/>
       <c r="L55" s="54"/>
     </row>
     <row r="56" spans="1:18">
       <c r="A56" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B56" s="109"/>
       <c r="C56" s="109"/>
       <c r="E56" s="95"/>
       <c r="F56" s="54" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J56" s="94" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="109" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F57" s="54" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J57" s="94" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="121" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E58" s="101" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="58" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E59" s="101" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="60" spans="1:18">
+      <c r="A60" t="s">
+        <v>1397</v>
+      </c>
       <c r="E60" s="54" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="R60" s="102"/>
     </row>
     <row r="61" spans="1:18">
+      <c r="A61" s="129" t="s">
+        <v>1396</v>
+      </c>
       <c r="E61" s="54" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="R61" s="30"/>
     </row>
     <row r="62" spans="1:18">
       <c r="D62" s="100" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E62" s="54"/>
       <c r="R62" s="30"/>
     </row>
     <row r="63" spans="1:18">
       <c r="D63" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E63" s="54"/>
       <c r="I63" s="54"/>
@@ -22425,28 +22593,28 @@
     </row>
     <row r="75" spans="4:25">
       <c r="D75" t="s">
+        <v>569</v>
+      </c>
+      <c r="E75" t="s">
         <v>570</v>
-      </c>
-      <c r="E75" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="76" spans="4:25">
       <c r="E76" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="77" spans="4:25">
       <c r="F77" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="78" spans="4:25">
       <c r="E78" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="R78" s="76" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="S78" s="77"/>
       <c r="T78" s="77"/>
@@ -22458,10 +22626,10 @@
     </row>
     <row r="79" spans="4:25">
       <c r="F79" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R79" s="103" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="S79" s="80"/>
       <c r="T79" s="80"/>
@@ -22473,7 +22641,7 @@
     </row>
     <row r="80" spans="4:25">
       <c r="R80" s="104" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="S80" s="80"/>
       <c r="T80" s="80"/>
@@ -22485,10 +22653,10 @@
     </row>
     <row r="81" spans="4:25">
       <c r="D81" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="R81" s="79" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="S81" s="80"/>
       <c r="T81" s="80"/>
@@ -22500,10 +22668,10 @@
     </row>
     <row r="82" spans="4:25">
       <c r="D82" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="R82" s="104" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="S82" s="80"/>
       <c r="T82" s="80"/>
@@ -22514,14 +22682,14 @@
       <c r="Y82" s="81"/>
     </row>
     <row r="83" spans="4:25">
-      <c r="D83" s="138" t="s">
-        <v>576</v>
-      </c>
-      <c r="E83" s="138"/>
-      <c r="F83" s="138"/>
-      <c r="G83" s="138"/>
+      <c r="D83" s="139" t="s">
+        <v>575</v>
+      </c>
+      <c r="E83" s="139"/>
+      <c r="F83" s="139"/>
+      <c r="G83" s="139"/>
       <c r="R83" s="104" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="S83" s="80"/>
       <c r="T83" s="80"/>
@@ -22532,12 +22700,12 @@
       <c r="Y83" s="81"/>
     </row>
     <row r="84" spans="4:25">
-      <c r="D84" s="138"/>
-      <c r="E84" s="138"/>
-      <c r="F84" s="138"/>
-      <c r="G84" s="138"/>
+      <c r="D84" s="139"/>
+      <c r="E84" s="139"/>
+      <c r="F84" s="139"/>
+      <c r="G84" s="139"/>
       <c r="R84" s="82" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="S84" s="83"/>
       <c r="T84" s="83"/>
@@ -22548,56 +22716,56 @@
       <c r="Y84" s="84"/>
     </row>
     <row r="85" spans="4:25">
-      <c r="D85" s="138"/>
-      <c r="E85" s="138"/>
-      <c r="F85" s="138"/>
-      <c r="G85" s="138"/>
+      <c r="D85" s="139"/>
+      <c r="E85" s="139"/>
+      <c r="F85" s="139"/>
+      <c r="G85" s="139"/>
     </row>
     <row r="86" spans="4:25">
-      <c r="D86" s="138"/>
-      <c r="E86" s="138"/>
-      <c r="F86" s="138"/>
-      <c r="G86" s="138"/>
+      <c r="D86" s="139"/>
+      <c r="E86" s="139"/>
+      <c r="F86" s="139"/>
+      <c r="G86" s="139"/>
     </row>
     <row r="87" spans="4:25">
-      <c r="D87" s="138"/>
-      <c r="E87" s="138"/>
-      <c r="F87" s="138"/>
-      <c r="G87" s="138"/>
+      <c r="D87" s="139"/>
+      <c r="E87" s="139"/>
+      <c r="F87" s="139"/>
+      <c r="G87" s="139"/>
     </row>
     <row r="88" spans="4:25">
       <c r="D88" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F88" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="89" spans="4:25">
+      <c r="D89" s="146" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E89" s="147"/>
+      <c r="F89" s="147"/>
+      <c r="G89" s="147"/>
+      <c r="H89" s="147"/>
+      <c r="I89" s="147"/>
+      <c r="J89" s="147"/>
+      <c r="K89" s="147"/>
+      <c r="L89" s="148"/>
+    </row>
+    <row r="90" spans="4:25" ht="54" customHeight="1">
+      <c r="D90" s="149" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="89" spans="4:25">
-      <c r="D89" s="145" t="s">
-        <v>1369</v>
-      </c>
-      <c r="E89" s="146"/>
-      <c r="F89" s="146"/>
-      <c r="G89" s="146"/>
-      <c r="H89" s="146"/>
-      <c r="I89" s="146"/>
-      <c r="J89" s="146"/>
-      <c r="K89" s="146"/>
-      <c r="L89" s="147"/>
-    </row>
-    <row r="90" spans="4:25" ht="54" customHeight="1">
-      <c r="D90" s="148" t="s">
-        <v>1371</v>
-      </c>
-      <c r="E90" s="148"/>
-      <c r="F90" s="148"/>
-      <c r="G90" s="148"/>
-      <c r="H90" s="148"/>
-      <c r="I90" s="148"/>
-      <c r="J90" s="148"/>
-      <c r="K90" s="148"/>
-      <c r="L90" s="148"/>
+      <c r="E90" s="149"/>
+      <c r="F90" s="149"/>
+      <c r="G90" s="149"/>
+      <c r="H90" s="149"/>
+      <c r="I90" s="149"/>
+      <c r="J90" s="149"/>
+      <c r="K90" s="149"/>
+      <c r="L90" s="149"/>
     </row>
     <row r="91" spans="4:25">
       <c r="E91" s="122"/>
@@ -22607,151 +22775,151 @@
     </row>
     <row r="93" spans="4:25">
       <c r="D93" s="56" t="s">
+        <v>577</v>
+      </c>
+      <c r="E93" t="s">
         <v>578</v>
-      </c>
-      <c r="E93" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="94" spans="4:25">
       <c r="E94" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="95" spans="4:25">
       <c r="E95" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I95" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="96" spans="4:25">
       <c r="E96" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="97" spans="3:19">
       <c r="E97" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="98" spans="3:19">
       <c r="E98" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="99" spans="3:19">
       <c r="E99" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="100" spans="3:19">
       <c r="E100" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="101" spans="3:19">
       <c r="E101" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="102" spans="3:19">
       <c r="D102" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="104" spans="3:19">
       <c r="E104" s="123" t="s">
+        <v>644</v>
+      </c>
+      <c r="F104" s="123" t="s">
         <v>645</v>
-      </c>
-      <c r="F104" s="123" t="s">
-        <v>646</v>
       </c>
       <c r="G104" s="123"/>
     </row>
     <row r="105" spans="3:19">
       <c r="F105" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="106" spans="3:19">
       <c r="F106" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="107" spans="3:19">
       <c r="F107" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="108" spans="3:19">
       <c r="F108" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="109" spans="3:19">
       <c r="F109" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="110" spans="3:19" ht="16.2" customHeight="1">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="110" spans="3:19" ht="16.149999999999999" customHeight="1">
       <c r="E110" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F110" t="s">
-        <v>707</v>
-      </c>
-      <c r="L110" s="139" t="s">
-        <v>623</v>
-      </c>
-      <c r="M110" s="140"/>
-      <c r="N110" s="140"/>
-      <c r="O110" s="140"/>
-      <c r="P110" s="140"/>
-      <c r="Q110" s="140"/>
-      <c r="R110" s="140"/>
-      <c r="S110" s="141"/>
-    </row>
-    <row r="111" spans="3:19" ht="28.2">
+        <v>706</v>
+      </c>
+      <c r="L110" s="140" t="s">
+        <v>622</v>
+      </c>
+      <c r="M110" s="141"/>
+      <c r="N110" s="141"/>
+      <c r="O110" s="141"/>
+      <c r="P110" s="141"/>
+      <c r="Q110" s="141"/>
+      <c r="R110" s="141"/>
+      <c r="S110" s="142"/>
+    </row>
+    <row r="111" spans="3:19" ht="30.75">
       <c r="C111" ph="1"/>
       <c r="G111" s="55" t="s">
-        <v>649</v>
-      </c>
-      <c r="L111" s="142"/>
-      <c r="M111" s="143"/>
-      <c r="N111" s="143"/>
-      <c r="O111" s="143"/>
-      <c r="P111" s="143"/>
-      <c r="Q111" s="143"/>
-      <c r="R111" s="143"/>
-      <c r="S111" s="144"/>
+        <v>648</v>
+      </c>
+      <c r="L111" s="143"/>
+      <c r="M111" s="144"/>
+      <c r="N111" s="144"/>
+      <c r="O111" s="144"/>
+      <c r="P111" s="144"/>
+      <c r="Q111" s="144"/>
+      <c r="R111" s="144"/>
+      <c r="S111" s="145"/>
     </row>
     <row r="112" spans="3:19">
       <c r="E112" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F112" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L112" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="115" spans="5:14">
       <c r="E115" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F115" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="116" spans="5:14">
       <c r="E116" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F116" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="119" spans="5:14">
@@ -22761,13 +22929,13 @@
     </row>
     <row r="120" spans="5:14">
       <c r="E120" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="H120" t="s">
         <v>337</v>
       </c>
       <c r="L120" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="121" spans="5:14">
@@ -22784,13 +22952,13 @@
         <v>272</v>
       </c>
       <c r="J121" t="s">
+        <v>703</v>
+      </c>
+      <c r="L121" s="126" t="s">
         <v>704</v>
       </c>
-      <c r="L121" s="126" t="s">
-        <v>705</v>
-      </c>
       <c r="N121" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="122" spans="5:14">
@@ -22810,7 +22978,7 @@
         <v>339</v>
       </c>
       <c r="L122" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="123" spans="5:14">
@@ -22827,7 +22995,7 @@
         <v>272</v>
       </c>
       <c r="J123" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="124" spans="5:14">
@@ -22847,7 +23015,7 @@
         <v>345</v>
       </c>
       <c r="L124" s="126" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="125" spans="5:14">
@@ -22886,46 +23054,46 @@
     </row>
     <row r="127" spans="5:14">
       <c r="L127" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="128" spans="5:14">
       <c r="L128" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="129" spans="6:18">
       <c r="F129" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="L129" s="127" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="R129" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="130" spans="6:18">
       <c r="F130" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="L130" s="127" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="131" spans="6:18">
       <c r="L131" s="127" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="132" spans="6:18">
       <c r="L132" s="128" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="133" spans="6:18">
       <c r="L133" s="128" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
   </sheetData>
@@ -22943,58 +23111,58 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z124"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="8.81640625" style="1"/>
-    <col min="3" max="3" width="15.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="2.453125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="8.81640625" style="1"/>
-    <col min="14" max="14" width="14.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.90625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.6328125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="2" width="8.77734375" style="1"/>
+    <col min="3" max="3" width="15.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="2.44140625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="8.77734375" style="1"/>
+    <col min="14" max="14" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
       <c r="C2" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="D3" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="H7" s="72" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="N8" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="O8" s="58" t="s">
         <v>927</v>
-      </c>
-      <c r="O8" s="58" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -23007,7 +23175,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>115</v>
@@ -23015,59 +23183,59 @@
     </row>
     <row r="11" spans="1:18">
       <c r="B11" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="G11" s="12">
         <v>7</v>
       </c>
       <c r="N11" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="O11" s="89" t="s">
         <v>1107</v>
       </c>
-      <c r="O11" s="89" t="s">
-        <v>1108</v>
-      </c>
       <c r="P11" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="113" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B12" s="113" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C12" s="113" t="s">
         <v>1283</v>
-      </c>
-      <c r="C12" s="113" t="s">
-        <v>1284</v>
       </c>
       <c r="D12" s="58"/>
       <c r="H12" s="71" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I12" s="12">
         <v>3</v>
       </c>
       <c r="O12" s="89" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="92" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C13" s="92">
         <v>2</v>
       </c>
       <c r="O13" s="89" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="92" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B14" s="92">
         <v>2</v>
@@ -23076,12 +23244,12 @@
         <v>2</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="92" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B15" s="92">
         <v>1</v>
@@ -23094,10 +23262,10 @@
       <c r="I16" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="M16" s="149" t="s">
+      <c r="M16" s="153" t="s">
         <v>263</v>
       </c>
-      <c r="N16" s="150"/>
+      <c r="N16" s="154"/>
       <c r="O16" s="39" t="s">
         <v>260</v>
       </c>
@@ -23108,15 +23276,15 @@
         <v>262</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="17" spans="2:26">
       <c r="B17" s="58" t="s">
-        <v>1290</v>
-      </c>
-      <c r="M17" s="153" t="s">
-        <v>1100</v>
+        <v>1289</v>
+      </c>
+      <c r="M17" s="152" t="s">
+        <v>1099</v>
       </c>
       <c r="N17" s="12" t="s">
         <v>256</v>
@@ -23125,73 +23293,73 @@
         <v>264</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="Q17" s="41" t="s">
-        <v>929</v>
-      </c>
-      <c r="S17" s="154" t="s">
-        <v>745</v>
-      </c>
-      <c r="T17" s="155"/>
-      <c r="U17" s="155"/>
-      <c r="V17" s="155"/>
-      <c r="W17" s="155"/>
+        <v>928</v>
+      </c>
+      <c r="S17" s="150" t="s">
+        <v>744</v>
+      </c>
+      <c r="T17" s="151"/>
+      <c r="U17" s="151"/>
+      <c r="V17" s="151"/>
+      <c r="W17" s="151"/>
     </row>
     <row r="18" spans="2:26">
       <c r="B18" s="58" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>134</v>
       </c>
       <c r="H18" s="98" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I18" s="12">
         <v>1</v>
       </c>
-      <c r="M18" s="153"/>
+      <c r="M18" s="152"/>
       <c r="N18" s="12" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>264</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="Q18" s="14" t="s">
-        <v>854</v>
-      </c>
-      <c r="S18" s="154"/>
-      <c r="T18" s="155"/>
-      <c r="U18" s="155"/>
-      <c r="V18" s="155"/>
-      <c r="W18" s="155"/>
+        <v>853</v>
+      </c>
+      <c r="S18" s="150"/>
+      <c r="T18" s="151"/>
+      <c r="U18" s="151"/>
+      <c r="V18" s="151"/>
+      <c r="W18" s="151"/>
     </row>
     <row r="19" spans="2:26">
       <c r="B19" s="58" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G19" s="12">
         <v>5</v>
       </c>
       <c r="H19" s="73" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I19" s="57">
         <v>1</v>
       </c>
-      <c r="M19" s="153"/>
+      <c r="M19" s="152"/>
       <c r="N19" s="18" t="s">
+        <v>1100</v>
+      </c>
+      <c r="O19" s="14" t="s">
         <v>1101</v>
-      </c>
-      <c r="O19" s="14" t="s">
-        <v>1102</v>
       </c>
       <c r="P19" s="17" t="s">
         <v>265</v>
@@ -23199,11 +23367,11 @@
       <c r="Q19" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="S19" s="154"/>
-      <c r="T19" s="155"/>
-      <c r="U19" s="155"/>
-      <c r="V19" s="155"/>
-      <c r="W19" s="155"/>
+      <c r="S19" s="150"/>
+      <c r="T19" s="151"/>
+      <c r="U19" s="151"/>
+      <c r="V19" s="151"/>
+      <c r="W19" s="151"/>
     </row>
     <row r="20" spans="2:26">
       <c r="E20" s="12">
@@ -23222,7 +23390,7 @@
       <c r="Q20" s="14"/>
     </row>
     <row r="21" spans="2:26">
-      <c r="M21" s="153" t="s">
+      <c r="M21" s="152" t="s">
         <v>257</v>
       </c>
       <c r="N21" s="12" t="s">
@@ -23235,20 +23403,20 @@
         <v>268</v>
       </c>
       <c r="Q21" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="R21" s="150" t="s">
         <v>481</v>
       </c>
-      <c r="R21" s="154" t="s">
-        <v>482</v>
-      </c>
-      <c r="S21" s="155"/>
-      <c r="T21" s="155"/>
-      <c r="U21" s="155"/>
-      <c r="V21" s="155"/>
+      <c r="S21" s="151"/>
+      <c r="T21" s="151"/>
+      <c r="U21" s="151"/>
+      <c r="V21" s="151"/>
     </row>
     <row r="22" spans="2:26">
-      <c r="M22" s="153"/>
+      <c r="M22" s="152"/>
       <c r="N22" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O22" s="14" t="s">
         <v>269</v>
@@ -23257,13 +23425,13 @@
         <v>270</v>
       </c>
       <c r="Q22" s="14" t="s">
-        <v>481</v>
-      </c>
-      <c r="R22" s="154"/>
-      <c r="S22" s="155"/>
-      <c r="T22" s="155"/>
-      <c r="U22" s="155"/>
-      <c r="V22" s="155"/>
+        <v>480</v>
+      </c>
+      <c r="R22" s="150"/>
+      <c r="S22" s="151"/>
+      <c r="T22" s="151"/>
+      <c r="U22" s="151"/>
+      <c r="V22" s="151"/>
     </row>
     <row r="23" spans="2:26">
       <c r="H23" s="12" t="s">
@@ -23272,7 +23440,7 @@
       <c r="I23" s="12">
         <v>2</v>
       </c>
-      <c r="M23" s="153"/>
+      <c r="M23" s="152"/>
       <c r="N23" s="18" t="s">
         <v>259</v>
       </c>
@@ -23283,98 +23451,98 @@
         <v>270</v>
       </c>
       <c r="Q23" s="14" t="s">
-        <v>481</v>
-      </c>
-      <c r="R23" s="154"/>
-      <c r="S23" s="155"/>
-      <c r="T23" s="155"/>
-      <c r="U23" s="155"/>
-      <c r="V23" s="155"/>
+        <v>480</v>
+      </c>
+      <c r="R23" s="150"/>
+      <c r="S23" s="151"/>
+      <c r="T23" s="151"/>
+      <c r="U23" s="151"/>
+      <c r="V23" s="151"/>
     </row>
     <row r="24" spans="2:26">
       <c r="H24" s="12" t="s">
         <v>141</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="O24" s="17"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="17"/>
       <c r="R24" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="S24" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="S24" s="1" t="s">
-        <v>431</v>
-      </c>
     </row>
     <row r="25" spans="2:26">
-      <c r="M25" s="153" t="s">
-        <v>424</v>
+      <c r="M25" s="152" t="s">
+        <v>423</v>
       </c>
       <c r="N25" s="39" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="O25" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="P25" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="P25" s="14" t="s">
+      <c r="Q25" s="42" t="s">
         <v>428</v>
-      </c>
-      <c r="Q25" s="42" t="s">
-        <v>429</v>
       </c>
       <c r="R25" s="1">
         <v>16</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="2:26">
-      <c r="M26" s="153"/>
+      <c r="M26" s="152"/>
       <c r="N26" s="90" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="O26" s="14"/>
       <c r="P26" s="14" t="s">
+        <v>998</v>
+      </c>
+      <c r="Q26" s="14" t="s">
         <v>999</v>
-      </c>
-      <c r="Q26" s="14" t="s">
-        <v>1000</v>
       </c>
       <c r="R26" s="1">
         <v>11</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="2:26">
-      <c r="M27" s="153"/>
+      <c r="M27" s="152"/>
       <c r="N27" s="39" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O27" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="P27" s="14" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="Q27" s="42" t="s">
-        <v>429</v>
-      </c>
-      <c r="R27" s="154" t="s">
-        <v>1128</v>
-      </c>
-      <c r="S27" s="155"/>
-      <c r="T27" s="155"/>
-      <c r="U27" s="155"/>
-      <c r="V27" s="155"/>
-      <c r="W27" s="155"/>
-      <c r="X27" s="155"/>
-      <c r="Y27" s="155"/>
-      <c r="Z27" s="155"/>
+        <v>428</v>
+      </c>
+      <c r="R27" s="150" t="s">
+        <v>1127</v>
+      </c>
+      <c r="S27" s="151"/>
+      <c r="T27" s="151"/>
+      <c r="U27" s="151"/>
+      <c r="V27" s="151"/>
+      <c r="W27" s="151"/>
+      <c r="X27" s="151"/>
+      <c r="Y27" s="151"/>
+      <c r="Z27" s="151"/>
     </row>
     <row r="28" spans="2:26">
       <c r="G28" s="12" t="s">
@@ -23386,48 +23554,48 @@
       <c r="I28" s="12">
         <v>4</v>
       </c>
-      <c r="M28" s="153"/>
+      <c r="M28" s="152"/>
       <c r="N28" s="39" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="P28" s="90" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="Q28" s="42" t="s">
-        <v>429</v>
-      </c>
-      <c r="R28" s="154"/>
-      <c r="S28" s="155"/>
-      <c r="T28" s="155"/>
-      <c r="U28" s="155"/>
-      <c r="V28" s="155"/>
-      <c r="W28" s="155"/>
-      <c r="X28" s="155"/>
-      <c r="Y28" s="155"/>
-      <c r="Z28" s="155"/>
+        <v>428</v>
+      </c>
+      <c r="R28" s="150"/>
+      <c r="S28" s="151"/>
+      <c r="T28" s="151"/>
+      <c r="U28" s="151"/>
+      <c r="V28" s="151"/>
+      <c r="W28" s="151"/>
+      <c r="X28" s="151"/>
+      <c r="Y28" s="151"/>
+      <c r="Z28" s="151"/>
     </row>
     <row r="29" spans="2:26">
       <c r="H29" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="30" spans="2:26">
       <c r="G30" s="66" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="34" spans="2:8">
       <c r="C34" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D34" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="35" spans="2:8">
@@ -23443,18 +23611,18 @@
         <v>1</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="40" spans="2:8">
       <c r="C40" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D40" s="1">
         <v>2</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="41" spans="2:8">
@@ -23462,7 +23630,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="42" spans="2:8">
@@ -23470,296 +23638,296 @@
         <v>4</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="C43" t="s">
+        <v>894</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="F43" t="s">
         <v>896</v>
-      </c>
-      <c r="F43" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="D44" s="16" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E44" s="58"/>
     </row>
     <row r="45" spans="2:8">
       <c r="D45" s="58" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E45" s="58"/>
       <c r="F45" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="D46" s="16" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E46" s="58"/>
     </row>
     <row r="47" spans="2:8">
       <c r="D47" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C48" s="57" t="s">
+        <v>768</v>
+      </c>
+      <c r="D48" s="57" t="s">
         <v>769</v>
       </c>
-      <c r="D48" s="57" t="s">
+      <c r="E48" s="57" t="s">
         <v>770</v>
       </c>
-      <c r="E48" s="57" t="s">
+      <c r="F48" s="57" t="s">
         <v>771</v>
       </c>
-      <c r="F48" s="57" t="s">
+      <c r="G48" s="57" t="s">
         <v>772</v>
       </c>
-      <c r="G48" s="57" t="s">
-        <v>773</v>
-      </c>
       <c r="H48" s="89" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="49" spans="3:9">
       <c r="C49" s="57" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D49" s="57" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E49" s="57" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F49" s="57" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G49" s="57" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H49" s="89" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="50" spans="3:9">
       <c r="C50" s="57" t="s">
+        <v>775</v>
+      </c>
+      <c r="D50" s="57" t="s">
+        <v>773</v>
+      </c>
+      <c r="E50" s="57" t="s">
+        <v>773</v>
+      </c>
+      <c r="F50" s="57" t="s">
+        <v>773</v>
+      </c>
+      <c r="G50" s="57" t="s">
         <v>776</v>
-      </c>
-      <c r="D50" s="57" t="s">
-        <v>774</v>
-      </c>
-      <c r="E50" s="57" t="s">
-        <v>774</v>
-      </c>
-      <c r="F50" s="57" t="s">
-        <v>774</v>
-      </c>
-      <c r="G50" s="57" t="s">
-        <v>777</v>
       </c>
       <c r="H50" s="89"/>
     </row>
     <row r="51" spans="3:9">
       <c r="C51" s="57" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D51" s="57" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E51" s="57" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F51" s="57" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G51" s="57" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H51" s="89"/>
     </row>
     <row r="52" spans="3:9">
       <c r="C52" s="57" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D52" s="57" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E52" s="57" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F52" s="57" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G52" s="57" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H52" s="89" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="53" spans="3:9">
       <c r="C53" s="57" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D53" s="96" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E53" s="17"/>
     </row>
     <row r="54" spans="3:9">
       <c r="C54" s="89" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D54" s="58" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E54" s="17"/>
       <c r="H54" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="I54" s="58" t="s">
         <v>977</v>
-      </c>
-      <c r="I54" s="58" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="55" spans="3:9">
       <c r="C55" s="89" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D55" s="58" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="56" spans="3:9">
       <c r="C56" s="89" t="s">
+        <v>965</v>
+      </c>
+      <c r="D56" s="58" t="s">
         <v>966</v>
-      </c>
-      <c r="D56" s="58" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="57" spans="3:9">
       <c r="C57" s="89" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D57" s="97" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="58" spans="3:9">
       <c r="C58" s="89" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D58" s="58" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="59" spans="3:9">
       <c r="C59" s="89" t="s">
+        <v>970</v>
+      </c>
+      <c r="D59" s="58" t="s">
         <v>971</v>
-      </c>
-      <c r="D59" s="58" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="60" spans="3:9">
       <c r="C60" s="89" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D60" s="58"/>
     </row>
     <row r="63" spans="3:9">
       <c r="H63" s="58" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="64" spans="3:9">
       <c r="D64" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H64" s="58" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="65" spans="3:9">
       <c r="E65" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F65" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H65" s="58" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="66" spans="3:9">
       <c r="C66" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F66" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H66" s="58" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="67" spans="3:9">
       <c r="D67" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="68" spans="3:9">
       <c r="E68" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="69" spans="3:9">
       <c r="E69" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="70" spans="3:9">
       <c r="D70" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="72" spans="3:9">
       <c r="D72" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="74" spans="3:9">
       <c r="C74" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E74" t="s">
         <v>451</v>
-      </c>
-      <c r="E74" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="75" spans="3:9">
@@ -23767,37 +23935,37 @@
     </row>
     <row r="76" spans="3:9">
       <c r="E76" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="78" spans="3:9">
       <c r="D78" s="69" t="s">
+        <v>459</v>
+      </c>
+      <c r="E78" s="138" t="s">
+        <v>983</v>
+      </c>
+      <c r="F78" s="138"/>
+      <c r="G78" s="57" t="s">
         <v>460</v>
-      </c>
-      <c r="E78" s="137" t="s">
-        <v>984</v>
-      </c>
-      <c r="F78" s="137"/>
-      <c r="G78" s="57" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="79" spans="3:9">
       <c r="D79" s="57"/>
-      <c r="E79" s="149"/>
-      <c r="F79" s="150"/>
+      <c r="E79" s="153"/>
+      <c r="F79" s="154"/>
       <c r="G79" s="57"/>
     </row>
     <row r="80" spans="3:9">
       <c r="D80" s="57" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F80" s="57"/>
       <c r="G80" s="75" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="81" spans="3:7">
@@ -23808,17 +23976,17 @@
     </row>
     <row r="82" spans="3:7">
       <c r="D82" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="E82" s="57" t="s">
         <v>472</v>
-      </c>
-      <c r="E82" s="57" t="s">
-        <v>473</v>
       </c>
       <c r="F82" s="57"/>
       <c r="G82" s="57"/>
     </row>
     <row r="83" spans="3:7">
       <c r="C83" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D83" s="57"/>
       <c r="E83" s="57"/>
@@ -23826,42 +23994,42 @@
       <c r="G83" s="57"/>
     </row>
     <row r="84" spans="3:7">
-      <c r="D84" s="151" t="s">
-        <v>474</v>
-      </c>
-      <c r="E84" s="138" t="s">
-        <v>988</v>
-      </c>
-      <c r="F84" s="138"/>
-      <c r="G84" s="151" t="s">
-        <v>461</v>
+      <c r="D84" s="155" t="s">
+        <v>473</v>
+      </c>
+      <c r="E84" s="139" t="s">
+        <v>987</v>
+      </c>
+      <c r="F84" s="139"/>
+      <c r="G84" s="155" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="85" spans="3:7">
-      <c r="D85" s="152"/>
-      <c r="E85" s="138"/>
-      <c r="F85" s="138"/>
-      <c r="G85" s="152"/>
+      <c r="D85" s="156"/>
+      <c r="E85" s="139"/>
+      <c r="F85" s="139"/>
+      <c r="G85" s="156"/>
     </row>
     <row r="86" spans="3:7">
       <c r="E86" s="36" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="88" spans="3:7">
       <c r="E88" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="89" spans="3:7">
       <c r="E89" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="90" spans="3:7">
@@ -23875,10 +24043,10 @@
     </row>
     <row r="93" spans="3:7">
       <c r="C93" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D93" s="58" t="s">
         <v>805</v>
-      </c>
-      <c r="D93" s="58" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="95" spans="3:7">
@@ -23886,18 +24054,18 @@
         <v>0</v>
       </c>
       <c r="E95" s="58" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="96" spans="3:7">
       <c r="C96" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D96" s="1">
         <v>1</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="97" spans="4:8">
@@ -23905,12 +24073,12 @@
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="98" spans="4:8">
       <c r="F98" s="58" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="99" spans="4:8">
@@ -23918,7 +24086,7 @@
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="100" spans="4:8">
@@ -23926,7 +24094,7 @@
         <v>4</v>
       </c>
       <c r="E100" s="59" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="101" spans="4:8">
@@ -23934,10 +24102,10 @@
         <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="102" spans="4:8">
@@ -23945,7 +24113,7 @@
         <v>6</v>
       </c>
       <c r="E102" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="103" spans="4:8">
@@ -23953,7 +24121,7 @@
         <v>7</v>
       </c>
       <c r="E103" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="104" spans="4:8">
@@ -23961,26 +24129,26 @@
         <v>8</v>
       </c>
       <c r="E104" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="105" spans="4:8">
       <c r="E105"/>
       <c r="F105" s="58" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="106" spans="4:8">
       <c r="F106" s="58" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="107" spans="4:8">
       <c r="F107" s="58" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H107" s="58" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="108" spans="4:8">
@@ -23988,7 +24156,7 @@
         <v>9</v>
       </c>
       <c r="E108" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="109" spans="4:8">
@@ -23996,7 +24164,7 @@
         <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="110" spans="4:8">
@@ -24004,7 +24172,7 @@
         <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F110" s="65"/>
       <c r="G110" s="65"/>
@@ -24014,7 +24182,7 @@
         <v>12</v>
       </c>
       <c r="E111" s="65" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="112" spans="4:8">
@@ -24022,7 +24190,7 @@
         <v>13</v>
       </c>
       <c r="E112" s="58" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="113" spans="4:6">
@@ -24030,7 +24198,7 @@
         <v>14</v>
       </c>
       <c r="E113" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="114" spans="4:6">
@@ -24038,7 +24206,7 @@
         <v>15</v>
       </c>
       <c r="E114" s="58" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="115" spans="4:6">
@@ -24046,12 +24214,12 @@
         <v>16</v>
       </c>
       <c r="E115" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="116" spans="4:6">
       <c r="F116" s="58" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="117" spans="4:6">
@@ -24059,7 +24227,7 @@
         <v>17</v>
       </c>
       <c r="E117" s="58" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="118" spans="4:6">
@@ -24067,22 +24235,22 @@
         <v>18</v>
       </c>
       <c r="E118" s="58" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="119" spans="4:6">
       <c r="E119" s="58" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="120" spans="4:6">
       <c r="E120" s="58" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="121" spans="4:6">
       <c r="E121" s="58" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="122" spans="4:6">
@@ -24090,26 +24258,21 @@
         <v>19</v>
       </c>
       <c r="E122" s="58" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="123" spans="4:6">
       <c r="F123" s="58" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="124" spans="4:6">
       <c r="E124" s="58" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="R21:V23"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="R27:Z28"/>
-    <mergeCell ref="S17:W19"/>
     <mergeCell ref="E84:F85"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="D84:D85"/>
@@ -24117,6 +24280,11 @@
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="M25:M28"/>
     <mergeCell ref="E78:F78"/>
+    <mergeCell ref="R21:V23"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="R27:Z28"/>
+    <mergeCell ref="S17:W19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A24:XFD25 A21:Q23 A28:Q28 Q61:XFD63 A1:P4 A6:P6 B5:P5 AA27:XFD28 A48:B48 D48:XFD48 A7:G7 I7:P7 A79:B79 D79:E79 A80:XFD83 A86:XFD94 A84:E84 A85:C85 G84:XFD84 G79:XFD79 H85:XFD85 A53:B63 D53:XFD53 H101:K101 A95:D95 F95:XFD95 F101 A17:Q19 W23:XFD23 A20:V20 AB17:XFD22 S17:W19 A45:E45 A43:B43 D43 F43:XFD43 A44:C44 E44:XFD44 A46:C47 E46:XFD47 A70:C70 E70:XFD70 G45:XFD45 G96:XFD97 F98:XFD100 A64:XFD69 D63:G63 A49:XFD51 A52:H52 J52:XFD52 E54:G54 I54:XFD60 A16:XFD16 D15:G15 I15:XFD15 A29:XFD30 H110:O110 F102:XFD105 F109:O109 E111:O112 F113:O113 D116:O121 F115:O115 E114:O114 E99:E105 E108:O108 A126:XFD1062 A123:C125 P123:XFD125 D124:O125 A96:C121 P106:XFD121 A122:D122 D123:E123 F122:XFD122 G123:O123 M101:XFD101 A71:XFD71 A72:B72 D72:XFD72 A73:XFD78 A27:N27 P27:Q27 A26:M26 O26:XFD26 A33:XFD42 A8:P9 AK1:XFD14 A31:L32 P31:XFD32 D12:P14 A11 C11:P11 B10:P10">
@@ -24146,27 +24314,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AL123"/>
   <sheetViews>
-    <sheetView showGridLines="0" defaultGridColor="0" colorId="49" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="U37" sqref="U37"/>
+    <sheetView showGridLines="0" tabSelected="1" defaultGridColor="0" topLeftCell="Z1" colorId="49" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="AK17" sqref="AK17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="5" width="9.1796875" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" customWidth="1"/>
+    <col min="1" max="5" width="9.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" customWidth="1"/>
-    <col min="10" max="11" width="9.1796875" customWidth="1"/>
-    <col min="12" max="12" width="5.08984375" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" customWidth="1"/>
-    <col min="16" max="16" width="8.81640625" customWidth="1"/>
-    <col min="17" max="17" width="8.81640625" style="48"/>
-    <col min="18" max="18" width="15.54296875" customWidth="1"/>
-    <col min="30" max="30" width="13.453125" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" customWidth="1"/>
+    <col min="10" max="11" width="9.21875" customWidth="1"/>
+    <col min="12" max="12" width="5.109375" customWidth="1"/>
+    <col min="13" max="13" width="8.77734375" customWidth="1"/>
+    <col min="16" max="16" width="8.77734375" customWidth="1"/>
+    <col min="17" max="17" width="8.77734375" style="48"/>
+    <col min="18" max="18" width="15.5546875" customWidth="1"/>
+    <col min="30" max="30" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:35">
@@ -24218,43 +24386,40 @@
       </c>
     </row>
     <row r="12" spans="3:35">
-      <c r="C12" s="157" t="s">
+      <c r="C12" s="159" t="s">
         <v>311</v>
       </c>
-      <c r="D12" s="157"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="157"/>
-      <c r="K12" s="157"/>
-      <c r="L12" s="157"/>
-      <c r="M12" s="157"/>
-      <c r="N12" s="157"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="159"/>
+      <c r="L12" s="159"/>
+      <c r="M12" s="159"/>
+      <c r="N12" s="159"/>
       <c r="T12" t="s">
         <v>294</v>
       </c>
       <c r="AG12" t="s">
-        <v>402</v>
-      </c>
-      <c r="AI12" s="38" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="13" spans="3:35">
-      <c r="C13" s="157"/>
-      <c r="D13" s="157"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="157"/>
-      <c r="K13" s="157"/>
-      <c r="L13" s="157"/>
-      <c r="M13" s="157"/>
-      <c r="N13" s="157"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="159"/>
+      <c r="L13" s="159"/>
+      <c r="M13" s="159"/>
+      <c r="N13" s="159"/>
       <c r="T13" t="s">
         <v>295</v>
       </c>
@@ -24269,6 +24434,9 @@
       <c r="T14" t="s">
         <v>300</v>
       </c>
+      <c r="AI14" s="38" t="s">
+        <v>1398</v>
+      </c>
     </row>
     <row r="15" spans="3:35">
       <c r="C15" t="s">
@@ -24286,7 +24454,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="3:30">
+    <row r="17" spans="3:30" ht="17.25">
       <c r="C17" t="s">
         <v>315</v>
       </c>
@@ -24294,79 +24462,79 @@
         <v>298</v>
       </c>
     </row>
-    <row r="18" spans="3:30" ht="16.2" customHeight="1">
+    <row r="18" spans="3:30" ht="16.149999999999999" customHeight="1">
       <c r="C18" t="s">
         <v>316</v>
       </c>
-      <c r="T18" s="156" t="s">
+      <c r="T18" s="158" t="s">
         <v>299</v>
       </c>
-      <c r="U18" s="156"/>
-      <c r="V18" s="156"/>
-      <c r="W18" s="156"/>
-      <c r="X18" s="156"/>
+      <c r="U18" s="158"/>
+      <c r="V18" s="158"/>
+      <c r="W18" s="158"/>
+      <c r="X18" s="158"/>
     </row>
     <row r="19" spans="3:30">
-      <c r="T19" s="156"/>
-      <c r="U19" s="156"/>
-      <c r="V19" s="156"/>
-      <c r="W19" s="156"/>
-      <c r="X19" s="156"/>
+      <c r="T19" s="158"/>
+      <c r="U19" s="158"/>
+      <c r="V19" s="158"/>
+      <c r="W19" s="158"/>
+      <c r="X19" s="158"/>
     </row>
     <row r="20" spans="3:30">
-      <c r="T20" s="156"/>
-      <c r="U20" s="156"/>
-      <c r="V20" s="156"/>
-      <c r="W20" s="156"/>
-      <c r="X20" s="156"/>
+      <c r="T20" s="158"/>
+      <c r="U20" s="158"/>
+      <c r="V20" s="158"/>
+      <c r="W20" s="158"/>
+      <c r="X20" s="158"/>
     </row>
     <row r="21" spans="3:30">
-      <c r="T21" s="156"/>
-      <c r="U21" s="156"/>
-      <c r="V21" s="156"/>
-      <c r="W21" s="156"/>
-      <c r="X21" s="156"/>
+      <c r="T21" s="158"/>
+      <c r="U21" s="158"/>
+      <c r="V21" s="158"/>
+      <c r="W21" s="158"/>
+      <c r="X21" s="158"/>
     </row>
     <row r="22" spans="3:30">
-      <c r="T22" s="156"/>
-      <c r="U22" s="156"/>
-      <c r="V22" s="156"/>
-      <c r="W22" s="156"/>
-      <c r="X22" s="156"/>
+      <c r="T22" s="158"/>
+      <c r="U22" s="158"/>
+      <c r="V22" s="158"/>
+      <c r="W22" s="158"/>
+      <c r="X22" s="158"/>
     </row>
     <row r="23" spans="3:30">
-      <c r="T23" s="156"/>
-      <c r="U23" s="156"/>
-      <c r="V23" s="156"/>
-      <c r="W23" s="156"/>
-      <c r="X23" s="156"/>
+      <c r="T23" s="158"/>
+      <c r="U23" s="158"/>
+      <c r="V23" s="158"/>
+      <c r="W23" s="158"/>
+      <c r="X23" s="158"/>
     </row>
     <row r="24" spans="3:30">
-      <c r="T24" s="156"/>
-      <c r="U24" s="156"/>
-      <c r="V24" s="156"/>
-      <c r="W24" s="156"/>
-      <c r="X24" s="156"/>
+      <c r="T24" s="158"/>
+      <c r="U24" s="158"/>
+      <c r="V24" s="158"/>
+      <c r="W24" s="158"/>
+      <c r="X24" s="158"/>
     </row>
     <row r="25" spans="3:30">
       <c r="D25" t="s">
         <v>286</v>
       </c>
-      <c r="T25" s="156"/>
-      <c r="U25" s="156"/>
-      <c r="V25" s="156"/>
-      <c r="W25" s="156"/>
-      <c r="X25" s="156"/>
+      <c r="T25" s="158"/>
+      <c r="U25" s="158"/>
+      <c r="V25" s="158"/>
+      <c r="W25" s="158"/>
+      <c r="X25" s="158"/>
     </row>
     <row r="26" spans="3:30">
       <c r="E26" t="s">
         <v>287</v>
       </c>
-      <c r="T26" s="156"/>
-      <c r="U26" s="156"/>
-      <c r="V26" s="156"/>
-      <c r="W26" s="156"/>
-      <c r="X26" s="156"/>
+      <c r="T26" s="158"/>
+      <c r="U26" s="158"/>
+      <c r="V26" s="158"/>
+      <c r="W26" s="158"/>
+      <c r="X26" s="158"/>
     </row>
     <row r="27" spans="3:30">
       <c r="D27" s="1" t="s">
@@ -24375,32 +24543,32 @@
       <c r="G27" s="36" t="s">
         <v>383</v>
       </c>
-      <c r="T27" s="156"/>
-      <c r="U27" s="156"/>
-      <c r="V27" s="156"/>
-      <c r="W27" s="156"/>
-      <c r="X27" s="156"/>
+      <c r="T27" s="158"/>
+      <c r="U27" s="158"/>
+      <c r="V27" s="158"/>
+      <c r="W27" s="158"/>
+      <c r="X27" s="158"/>
     </row>
     <row r="28" spans="3:30">
       <c r="D28" s="1"/>
       <c r="G28" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="T28" s="156"/>
-      <c r="U28" s="156"/>
-      <c r="V28" s="156"/>
-      <c r="W28" s="156"/>
-      <c r="X28" s="156"/>
-    </row>
-    <row r="29" spans="3:30" ht="25.95" customHeight="1">
+      <c r="T28" s="158"/>
+      <c r="U28" s="158"/>
+      <c r="V28" s="158"/>
+      <c r="W28" s="158"/>
+      <c r="X28" s="158"/>
+    </row>
+    <row r="29" spans="3:30" ht="25.9" customHeight="1">
       <c r="D29" t="s">
         <v>283</v>
       </c>
-      <c r="T29" s="156"/>
-      <c r="U29" s="156"/>
-      <c r="V29" s="156"/>
-      <c r="W29" s="156"/>
-      <c r="X29" s="156"/>
+      <c r="T29" s="158"/>
+      <c r="U29" s="158"/>
+      <c r="V29" s="158"/>
+      <c r="W29" s="158"/>
+      <c r="X29" s="158"/>
     </row>
     <row r="30" spans="3:30">
       <c r="E30" t="s">
@@ -24429,53 +24597,53 @@
       <c r="F32" t="s">
         <v>279</v>
       </c>
-      <c r="T32" s="156" t="s">
+      <c r="T32" s="158" t="s">
         <v>301</v>
       </c>
-      <c r="U32" s="156"/>
-      <c r="V32" s="156"/>
-      <c r="W32" s="156"/>
-      <c r="X32" s="156"/>
-      <c r="Y32" s="156"/>
-      <c r="Z32" s="156"/>
-      <c r="AA32" s="156"/>
-      <c r="AB32" s="156"/>
-      <c r="AC32" s="156"/>
-      <c r="AD32" s="156"/>
+      <c r="U32" s="158"/>
+      <c r="V32" s="158"/>
+      <c r="W32" s="158"/>
+      <c r="X32" s="158"/>
+      <c r="Y32" s="158"/>
+      <c r="Z32" s="158"/>
+      <c r="AA32" s="158"/>
+      <c r="AB32" s="158"/>
+      <c r="AC32" s="158"/>
+      <c r="AD32" s="158"/>
     </row>
     <row r="33" spans="4:38">
       <c r="D33" t="s">
         <v>290</v>
       </c>
-      <c r="T33" s="156" t="s">
+      <c r="T33" s="158" t="s">
         <v>302</v>
       </c>
-      <c r="U33" s="156"/>
-      <c r="V33" s="156"/>
-      <c r="W33" s="156"/>
-      <c r="X33" s="156"/>
-      <c r="Y33" s="156"/>
-      <c r="Z33" s="156"/>
-      <c r="AA33" s="156"/>
-      <c r="AB33" s="156"/>
-      <c r="AC33" s="156"/>
+      <c r="U33" s="158"/>
+      <c r="V33" s="158"/>
+      <c r="W33" s="158"/>
+      <c r="X33" s="158"/>
+      <c r="Y33" s="158"/>
+      <c r="Z33" s="158"/>
+      <c r="AA33" s="158"/>
+      <c r="AB33" s="158"/>
+      <c r="AC33" s="158"/>
     </row>
     <row r="34" spans="4:38">
       <c r="E34" t="s">
         <v>291</v>
       </c>
-      <c r="T34" s="156" t="s">
+      <c r="T34" s="158" t="s">
         <v>303</v>
       </c>
-      <c r="U34" s="156"/>
-      <c r="V34" s="156"/>
-      <c r="W34" s="156"/>
-      <c r="X34" s="156"/>
-      <c r="Y34" s="156"/>
-      <c r="Z34" s="156"/>
-      <c r="AA34" s="156"/>
-      <c r="AB34" s="156"/>
-      <c r="AC34" s="156"/>
+      <c r="U34" s="158"/>
+      <c r="V34" s="158"/>
+      <c r="W34" s="158"/>
+      <c r="X34" s="158"/>
+      <c r="Y34" s="158"/>
+      <c r="Z34" s="158"/>
+      <c r="AA34" s="158"/>
+      <c r="AB34" s="158"/>
+      <c r="AC34" s="158"/>
     </row>
     <row r="35" spans="4:38">
       <c r="D35" t="s">
@@ -24506,7 +24674,7 @@
     <row r="37" spans="4:38">
       <c r="T37" s="28"/>
       <c r="U37" s="110" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="V37" s="28"/>
       <c r="W37" s="28"/>
@@ -24522,7 +24690,7 @@
       <c r="W40" s="28"/>
       <c r="X40" s="28"/>
       <c r="AL40" s="50" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="41" spans="4:38">
@@ -24530,10 +24698,10 @@
         <v>285</v>
       </c>
       <c r="S41" t="s">
+        <v>542</v>
+      </c>
+      <c r="AL41" s="50" t="s">
         <v>543</v>
-      </c>
-      <c r="AL41" s="50" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="42" spans="4:38">
@@ -24544,7 +24712,7 @@
         <v>318</v>
       </c>
       <c r="AL42" s="50" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="43" spans="4:38">
@@ -24552,7 +24720,7 @@
         <v>289</v>
       </c>
       <c r="AL43" s="50" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="44" spans="4:38">
@@ -24601,7 +24769,7 @@
         <v>331</v>
       </c>
       <c r="AD48" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="49" spans="4:31">
@@ -24611,20 +24779,20 @@
     </row>
     <row r="50" spans="4:31">
       <c r="AD50" s="29" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="51" spans="4:31">
       <c r="AD51" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AE51" t="s">
         <v>1023</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="52" spans="4:31">
       <c r="AD52" s="29" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="53" spans="4:31">
@@ -24632,7 +24800,7 @@
         <v>285</v>
       </c>
       <c r="AD53" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="54" spans="4:31">
@@ -24640,7 +24808,7 @@
         <v>325</v>
       </c>
       <c r="AD54" s="29" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="55" spans="4:31">
@@ -24648,17 +24816,17 @@
         <v>326</v>
       </c>
       <c r="AD55" s="19" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="56" spans="4:31">
       <c r="AD56" s="29" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="57" spans="4:31" ht="16.8" thickBot="1">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="57" spans="4:31" ht="17.25" thickBot="1">
       <c r="AD57" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="58" spans="4:31" s="47" customFormat="1">
@@ -24673,13 +24841,13 @@
     </row>
     <row r="64" spans="4:31">
       <c r="K64" t="s">
+        <v>412</v>
+      </c>
+      <c r="L64" t="s">
         <v>413</v>
       </c>
-      <c r="L64" t="s">
+      <c r="N64" t="s">
         <v>414</v>
-      </c>
-      <c r="N64" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="70" spans="4:7">
@@ -24727,7 +24895,7 @@
         <v>6</v>
       </c>
       <c r="E75" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="77" spans="4:7">
@@ -24769,7 +24937,7 @@
         <v>365</v>
       </c>
       <c r="R82" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="83" spans="4:18">
@@ -24916,7 +25084,7 @@
       <c r="I98" s="33"/>
       <c r="J98" s="33"/>
     </row>
-    <row r="99" spans="1:17" ht="16.8" thickBot="1">
+    <row r="99" spans="1:17" ht="17.25" thickBot="1">
       <c r="D99" s="33"/>
       <c r="E99" s="32"/>
       <c r="F99" s="32"/>
@@ -24946,7 +25114,7 @@
     </row>
     <row r="102" spans="1:17">
       <c r="A102" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D102" s="33"/>
       <c r="E102" s="33"/>
@@ -24958,7 +25126,7 @@
     </row>
     <row r="103" spans="1:17">
       <c r="B103" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D103" s="33"/>
       <c r="E103" s="33"/>
@@ -24970,125 +25138,125 @@
     </row>
     <row r="104" spans="1:17">
       <c r="B104" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="106" spans="1:17">
       <c r="A106" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="107" spans="1:17">
       <c r="A107" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="108" spans="1:17">
       <c r="A108" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="109" spans="1:17">
       <c r="A109" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="110" spans="1:17">
       <c r="A110" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="111" spans="1:17">
       <c r="A111" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="112" spans="1:17">
       <c r="A112" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="44" t="s">
-        <v>542</v>
-      </c>
-      <c r="B118" s="153" t="s">
-        <v>529</v>
-      </c>
-      <c r="C118" s="153"/>
-      <c r="D118" s="153"/>
-      <c r="E118" s="153"/>
+        <v>541</v>
+      </c>
+      <c r="B118" s="152" t="s">
+        <v>528</v>
+      </c>
+      <c r="C118" s="152"/>
+      <c r="D118" s="152"/>
+      <c r="E118" s="152"/>
       <c r="F118" s="44" t="s">
-        <v>532</v>
-      </c>
-      <c r="G118" s="149" t="s">
-        <v>535</v>
-      </c>
-      <c r="H118" s="150"/>
+        <v>531</v>
+      </c>
+      <c r="G118" s="153" t="s">
+        <v>534</v>
+      </c>
+      <c r="H118" s="154"/>
       <c r="I118" s="44" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="44" t="s">
-        <v>528</v>
-      </c>
-      <c r="B119" s="149" t="s">
-        <v>530</v>
-      </c>
-      <c r="C119" s="158"/>
-      <c r="D119" s="158"/>
-      <c r="E119" s="150"/>
+        <v>527</v>
+      </c>
+      <c r="B119" s="153" t="s">
+        <v>529</v>
+      </c>
+      <c r="C119" s="157"/>
+      <c r="D119" s="157"/>
+      <c r="E119" s="154"/>
       <c r="F119" s="44" t="s">
-        <v>533</v>
-      </c>
-      <c r="G119" s="149" t="s">
-        <v>536</v>
-      </c>
-      <c r="H119" s="150"/>
+        <v>532</v>
+      </c>
+      <c r="G119" s="153" t="s">
+        <v>535</v>
+      </c>
+      <c r="H119" s="154"/>
       <c r="I119" s="44" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="44" t="s">
-        <v>527</v>
-      </c>
-      <c r="B120" s="149" t="s">
-        <v>531</v>
-      </c>
-      <c r="C120" s="158"/>
-      <c r="D120" s="158"/>
-      <c r="E120" s="150"/>
+        <v>526</v>
+      </c>
+      <c r="B120" s="153" t="s">
+        <v>530</v>
+      </c>
+      <c r="C120" s="157"/>
+      <c r="D120" s="157"/>
+      <c r="E120" s="154"/>
       <c r="F120" s="44" t="s">
-        <v>534</v>
-      </c>
-      <c r="G120" s="145" t="s">
-        <v>537</v>
-      </c>
-      <c r="H120" s="147"/>
+        <v>533</v>
+      </c>
+      <c r="G120" s="146" t="s">
+        <v>536</v>
+      </c>
+      <c r="H120" s="148"/>
       <c r="I120" s="44" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -25096,17 +25264,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="T18:X29"/>
+    <mergeCell ref="T32:AD32"/>
+    <mergeCell ref="T33:AC33"/>
+    <mergeCell ref="T34:AC34"/>
+    <mergeCell ref="C12:N13"/>
     <mergeCell ref="B118:E118"/>
     <mergeCell ref="B119:E119"/>
     <mergeCell ref="B120:E120"/>
     <mergeCell ref="G118:H118"/>
     <mergeCell ref="G119:H119"/>
     <mergeCell ref="G120:H120"/>
-    <mergeCell ref="T18:X29"/>
-    <mergeCell ref="T32:AD32"/>
-    <mergeCell ref="T33:AC33"/>
-    <mergeCell ref="T34:AC34"/>
-    <mergeCell ref="C12:N13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25119,24 +25287,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I26" sqref="B26:N26"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="8.81640625" style="24"/>
-    <col min="3" max="3" width="12.1796875" style="24" customWidth="1"/>
+    <col min="1" max="2" width="8.77734375" style="24"/>
+    <col min="3" max="3" width="12.21875" style="24" customWidth="1"/>
     <col min="4" max="4" width="16" style="24" customWidth="1"/>
-    <col min="5" max="8" width="8.81640625" style="24"/>
-    <col min="9" max="12" width="8.81640625" style="25"/>
-    <col min="13" max="13" width="10.6328125" style="25" customWidth="1"/>
-    <col min="14" max="14" width="8.81640625" style="25"/>
-    <col min="15" max="16384" width="8.81640625" style="24"/>
+    <col min="5" max="8" width="8.77734375" style="24"/>
+    <col min="9" max="12" width="8.77734375" style="25"/>
+    <col min="13" max="13" width="10.6640625" style="25" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="25"/>
+    <col min="15" max="16384" width="8.77734375" style="24"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:14">
@@ -25151,22 +25319,22 @@
     </row>
     <row r="4" spans="2:14">
       <c r="C4" s="27" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
       <c r="M4" s="125" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="15.6">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="16.5">
       <c r="B5" s="21" t="s">
         <v>163</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="40"/>
@@ -25177,7 +25345,7 @@
       <c r="J5" s="40"/>
       <c r="K5" s="40"/>
       <c r="M5" s="124" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="6" spans="2:14">
@@ -25198,24 +25366,24 @@
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="12" spans="2:14" ht="26.4" customHeight="1">
-      <c r="B12" s="162" t="s">
+    <row r="12" spans="2:14" ht="26.45" customHeight="1">
+      <c r="B12" s="165" t="s">
         <v>274</v>
       </c>
-      <c r="C12" s="162"/>
-      <c r="D12" s="162"/>
-      <c r="E12" s="162"/>
-      <c r="F12" s="162"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="162"/>
-      <c r="I12" s="159" t="s">
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="164" t="s">
         <v>275</v>
       </c>
-      <c r="J12" s="159"/>
-      <c r="K12" s="159"/>
-      <c r="L12" s="159"/>
-      <c r="M12" s="159"/>
-      <c r="N12" s="159"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="164"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="164"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1">
       <c r="B13" s="160" t="s">
@@ -25256,15 +25424,15 @@
       <c r="N14" s="161"/>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1">
-      <c r="B15" s="163" t="s">
+      <c r="B15" s="162" t="s">
         <v>397</v>
       </c>
-      <c r="C15" s="163"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162"/>
       <c r="I15" s="161" t="s">
         <v>398</v>
       </c>
@@ -25276,7 +25444,7 @@
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1">
       <c r="B16" s="160" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C16" s="160"/>
       <c r="D16" s="160"/>
@@ -25284,18 +25452,18 @@
       <c r="F16" s="160"/>
       <c r="G16" s="160"/>
       <c r="H16" s="160"/>
-      <c r="I16" s="164" t="s">
-        <v>549</v>
-      </c>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
-      <c r="L16" s="164"/>
-      <c r="M16" s="164"/>
-      <c r="N16" s="164"/>
+      <c r="I16" s="163" t="s">
+        <v>548</v>
+      </c>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
+      <c r="L16" s="163"/>
+      <c r="M16" s="163"/>
+      <c r="N16" s="163"/>
     </row>
     <row r="17" spans="2:14" ht="15" customHeight="1">
       <c r="B17" s="160" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C17" s="160"/>
       <c r="D17" s="160"/>
@@ -25304,7 +25472,7 @@
       <c r="G17" s="160"/>
       <c r="H17" s="160"/>
       <c r="I17" s="161" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J17" s="161"/>
       <c r="K17" s="161"/>
@@ -25314,7 +25482,7 @@
     </row>
     <row r="18" spans="2:14" ht="15" customHeight="1">
       <c r="B18" s="160" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C18" s="160"/>
       <c r="D18" s="160"/>
@@ -25323,7 +25491,7 @@
       <c r="G18" s="160"/>
       <c r="H18" s="160"/>
       <c r="I18" s="161" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J18" s="161"/>
       <c r="K18" s="161"/>
@@ -25333,7 +25501,7 @@
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1">
       <c r="B19" s="160" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C19" s="160"/>
       <c r="D19" s="160"/>
@@ -25342,7 +25510,7 @@
       <c r="G19" s="160"/>
       <c r="H19" s="160"/>
       <c r="I19" s="161" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="J19" s="161"/>
       <c r="K19" s="161"/>
@@ -25352,7 +25520,7 @@
     </row>
     <row r="20" spans="2:14" ht="15" customHeight="1">
       <c r="B20" s="160" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C20" s="160"/>
       <c r="D20" s="160"/>
@@ -25361,7 +25529,7 @@
       <c r="G20" s="160"/>
       <c r="H20" s="160"/>
       <c r="I20" s="161" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="J20" s="161"/>
       <c r="K20" s="161"/>
@@ -25371,7 +25539,7 @@
     </row>
     <row r="21" spans="2:14" ht="15" customHeight="1">
       <c r="B21" s="160" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C21" s="160"/>
       <c r="D21" s="160"/>
@@ -25380,7 +25548,7 @@
       <c r="G21" s="160"/>
       <c r="H21" s="160"/>
       <c r="I21" s="161" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="J21" s="161"/>
       <c r="K21" s="161"/>
@@ -25390,7 +25558,7 @@
     </row>
     <row r="22" spans="2:14" ht="15" customHeight="1">
       <c r="B22" s="160" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C22" s="160"/>
       <c r="D22" s="160"/>
@@ -25399,7 +25567,7 @@
       <c r="G22" s="160"/>
       <c r="H22" s="160"/>
       <c r="I22" s="161" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="J22" s="161"/>
       <c r="K22" s="161"/>
@@ -25408,18 +25576,14 @@
       <c r="N22" s="161"/>
     </row>
     <row r="23" spans="2:14" ht="15" customHeight="1">
-      <c r="B23" s="160" t="s">
-        <v>1392</v>
-      </c>
+      <c r="B23" s="160"/>
       <c r="C23" s="160"/>
       <c r="D23" s="160"/>
       <c r="E23" s="160"/>
       <c r="F23" s="160"/>
       <c r="G23" s="160"/>
       <c r="H23" s="160"/>
-      <c r="I23" s="161" t="s">
-        <v>1393</v>
-      </c>
+      <c r="I23" s="161"/>
       <c r="J23" s="161"/>
       <c r="K23" s="161"/>
       <c r="L23" s="161"/>
@@ -25503,24 +25667,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="I28:N28"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="I15:N15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="I17:N17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="I19:N19"/>
     <mergeCell ref="I12:N12"/>
     <mergeCell ref="B24:H24"/>
     <mergeCell ref="I24:N24"/>
@@ -25537,6 +25683,24 @@
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="I14:N14"/>
     <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="I26:N26"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25546,82 +25710,82 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AE87"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="C3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="C6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
+        <v>759</v>
+      </c>
+      <c r="C7" t="s">
         <v>760</v>
-      </c>
-      <c r="C7" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="C8" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D8" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="D9" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="E10" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="D11" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="C12" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="16" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="17" spans="2:31">
       <c r="B17" t="s">
+        <v>732</v>
+      </c>
+      <c r="C17" t="s">
         <v>733</v>
-      </c>
-      <c r="C17" t="s">
-        <v>734</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -25646,22 +25810,22 @@
     </row>
     <row r="18" spans="2:31">
       <c r="B18" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="L18" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -25688,14 +25852,14 @@
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -25722,14 +25886,14 @@
         <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -25753,10 +25917,10 @@
     <row r="21" spans="2:31">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>438</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>439</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -25784,7 +25948,7 @@
     </row>
     <row r="22" spans="2:31">
       <c r="D22" s="58" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -25809,10 +25973,10 @@
     </row>
     <row r="23" spans="2:31">
       <c r="B23" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C23" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -25859,10 +26023,10 @@
     </row>
     <row r="25" spans="2:31">
       <c r="B25" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -25886,10 +26050,10 @@
     </row>
     <row r="26" spans="2:31">
       <c r="C26" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -25915,7 +26079,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -25981,15 +26145,15 @@
     </row>
     <row r="30" spans="2:31">
       <c r="B30" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D30" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -26011,119 +26175,119 @@
     </row>
     <row r="31" spans="2:31">
       <c r="C31" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="32" spans="2:31">
       <c r="C32" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C35" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C36" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="C37" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="C38" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="C39" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="C40" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C42" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D44" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="52" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="114" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="114" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="114" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="114" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="64" spans="2:3">
@@ -26131,7 +26295,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="65" spans="2:5">
@@ -26139,7 +26303,7 @@
         <v>2</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="66" spans="2:5">
@@ -26164,56 +26328,56 @@
     </row>
     <row r="77" spans="2:5">
       <c r="C77" s="30" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="79" spans="2:5">
       <c r="C79" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="17.25">
       <c r="D80" t="s">
+        <v>785</v>
+      </c>
+      <c r="E80" s="53" t="s">
         <v>786</v>
-      </c>
-      <c r="E80" s="53" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="81" spans="2:5">
       <c r="D81" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E81" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="82" spans="2:5">
       <c r="E82" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="83" spans="2:5">
       <c r="E83" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="17.25">
       <c r="D84" t="s">
+        <v>791</v>
+      </c>
+      <c r="E84" s="74" t="s">
         <v>792</v>
-      </c>
-      <c r="E84" s="74" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="86" spans="2:5">
       <c r="B86" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="87" spans="2:5">
       <c r="C87" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
   </sheetData>

--- a/xml/studyFile.xlsx
+++ b/xml/studyFile.xlsx
@@ -32,6 +32,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">前端!$A$1:$AH$60</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="1399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="1408">
   <si>
     <t>离职原因:工作和待遇能更上一个台阶</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2405,139 +2406,6 @@
   </si>
   <si>
     <t>区别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>JSP 全名为 Java Server Pages，其根本是一个简化的 Servlet 设计[他实现了 Html 语法中的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> java 扩张</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（以 &lt;%, %&gt;形式）];JSP侧重视图，Sevlet主要用于控制逻辑。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Servlet中没有内置对象 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Servlet 调用 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>service()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 方法来处理客户端的请求。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Servlet 销毁前调用 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>destroy()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 方法。</t>
-    </r>
-  </si>
-  <si>
-    <t>最后，Servlet 是由 JVM 的垃圾回收器进行垃圾回收的。</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Servlet 初始化后调用 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>init ()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 方法(只创建一次）。</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -5254,23 +5122,8 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>javax.servlet.Servlet接口里面init()方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>加载Servlet类</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java的反射API来创建Servlet实例，调用的是Servlet的默认构造方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>service()方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>destroy()方法</t>
   </si>
   <si>
     <t>9.嵌套查询：多条sql语句分开写，association 进行关联，导致数据库访问次数不定，进而有可能影响到性能；</t>
@@ -7509,6 +7362,137 @@
   </si>
   <si>
     <t>常见的块级元素有：div、p、h1-h6、ol-li、table、header等等</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>servlet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>镶嵌在html里面；侧重视图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯Java；侧重控制逻辑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有内置对象</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后，Servlet 是由 JVM 的垃圾回收器进行垃圾回收的。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Servlety→SpringMVC。SpringMVC的核心组件DispatcherServlet其实本质就是一个Servlet,在原来HttpServlet的基础上，又封装了一条逻辑。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Servlet没有main方法，所有行为由Container控制。Container就是一个java程序。</t>
+  </si>
+  <si>
+    <r>
+      <t>Tomcat 是Web应用服务器,是一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Servlet/JSP容器</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomcat传输Request和Response给servlet，用来处理请求和响应的工具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>javax.servlet.Servlet 或者javax.servlet.http.HttpServlet接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>里面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>init()方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：建立数据库连接，获取配置信息</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>service()方法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>destroy()方法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>getServletInfo()：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>返回一个String类型的字符串，其中包括了关于Servlet的信息，例如，作者、版本和版权</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>getServletConfig()：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>得到servlet配置对象，读取web.xml的&lt;init-param&gt;标签中配置一些变量值</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -8251,7 +8235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8639,6 +8623,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -17604,6 +17592,203 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>25539</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="组合 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7739CA3D-5235-4015-997C-CED1371EC241}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="27418393" y="4276531"/>
+          <a:ext cx="2299876" cy="654617"/>
+          <a:chOff x="1163758" y="886548"/>
+          <a:chExt cx="2932912" cy="947507"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="椭圆 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8552B251-19DA-4CFE-9AA6-0B173E8262BA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1163758" y="886548"/>
+            <a:ext cx="2932912" cy="947507"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="文本框 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02103ACC-A365-4C54-AEE3-D27408C1C46D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1559473" y="1172954"/>
+            <a:ext cx="2076056" cy="344214"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a:t>Servlet</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>19438</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>91577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>212078</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25" descr="https://images2015.cnblogs.com/blog/874710/201702/874710-20170214204632894-1786729693.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="31228392" y="6613286"/>
+          <a:ext cx="5491455" cy="2686420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18345,7 +18530,7 @@
     </row>
     <row r="14" spans="1:23">
       <c r="B14" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>144</v>
@@ -18353,30 +18538,30 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B15" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="B16" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="B17" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="B18" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="B19" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="K19" t="s">
         <v>146</v>
@@ -18384,12 +18569,12 @@
     </row>
     <row r="20" spans="1:18">
       <c r="B20" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="B21" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="H21" t="s">
         <v>145</v>
@@ -18400,15 +18585,15 @@
     </row>
     <row r="22" spans="1:18">
       <c r="B22" t="s">
+        <v>607</v>
+      </c>
+      <c r="N22" t="s">
         <v>612</v>
-      </c>
-      <c r="N22" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="B23" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="K23" t="s">
         <v>148</v>
@@ -18416,12 +18601,12 @@
     </row>
     <row r="24" spans="1:18">
       <c r="B24" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="B25" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="H25" t="s">
         <v>172</v>
@@ -18432,20 +18617,20 @@
     </row>
     <row r="26" spans="1:18">
       <c r="B26" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="B29" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="R29" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="J30" t="s">
         <v>151</v>
@@ -18456,7 +18641,7 @@
     </row>
     <row r="33" spans="6:25">
       <c r="F33" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="K33" t="s">
         <v>153</v>
@@ -18622,7 +18807,7 @@
     </row>
     <row r="64" spans="8:26">
       <c r="K64" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="66" spans="8:11">
@@ -18642,12 +18827,12 @@
     </row>
     <row r="73" spans="8:11">
       <c r="J73" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="74" spans="8:11">
       <c r="J74" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="76" spans="8:11">
@@ -18660,70 +18845,70 @@
     </row>
     <row r="77" spans="8:11">
       <c r="H77" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
       <c r="J77" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="78" spans="8:11">
       <c r="H78" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="J78" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="79" spans="8:11">
       <c r="H79" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="J79" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="81" spans="1:20">
       <c r="A81" s="76" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="B81" s="77"/>
       <c r="C81" s="78"/>
     </row>
     <row r="82" spans="1:20">
       <c r="A82" s="79" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="B82" s="80"/>
       <c r="C82" s="81"/>
     </row>
     <row r="83" spans="1:20">
       <c r="A83" s="79" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="B83" s="80"/>
       <c r="C83" s="81"/>
       <c r="H83" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="84" spans="1:20">
       <c r="A84" s="79" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="B84" s="80"/>
       <c r="C84" s="81"/>
       <c r="I84" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="85" spans="1:20">
       <c r="A85" s="79" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="B85" s="80"/>
       <c r="C85" s="81"/>
       <c r="I85" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -18731,50 +18916,50 @@
       <c r="B86" s="83"/>
       <c r="C86" s="84"/>
       <c r="I86" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="87" spans="1:20">
       <c r="A87" s="76" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="B87" s="77"/>
       <c r="C87" s="78"/>
       <c r="I87" s="16" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="T87" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="88" spans="1:20">
       <c r="B88" s="80"/>
       <c r="C88" s="81"/>
       <c r="J88" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="89" spans="1:20">
       <c r="A89" s="104" t="s">
-        <v>1354</v>
+        <v>1345</v>
       </c>
       <c r="B89" s="80"/>
       <c r="C89" s="81"/>
       <c r="J89" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="90" spans="1:20">
       <c r="A90" s="79" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="B90" s="80"/>
       <c r="C90" s="81"/>
       <c r="D90" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="Q90" s="130" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="R90" s="130"/>
       <c r="S90" s="130"/>
@@ -18782,12 +18967,12 @@
     </row>
     <row r="91" spans="1:20">
       <c r="A91" s="79" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="B91" s="80"/>
       <c r="C91" s="81"/>
       <c r="D91" s="65" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="E91" s="65"/>
     </row>
@@ -18796,10 +18981,10 @@
       <c r="B92" s="80"/>
       <c r="C92" s="81"/>
       <c r="E92" s="65" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="H92" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -18807,13 +18992,13 @@
       <c r="B93" s="80"/>
       <c r="C93" s="81"/>
       <c r="E93" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I93" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="J93" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="94" spans="1:20" ht="17.25">
@@ -18821,13 +19006,13 @@
       <c r="B94" s="83"/>
       <c r="C94" s="84"/>
       <c r="D94" s="64" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="I94" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="J94" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -18835,93 +19020,93 @@
       <c r="B95" s="77"/>
       <c r="C95" s="78"/>
       <c r="E95" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="J95" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="96" spans="1:20">
       <c r="A96" s="79" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="B96" s="80"/>
       <c r="C96" s="81"/>
       <c r="D96" s="76" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="E96" s="77"/>
       <c r="F96" s="77"/>
       <c r="G96" s="78"/>
       <c r="K96" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="79" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="B97" s="80"/>
       <c r="C97" s="81"/>
       <c r="D97" s="79" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="E97" s="80"/>
       <c r="F97" s="80"/>
       <c r="G97" s="81"/>
       <c r="K97" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="79" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="B98" s="80"/>
       <c r="C98" s="81"/>
       <c r="D98" s="79" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="E98" s="80"/>
       <c r="F98" s="80"/>
       <c r="G98" s="81"/>
       <c r="K98" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="L98" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="79" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B99" s="80"/>
       <c r="C99" s="81"/>
       <c r="D99" s="79"/>
       <c r="E99" s="80" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="F99" s="80"/>
       <c r="G99" s="81"/>
       <c r="L99" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="79" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B100" s="80"/>
       <c r="C100" s="81"/>
       <c r="D100" s="79"/>
       <c r="E100" s="80" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="F100" s="80"/>
       <c r="G100" s="81"/>
       <c r="L100" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -18930,12 +19115,12 @@
       <c r="C101" s="81"/>
       <c r="D101" s="79"/>
       <c r="E101" s="80" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="F101" s="80"/>
       <c r="G101" s="81"/>
       <c r="L101" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -18943,13 +19128,13 @@
       <c r="B102" s="80"/>
       <c r="C102" s="81"/>
       <c r="D102" s="82" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="E102" s="83"/>
       <c r="F102" s="83"/>
       <c r="G102" s="84"/>
       <c r="K102" t="s">
-        <v>1352</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -18957,7 +19142,7 @@
       <c r="B103" s="80"/>
       <c r="C103" s="81"/>
       <c r="D103" s="76" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E103" s="77"/>
       <c r="F103" s="77"/>
@@ -18965,7 +19150,7 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="79" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B104" s="80"/>
       <c r="C104" s="81"/>
@@ -18974,29 +19159,29 @@
       <c r="F104" s="80"/>
       <c r="G104" s="81"/>
       <c r="K104" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="L104" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="79" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="B105" s="80"/>
       <c r="C105" s="81"/>
       <c r="D105" s="79" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="E105" s="80"/>
       <c r="F105" s="80"/>
       <c r="G105" s="81"/>
       <c r="K105" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="L105" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -19004,13 +19189,13 @@
       <c r="B106" s="80"/>
       <c r="C106" s="81"/>
       <c r="D106" s="79" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="E106" s="80"/>
       <c r="F106" s="80"/>
       <c r="G106" s="81"/>
       <c r="L106" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -19019,95 +19204,95 @@
       <c r="C107" s="84"/>
       <c r="D107" s="79"/>
       <c r="E107" s="80" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="F107" s="80"/>
       <c r="G107" s="81"/>
       <c r="I107" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="J107" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="17.25">
       <c r="A108" s="76" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="B108" s="77"/>
       <c r="C108" s="78"/>
       <c r="D108" s="79"/>
       <c r="E108" s="80" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F108" s="80"/>
       <c r="G108" s="81" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="J108" s="22" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="17.25">
       <c r="A109" s="85" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="B109" s="80"/>
       <c r="C109" s="81"/>
       <c r="D109" s="79"/>
       <c r="E109" s="80" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="F109" s="80"/>
       <c r="G109" s="81"/>
       <c r="J109" s="67" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="K109" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="79" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B110" s="80"/>
       <c r="C110" s="81"/>
       <c r="D110" s="82" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="E110" s="83"/>
       <c r="F110" s="83"/>
       <c r="G110" s="84"/>
       <c r="I110" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="J110" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="79" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B111" s="80"/>
       <c r="C111" s="81"/>
       <c r="D111" s="76" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="E111" s="77"/>
       <c r="F111" s="77"/>
       <c r="G111" s="78"/>
       <c r="I111" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="J111" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="79" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="B112" s="80"/>
       <c r="C112" s="81"/>
@@ -19116,12 +19301,12 @@
       <c r="F112" s="80"/>
       <c r="G112" s="81"/>
       <c r="J112" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
     </row>
     <row r="113" spans="1:17">
       <c r="A113" s="79" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="B113" s="80"/>
       <c r="C113" s="81"/>
@@ -19130,12 +19315,12 @@
       <c r="F113" s="80"/>
       <c r="G113" s="81"/>
       <c r="J113" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
     </row>
     <row r="114" spans="1:17">
       <c r="A114" s="79" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="B114" s="80"/>
       <c r="C114" s="81"/>
@@ -19144,12 +19329,12 @@
       <c r="F114" s="80"/>
       <c r="G114" s="81"/>
       <c r="J114" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="115" spans="1:17">
       <c r="A115" s="79" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="B115" s="80"/>
       <c r="C115" s="81"/>
@@ -19200,65 +19385,65 @@
     </row>
     <row r="120" spans="1:17">
       <c r="D120" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="E120" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="121" spans="1:17">
       <c r="E121" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="122" spans="1:17">
       <c r="F122" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="124" spans="1:17">
       <c r="E124" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="125" spans="1:17">
       <c r="F125" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="126" spans="1:17">
       <c r="F126" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="127" spans="1:17">
       <c r="G127" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="128" spans="1:17">
       <c r="E128" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="129" spans="6:6">
       <c r="F129" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="130" spans="6:6">
       <c r="F130" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="131" spans="6:6">
       <c r="F131" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="132" spans="6:6">
       <c r="F132" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>
@@ -19290,137 +19475,137 @@
   <sheetData>
     <row r="2" spans="4:13">
       <c r="L2" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="M2" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="3" spans="4:13">
       <c r="D3" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
       <c r="L3" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
       <c r="M3" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="4" spans="4:13">
       <c r="F4" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="5" spans="4:13">
       <c r="D5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M5" t="s">
         <v>1031</v>
-      </c>
-      <c r="L5" t="s">
-        <v>1039</v>
-      </c>
-      <c r="M5" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="6" spans="4:13">
       <c r="L6" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="M6" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="8" spans="4:13">
       <c r="D8" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
       <c r="L8" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="M8" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="11" spans="4:13">
       <c r="D11" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="13" spans="4:13">
       <c r="D13" t="s">
-        <v>1042</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="18" spans="4:5">
       <c r="D18" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="20" spans="4:5">
       <c r="D20" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="29" spans="4:5" ht="17.25">
       <c r="D29" s="107" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="30" spans="4:5">
       <c r="D30" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="31" spans="4:5">
       <c r="E31" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="32" spans="4:5" ht="17.25">
       <c r="D32" s="108" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="33" spans="4:5">
       <c r="D33" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="35" spans="4:5" ht="17.25">
       <c r="D35" s="107" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="36" spans="4:5">
       <c r="D36" s="88" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="37" spans="4:5">
       <c r="D37" s="88"/>
       <c r="E37" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="38" spans="4:5">
       <c r="E38" s="88" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="39" spans="4:5" ht="17.25">
       <c r="D39" s="108" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="40" spans="4:5">
       <c r="D40" t="s">
-        <v>1125</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="41" spans="4:5">
       <c r="E41" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
     </row>
   </sheetData>
@@ -19442,59 +19627,59 @@
   <sheetData>
     <row r="1" spans="1:7" ht="22.5">
       <c r="A1" s="63" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="B1" t="s">
-        <v>1388</v>
+        <v>1379</v>
       </c>
       <c r="C1" t="s">
-        <v>1389</v>
+        <v>1380</v>
       </c>
       <c r="E1" t="s">
-        <v>1390</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="G15" s="62" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="F20" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -19530,7 +19715,7 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="B2" s="3" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>2</v>
@@ -19838,7 +20023,7 @@
         <v>391</v>
       </c>
       <c r="K43" s="52" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
     </row>
     <row r="44" spans="2:11">
@@ -19846,10 +20031,10 @@
         <v>25</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
     </row>
     <row r="45" spans="2:11">
@@ -19863,7 +20048,7 @@
         <v>392</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
     </row>
     <row r="46" spans="2:11">
@@ -19888,7 +20073,7 @@
     </row>
     <row r="51" spans="6:10">
       <c r="H51" s="6" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="52" spans="6:10">
@@ -20172,7 +20357,7 @@
         <v>126</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -20183,7 +20368,7 @@
         <v>127</v>
       </c>
       <c r="F22" t="s">
-        <v>1323</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -20216,136 +20401,136 @@
   <sheetData>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>1249</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="B35" t="s">
-        <v>1250</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>1297</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>1298</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>1299</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="B57" t="s">
-        <v>1301</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>1303</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="B60" t="s">
-        <v>1304</v>
+        <v>1295</v>
       </c>
       <c r="F60" t="s">
-        <v>1305</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="B61" t="s">
-        <v>1306</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>1307</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="B63" t="s">
-        <v>1308</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="B64" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="B65" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="B66" t="s">
-        <v>1311</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="B68" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="G68" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>1302</v>
+        <v>1293</v>
       </c>
       <c r="B69" t="s">
-        <v>1315</v>
+        <v>1306</v>
       </c>
       <c r="H69" t="s">
-        <v>1316</v>
+        <v>1307</v>
       </c>
       <c r="K69" t="s">
-        <v>1317</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
       <c r="B71" t="s">
-        <v>1319</v>
+        <v>1310</v>
       </c>
       <c r="D71" t="s">
-        <v>1320</v>
+        <v>1311</v>
       </c>
       <c r="G71" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
   </sheetData>
@@ -20376,7 +20561,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="N1" t="s">
-        <v>1234</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -20391,12 +20576,12 @@
         <v>198</v>
       </c>
       <c r="N2" t="s">
-        <v>1242</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>194</v>
@@ -20405,13 +20590,13 @@
         <v>196</v>
       </c>
       <c r="F3" s="93" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>199</v>
       </c>
       <c r="N3" t="s">
-        <v>1235</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -20422,28 +20607,28 @@
         <v>197</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>1233</v>
+        <v>1224</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>200</v>
       </c>
       <c r="N4" t="s">
-        <v>1236</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="O5" t="s">
-        <v>1237</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="O6" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="N8" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -20451,22 +20636,22 @@
         <v>209</v>
       </c>
       <c r="N9" t="s">
-        <v>1241</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="N10" t="s">
-        <v>1240</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="D14" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="D15" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -20503,17 +20688,17 @@
         <v>190</v>
       </c>
       <c r="V20" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="1:24">
       <c r="T21" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="22" spans="1:24">
       <c r="V22" s="60" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -20521,28 +20706,28 @@
         <v>333</v>
       </c>
       <c r="J23" t="s">
-        <v>1078</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="24" spans="1:24">
       <c r="H24" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
       <c r="V24" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="25" spans="1:24">
       <c r="E25" s="68" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="K25" s="120" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="26" spans="1:24">
       <c r="E26" s="68" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>225</v>
@@ -20551,7 +20736,7 @@
         <v>227</v>
       </c>
       <c r="V26" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -20559,14 +20744,14 @@
         <v>509</v>
       </c>
       <c r="B27" s="131" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="C27" s="131"/>
       <c r="E27" s="68" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="G27" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -20579,115 +20764,115 @@
     </row>
     <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B29" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="G29" t="s">
-        <v>1364</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="30" spans="1:24">
       <c r="B30" t="s">
-        <v>1361</v>
+        <v>1352</v>
       </c>
       <c r="G30" s="119" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="H30" t="s">
-        <v>1365</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="31" spans="1:24">
       <c r="A31" s="29" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B31" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
       <c r="G31" t="s">
         <v>233</v>
       </c>
       <c r="Q31" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="U31" t="s">
-        <v>1265</v>
+        <v>1256</v>
       </c>
       <c r="X31" t="s">
-        <v>1266</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="32" spans="1:24">
       <c r="A32" s="1" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="B32" t="s">
-        <v>1223</v>
+        <v>1214</v>
       </c>
       <c r="G32" t="s">
-        <v>1271</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="B33" t="s">
-        <v>1224</v>
+        <v>1215</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>1269</v>
+        <v>1260</v>
       </c>
       <c r="H33" s="69" t="s">
-        <v>1272</v>
+        <v>1263</v>
       </c>
       <c r="I33" s="69"/>
       <c r="J33" s="69"/>
       <c r="K33" s="111"/>
       <c r="L33" s="138" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="M33" s="138"/>
       <c r="N33" s="138"/>
       <c r="O33" s="138"/>
       <c r="P33" s="138"/>
       <c r="Q33" s="80" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="R33" s="80"/>
       <c r="S33" s="80"/>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="H34" s="136" t="s">
-        <v>1268</v>
+        <v>1259</v>
       </c>
       <c r="I34" s="137"/>
       <c r="J34" s="137"/>
       <c r="K34" s="137"/>
       <c r="L34" s="138" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="M34" s="138"/>
       <c r="N34" s="138"/>
       <c r="O34" s="138"/>
       <c r="P34" s="138"/>
       <c r="Q34" s="80" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="R34" s="80"/>
       <c r="S34" s="80"/>
     </row>
     <row r="35" spans="1:19">
       <c r="H35" s="136" t="s">
-        <v>1267</v>
+        <v>1258</v>
       </c>
       <c r="I35" s="137"/>
       <c r="J35" s="137"/>
       <c r="K35" s="137"/>
       <c r="L35" s="132" t="s">
-        <v>1270</v>
+        <v>1261</v>
       </c>
       <c r="M35" s="133"/>
       <c r="N35" s="133"/>
@@ -20707,7 +20892,7 @@
     </row>
     <row r="37" spans="1:19">
       <c r="B37" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="H37" t="s">
         <v>229</v>
@@ -20715,10 +20900,10 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B38" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="I38" t="s">
         <v>230</v>
@@ -20726,7 +20911,7 @@
     </row>
     <row r="39" spans="1:19">
       <c r="B39" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="I39" t="s">
         <v>231</v>
@@ -20734,13 +20919,13 @@
     </row>
     <row r="40" spans="1:19">
       <c r="F40" t="s">
-        <v>1383</v>
+        <v>1374</v>
       </c>
       <c r="G40" s="69" t="s">
-        <v>1044</v>
+        <v>1035</v>
       </c>
       <c r="H40" s="132" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
       <c r="I40" s="133"/>
       <c r="J40" s="133"/>
@@ -20750,7 +20935,7 @@
       <c r="N40" s="133"/>
       <c r="O40" s="134"/>
       <c r="P40" s="69" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -20758,15 +20943,15 @@
         <v>249</v>
       </c>
       <c r="H41" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B42" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="I42" t="s">
         <v>234</v>
@@ -20774,10 +20959,10 @@
     </row>
     <row r="43" spans="1:19">
       <c r="B43" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="H43" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -20785,62 +20970,62 @@
         <v>512</v>
       </c>
       <c r="I44" t="s">
-        <v>1376</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="B45" s="16" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="H45" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="I45" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="L45" s="16" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
     </row>
     <row r="46" spans="1:19">
       <c r="B46" s="88" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="G46" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>1070</v>
+        <v>1061</v>
       </c>
       <c r="L46" t="s">
-        <v>1069</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="47" spans="1:19">
       <c r="B47" s="16" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
     </row>
     <row r="48" spans="1:19">
       <c r="B48" s="16"/>
       <c r="H48" s="16" t="s">
-        <v>1066</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="G49" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="H49" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="H50" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -20848,10 +21033,10 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="H51" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -20859,10 +21044,10 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="H52" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -20870,18 +21055,18 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="I53" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="B54" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="I54" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -20889,7 +21074,7 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -20897,10 +21082,10 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="G56" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -20908,504 +21093,504 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="H57" t="s">
-        <v>1065</v>
+        <v>1056</v>
       </c>
       <c r="M57" t="s">
-        <v>1246</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="G59" t="s">
-        <v>1072</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="G60" t="s">
-        <v>1076</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="16.149999999999999" customHeight="1">
       <c r="A61" t="s">
-        <v>1350</v>
+        <v>1341</v>
       </c>
       <c r="G61" s="66" t="s">
-        <v>1264</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="B62" s="53" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="G63" t="s">
-        <v>1068</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="G64" t="s">
-        <v>1071</v>
+        <v>1062</v>
       </c>
       <c r="H64" t="s">
-        <v>1067</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="G67" t="s">
-        <v>1073</v>
+        <v>1064</v>
       </c>
       <c r="H67" t="s">
-        <v>1074</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="H68" t="s">
-        <v>1075</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>1348</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>1347</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="I88" s="30" t="s">
-        <v>1345</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>1154</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>1153</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>1351</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="98" spans="1:16">
       <c r="A98" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="103" spans="1:16">
       <c r="I103" t="s">
-        <v>1248</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="105" spans="1:16">
       <c r="I105" t="s">
-        <v>1243</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="106" spans="1:16">
       <c r="A106" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="107" spans="1:16">
       <c r="A107" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="I107" t="s">
-        <v>1244</v>
+        <v>1235</v>
       </c>
       <c r="P107" t="s">
-        <v>1245</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="108" spans="1:16">
       <c r="A108" t="s">
-        <v>1162</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="109" spans="1:16">
       <c r="A109" t="s">
-        <v>1165</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="110" spans="1:16">
       <c r="A110" t="s">
-        <v>1166</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="111" spans="1:16">
       <c r="A111" t="s">
-        <v>1163</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="112" spans="1:16">
       <c r="A112" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="B124" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="B130" s="58" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
     <row r="131" spans="1:6">
       <c r="B131" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
       <c r="D131" s="1"/>
     </row>
     <row r="132" spans="1:6">
       <c r="B132" t="s">
-        <v>1176</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="58" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>1184</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F143" t="s">
         <v>1186</v>
-      </c>
-      <c r="C143" t="s">
-        <v>1193</v>
-      </c>
-      <c r="F143" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>1187</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="B145" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="B146" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="C149" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>1221</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="B161" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="58"/>
       <c r="B162" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="B163" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="B164" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="B167" t="s">
-        <v>1212</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="B168" t="s">
-        <v>1213</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -21433,57 +21618,57 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="58" t="s">
-        <v>1214</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="B176" t="s">
-        <v>1215</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="B177" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="B178" t="s">
-        <v>1219</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="B179" t="s">
-        <v>1217</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="B180" t="s">
-        <v>1218</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="B181" t="s">
-        <v>1220</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>1225</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>1226</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="193" spans="1:12">
       <c r="A193" t="s">
-        <v>1227</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="195" spans="1:12">
       <c r="A195" t="s">
-        <v>1228</v>
+        <v>1219</v>
       </c>
       <c r="J195" s="135" t="s">
         <v>510</v>
@@ -21498,7 +21683,7 @@
     </row>
     <row r="197" spans="1:12">
       <c r="A197" t="s">
-        <v>1229</v>
+        <v>1220</v>
       </c>
       <c r="J197" s="135"/>
       <c r="K197" s="135"/>
@@ -21506,7 +21691,7 @@
     </row>
     <row r="198" spans="1:12">
       <c r="A198" t="s">
-        <v>1230</v>
+        <v>1221</v>
       </c>
       <c r="J198" s="135"/>
       <c r="K198" s="135"/>
@@ -21514,7 +21699,7 @@
     </row>
     <row r="199" spans="1:12">
       <c r="A199" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="J199" s="135"/>
       <c r="K199" s="135"/>
@@ -21522,7 +21707,7 @@
     </row>
     <row r="200" spans="1:12">
       <c r="B200" t="s">
-        <v>1232</v>
+        <v>1223</v>
       </c>
       <c r="J200" s="135"/>
       <c r="K200" s="135"/>
@@ -21545,27 +21730,27 @@
     </row>
     <row r="205" spans="1:12">
       <c r="A205" t="s">
-        <v>1391</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="206" spans="1:12">
       <c r="A206" t="s">
-        <v>1393</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="207" spans="1:12">
       <c r="A207" t="s">
-        <v>1392</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>1394</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>1395</v>
+        <v>1386</v>
       </c>
     </row>
   </sheetData>
@@ -21616,138 +21801,138 @@
     </row>
     <row r="7" spans="5:7">
       <c r="E7" t="s">
-        <v>1062</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="8" spans="5:7">
       <c r="E8" t="s">
-        <v>1063</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="11" spans="5:7" ht="33.75">
       <c r="E11" s="115" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" t="s">
-        <v>1326</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="14" spans="5:7">
       <c r="E14" t="s">
-        <v>1327</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="16" spans="5:7">
       <c r="E16" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>1329</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="F24" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="F25" t="s">
-        <v>1332</v>
+        <v>1323</v>
       </c>
       <c r="G25" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="F26" t="s">
-        <v>1342</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="F27" t="s">
-        <v>1341</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="F28" t="s">
-        <v>1340</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="F29" t="s">
-        <v>1343</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>1344</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="33" spans="5:6">
       <c r="E33" s="116" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
       <c r="F33" s="117"/>
     </row>
     <row r="34" spans="5:6">
       <c r="E34" s="118" t="s">
-        <v>1355</v>
+        <v>1346</v>
       </c>
       <c r="F34" s="117"/>
     </row>
     <row r="35" spans="5:6">
       <c r="E35" s="118" t="s">
-        <v>1356</v>
+        <v>1347</v>
       </c>
       <c r="F35" s="117"/>
     </row>
     <row r="36" spans="5:6">
       <c r="E36" s="118" t="s">
-        <v>1357</v>
+        <v>1348</v>
       </c>
       <c r="F36" s="117"/>
     </row>
     <row r="37" spans="5:6">
       <c r="E37" s="118" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="F37" s="117"/>
     </row>
     <row r="38" spans="5:6">
       <c r="E38" s="118" t="s">
-        <v>1358</v>
+        <v>1349</v>
       </c>
       <c r="F38" s="117"/>
     </row>
     <row r="39" spans="5:6">
       <c r="E39" s="118" t="s">
-        <v>1359</v>
+        <v>1350</v>
       </c>
       <c r="F39" s="117"/>
     </row>
     <row r="40" spans="5:6">
       <c r="E40" s="118" t="s">
-        <v>1338</v>
+        <v>1329</v>
       </c>
       <c r="F40" s="117"/>
     </row>
     <row r="44" spans="5:6">
       <c r="E44" t="s">
-        <v>1339</v>
+        <v>1330</v>
       </c>
     </row>
   </sheetData>
@@ -21815,7 +22000,7 @@
     </row>
     <row r="10" spans="5:8">
       <c r="E10" s="58" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="H10" t="s">
         <v>491</v>
@@ -21823,7 +22008,7 @@
     </row>
     <row r="11" spans="5:8">
       <c r="E11" s="58" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="G11" t="s">
         <v>489</v>
@@ -21831,7 +22016,7 @@
     </row>
     <row r="12" spans="5:8">
       <c r="E12" s="58" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="H12" t="s">
         <v>490</v>
@@ -21839,12 +22024,12 @@
     </row>
     <row r="13" spans="5:8">
       <c r="E13" s="58" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
     </row>
     <row r="14" spans="5:8">
       <c r="H14" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="15" spans="5:8">
@@ -21862,7 +22047,7 @@
     </row>
     <row r="18" spans="7:17">
       <c r="G18" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="I18" t="s">
         <v>487</v>
@@ -21880,7 +22065,7 @@
     </row>
     <row r="21" spans="7:17">
       <c r="Q21" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
     </row>
     <row r="22" spans="7:17">
@@ -21894,15 +22079,15 @@
         <v>468</v>
       </c>
       <c r="P22" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
     </row>
     <row r="23" spans="7:17">
       <c r="H23" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="Q23" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
     </row>
     <row r="24" spans="7:17">
@@ -21930,7 +22115,7 @@
     </row>
     <row r="29" spans="7:17">
       <c r="G29" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="30" spans="7:17">
@@ -21976,7 +22161,7 @@
     </row>
     <row r="39" spans="7:12">
       <c r="G39" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="40" spans="7:12">
@@ -21999,91 +22184,91 @@
     </row>
     <row r="43" spans="7:12">
       <c r="G43" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="44" spans="7:12" ht="18.75">
       <c r="G44" s="51"/>
       <c r="L44" s="61" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="45" spans="7:12">
       <c r="G45" s="52" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="46" spans="7:12">
       <c r="G46" s="53" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="48" spans="7:12">
       <c r="G48" s="43" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="53" spans="7:13">
       <c r="G53" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="54" spans="7:13">
       <c r="H54" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="I54" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
       <c r="J54" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="58" spans="7:13">
       <c r="G58" t="s">
-        <v>1091</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="59" spans="7:13">
       <c r="G59" s="105" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="60" spans="7:13">
       <c r="H60" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
       <c r="L60" t="s">
-        <v>1089</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="61" spans="7:13">
       <c r="G61" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="I61" t="s">
-        <v>1086</v>
+        <v>1077</v>
       </c>
       <c r="K61" t="s">
-        <v>1087</v>
+        <v>1078</v>
       </c>
       <c r="M61" t="s">
-        <v>1088</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="63" spans="7:13">
       <c r="G63" t="s">
-        <v>1096</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="64" spans="7:13">
       <c r="H64" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="65" spans="7:13">
       <c r="G65" s="106" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
       <c r="H65" s="106"/>
       <c r="I65" s="106"/>
@@ -22094,7 +22279,7 @@
     </row>
     <row r="66" spans="7:13">
       <c r="G66" s="106" t="s">
-        <v>1093</v>
+        <v>1084</v>
       </c>
       <c r="H66" s="106"/>
       <c r="I66" s="106"/>
@@ -22105,7 +22290,7 @@
     </row>
     <row r="67" spans="7:13">
       <c r="G67" s="106" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
       <c r="H67" s="106"/>
       <c r="I67" s="106"/>
@@ -22116,7 +22301,7 @@
     </row>
     <row r="68" spans="7:13">
       <c r="G68" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
     </row>
   </sheetData>
@@ -22147,30 +22332,30 @@
   <sheetData>
     <row r="2" spans="4:9">
       <c r="F2" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
     </row>
     <row r="3" spans="4:9">
       <c r="F3" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
     </row>
     <row r="4" spans="4:9">
       <c r="E4" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="F4" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
     </row>
     <row r="5" spans="4:9">
       <c r="F5" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
     </row>
     <row r="6" spans="4:9">
       <c r="F6" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
     </row>
     <row r="7" spans="4:9">
@@ -22194,36 +22379,36 @@
         <v>252</v>
       </c>
       <c r="E9" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="10" spans="4:9">
       <c r="D10" s="66" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="12" spans="4:9">
       <c r="H12" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="I12" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="13" spans="4:9">
       <c r="H13" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="I13" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="14" spans="4:9">
       <c r="I14" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="17" spans="3:13">
@@ -22240,15 +22425,15 @@
       </c>
       <c r="D19" s="17"/>
       <c r="K19" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
     </row>
     <row r="20" spans="3:13">
       <c r="E20" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="K20" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
     </row>
     <row r="21" spans="3:13">
@@ -22256,7 +22441,7 @@
         <v>406</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="22" spans="3:13">
@@ -22266,7 +22451,7 @@
     </row>
     <row r="23" spans="3:13">
       <c r="F23" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="25" spans="3:13" ht="17.25">
@@ -22286,18 +22471,18 @@
     </row>
     <row r="30" spans="3:13">
       <c r="K30" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="M30" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
     </row>
     <row r="31" spans="3:13">
       <c r="E31" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="M31" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
     </row>
     <row r="32" spans="3:13">
@@ -22308,231 +22493,231 @@
         <v>403</v>
       </c>
       <c r="M32" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
     </row>
     <row r="33" spans="4:20">
       <c r="E33" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="M33" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
     </row>
     <row r="36" spans="4:20">
       <c r="E36" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="T36" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
     </row>
     <row r="37" spans="4:20">
       <c r="D37" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="E37" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="38" spans="4:20">
       <c r="E38" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="40" spans="4:20">
       <c r="D40" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="E40" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="41" spans="4:20">
       <c r="G41" s="19" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="42" spans="4:20">
       <c r="E42" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G42" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H42" s="66" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="43" spans="4:20">
       <c r="E43" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G43" t="s">
-        <v>1256</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="44" spans="4:20">
       <c r="E44" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="47" spans="4:20">
       <c r="D47" t="s">
+        <v>551</v>
+      </c>
+      <c r="I47" t="s">
         <v>556</v>
-      </c>
-      <c r="I47" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="48" spans="4:20">
       <c r="E48" s="54" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="J48" s="54" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
     </row>
     <row r="49" spans="1:18">
       <c r="E49" s="54" t="s">
-        <v>1047</v>
+        <v>1038</v>
       </c>
       <c r="L49" s="54" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="50" spans="1:18">
       <c r="E50" s="54" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="K50" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
       <c r="L50" s="54" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="51" spans="1:18">
       <c r="E51" s="54" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="L51" s="54" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
     </row>
     <row r="52" spans="1:18">
       <c r="F52" s="54" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="J52" s="94" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="L52" s="54"/>
     </row>
     <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
       <c r="E53" s="54" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
       <c r="J53" s="94"/>
       <c r="L53" s="54"/>
     </row>
     <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="E54" s="99" t="s">
-        <v>1053</v>
+        <v>1044</v>
       </c>
       <c r="F54" s="54"/>
       <c r="J54" s="54" t="s">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="L54" s="54"/>
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="58" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="B55" s="58"/>
       <c r="C55" s="58"/>
       <c r="E55" s="99" t="s">
-        <v>1046</v>
+        <v>1037</v>
       </c>
       <c r="J55" s="54"/>
       <c r="L55" s="54"/>
     </row>
     <row r="56" spans="1:18">
       <c r="A56" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="B56" s="109"/>
       <c r="C56" s="109"/>
       <c r="E56" s="95"/>
       <c r="F56" s="54" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="J56" s="94" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="109" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
       <c r="F57" s="54" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="J57" s="94" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="121" t="s">
-        <v>1366</v>
+        <v>1357</v>
       </c>
       <c r="E58" s="101" t="s">
-        <v>1054</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="58" t="s">
-        <v>1247</v>
+        <v>1238</v>
       </c>
       <c r="E59" s="101" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="60" spans="1:18">
       <c r="A60" t="s">
-        <v>1397</v>
+        <v>1388</v>
       </c>
       <c r="E60" s="54" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="R60" s="102"/>
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="129" t="s">
-        <v>1396</v>
+        <v>1387</v>
       </c>
       <c r="E61" s="54" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="R61" s="30"/>
     </row>
     <row r="62" spans="1:18">
       <c r="D62" s="100" t="s">
-        <v>1052</v>
+        <v>1043</v>
       </c>
       <c r="E62" s="54"/>
       <c r="R62" s="30"/>
     </row>
     <row r="63" spans="1:18">
       <c r="D63" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="E63" s="54"/>
       <c r="I63" s="54"/>
@@ -22593,28 +22778,28 @@
     </row>
     <row r="75" spans="4:25">
       <c r="D75" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="E75" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="76" spans="4:25">
       <c r="E76" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="77" spans="4:25">
       <c r="F77" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="78" spans="4:25">
       <c r="E78" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="R78" s="76" t="s">
-        <v>1060</v>
+        <v>1051</v>
       </c>
       <c r="S78" s="77"/>
       <c r="T78" s="77"/>
@@ -22626,10 +22811,10 @@
     </row>
     <row r="79" spans="4:25">
       <c r="F79" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="R79" s="103" t="s">
-        <v>1059</v>
+        <v>1050</v>
       </c>
       <c r="S79" s="80"/>
       <c r="T79" s="80"/>
@@ -22641,7 +22826,7 @@
     </row>
     <row r="80" spans="4:25">
       <c r="R80" s="104" t="s">
-        <v>1056</v>
+        <v>1047</v>
       </c>
       <c r="S80" s="80"/>
       <c r="T80" s="80"/>
@@ -22653,10 +22838,10 @@
     </row>
     <row r="81" spans="4:25">
       <c r="D81" t="s">
-        <v>1349</v>
+        <v>1340</v>
       </c>
       <c r="R81" s="79" t="s">
-        <v>1061</v>
+        <v>1052</v>
       </c>
       <c r="S81" s="80"/>
       <c r="T81" s="80"/>
@@ -22668,10 +22853,10 @@
     </row>
     <row r="82" spans="4:25">
       <c r="D82" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="R82" s="104" t="s">
-        <v>1057</v>
+        <v>1048</v>
       </c>
       <c r="S82" s="80"/>
       <c r="T82" s="80"/>
@@ -22683,13 +22868,13 @@
     </row>
     <row r="83" spans="4:25">
       <c r="D83" s="139" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E83" s="139"/>
       <c r="F83" s="139"/>
       <c r="G83" s="139"/>
       <c r="R83" s="104" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="S83" s="80"/>
       <c r="T83" s="80"/>
@@ -22705,7 +22890,7 @@
       <c r="F84" s="139"/>
       <c r="G84" s="139"/>
       <c r="R84" s="82" t="s">
-        <v>1055</v>
+        <v>1046</v>
       </c>
       <c r="S84" s="83"/>
       <c r="T84" s="83"/>
@@ -22735,15 +22920,15 @@
     </row>
     <row r="88" spans="4:25">
       <c r="D88" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="F88" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="89" spans="4:25">
       <c r="D89" s="146" t="s">
-        <v>1368</v>
+        <v>1359</v>
       </c>
       <c r="E89" s="147"/>
       <c r="F89" s="147"/>
@@ -22756,7 +22941,7 @@
     </row>
     <row r="90" spans="4:25" ht="54" customHeight="1">
       <c r="D90" s="149" t="s">
-        <v>1370</v>
+        <v>1361</v>
       </c>
       <c r="E90" s="149"/>
       <c r="F90" s="149"/>
@@ -22775,103 +22960,103 @@
     </row>
     <row r="93" spans="4:25">
       <c r="D93" s="56" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="E93" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="94" spans="4:25">
       <c r="E94" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="95" spans="4:25">
       <c r="E95" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="I95" t="s">
-        <v>1367</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="96" spans="4:25">
       <c r="E96" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="97" spans="3:19">
       <c r="E97" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="98" spans="3:19">
       <c r="E98" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="99" spans="3:19">
       <c r="E99" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="100" spans="3:19">
       <c r="E100" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="101" spans="3:19">
       <c r="E101" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="102" spans="3:19">
       <c r="D102" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="104" spans="3:19">
       <c r="E104" s="123" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F104" s="123" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="G104" s="123"/>
     </row>
     <row r="105" spans="3:19">
       <c r="F105" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="106" spans="3:19">
       <c r="F106" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="107" spans="3:19">
       <c r="F107" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="108" spans="3:19">
       <c r="F108" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="109" spans="3:19">
       <c r="F109" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="110" spans="3:19" ht="16.149999999999999" customHeight="1">
       <c r="E110" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F110" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="L110" s="140" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="M110" s="141"/>
       <c r="N110" s="141"/>
@@ -22884,7 +23069,7 @@
     <row r="111" spans="3:19" ht="30.75">
       <c r="C111" ph="1"/>
       <c r="G111" s="55" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="L111" s="143"/>
       <c r="M111" s="144"/>
@@ -22897,29 +23082,29 @@
     </row>
     <row r="112" spans="3:19">
       <c r="E112" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F112" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="L112" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="115" spans="5:14">
       <c r="E115" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="F115" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="116" spans="5:14">
       <c r="E116" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="F116" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="119" spans="5:14">
@@ -22929,13 +23114,13 @@
     </row>
     <row r="120" spans="5:14">
       <c r="E120" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="H120" t="s">
         <v>337</v>
       </c>
       <c r="L120" t="s">
-        <v>1260</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="121" spans="5:14">
@@ -22952,13 +23137,13 @@
         <v>272</v>
       </c>
       <c r="J121" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="L121" s="126" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="N121" t="s">
-        <v>1064</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="122" spans="5:14">
@@ -22978,7 +23163,7 @@
         <v>339</v>
       </c>
       <c r="L122" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="123" spans="5:14">
@@ -22995,7 +23180,7 @@
         <v>272</v>
       </c>
       <c r="J123" t="s">
-        <v>1262</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="124" spans="5:14">
@@ -23015,7 +23200,7 @@
         <v>345</v>
       </c>
       <c r="L124" s="126" t="s">
-        <v>1375</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="125" spans="5:14">
@@ -23054,46 +23239,46 @@
     </row>
     <row r="127" spans="5:14">
       <c r="L127" t="s">
-        <v>1371</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="128" spans="5:14">
       <c r="L128" t="s">
-        <v>1382</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="129" spans="6:18">
       <c r="F129" t="s">
-        <v>1252</v>
+        <v>1243</v>
       </c>
       <c r="L129" s="127" t="s">
-        <v>1377</v>
+        <v>1368</v>
       </c>
       <c r="R129" t="s">
-        <v>1353</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="130" spans="6:18">
       <c r="F130" t="s">
-        <v>1251</v>
+        <v>1242</v>
       </c>
       <c r="L130" s="127" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="131" spans="6:18">
       <c r="L131" s="127" t="s">
-        <v>1379</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="132" spans="6:18">
       <c r="L132" s="128" t="s">
-        <v>1380</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="133" spans="6:18">
       <c r="L133" s="128" t="s">
-        <v>1381</v>
+        <v>1372</v>
       </c>
     </row>
   </sheetData>
@@ -23144,25 +23329,25 @@
     </row>
     <row r="3" spans="1:18">
       <c r="D3" s="1" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="H7" s="72" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="N8" s="1" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="O8" s="58" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -23175,7 +23360,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>115</v>
@@ -23183,59 +23368,59 @@
     </row>
     <row r="11" spans="1:18">
       <c r="B11" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="G11" s="12">
         <v>7</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
       <c r="O11" s="89" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="113" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
       <c r="B12" s="113" t="s">
-        <v>1282</v>
+        <v>1273</v>
       </c>
       <c r="C12" s="113" t="s">
-        <v>1283</v>
+        <v>1274</v>
       </c>
       <c r="D12" s="58"/>
       <c r="H12" s="71" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="I12" s="12">
         <v>3</v>
       </c>
       <c r="O12" s="89" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="92" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="C13" s="92">
         <v>2</v>
       </c>
       <c r="O13" s="89" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="92" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="B14" s="92">
         <v>2</v>
@@ -23244,12 +23429,12 @@
         <v>2</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="92" t="s">
-        <v>1281</v>
+        <v>1272</v>
       </c>
       <c r="B15" s="92">
         <v>1</v>
@@ -23281,10 +23466,10 @@
     </row>
     <row r="17" spans="2:26">
       <c r="B17" s="58" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="M17" s="152" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="N17" s="12" t="s">
         <v>256</v>
@@ -23293,13 +23478,13 @@
         <v>264</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="Q17" s="41" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="S17" s="150" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="T17" s="151"/>
       <c r="U17" s="151"/>
@@ -23308,29 +23493,29 @@
     </row>
     <row r="18" spans="2:26">
       <c r="B18" s="58" t="s">
-        <v>1288</v>
+        <v>1279</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>134</v>
       </c>
       <c r="H18" s="98" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="I18" s="12">
         <v>1</v>
       </c>
       <c r="M18" s="152"/>
       <c r="N18" s="12" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>264</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="Q18" s="14" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="S18" s="150"/>
       <c r="T18" s="151"/>
@@ -23340,26 +23525,26 @@
     </row>
     <row r="19" spans="2:26">
       <c r="B19" s="58" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="G19" s="12">
         <v>5</v>
       </c>
       <c r="H19" s="73" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="I19" s="57">
         <v>1</v>
       </c>
       <c r="M19" s="152"/>
       <c r="N19" s="18" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="P19" s="17" t="s">
         <v>265</v>
@@ -23464,7 +23649,7 @@
         <v>141</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="O24" s="17"/>
       <c r="P24" s="17"/>
@@ -23481,7 +23666,7 @@
         <v>423</v>
       </c>
       <c r="N25" s="39" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
       <c r="O25" s="14" t="s">
         <v>426</v>
@@ -23502,14 +23687,14 @@
     <row r="26" spans="2:26">
       <c r="M26" s="152"/>
       <c r="N26" s="90" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="O26" s="14"/>
       <c r="P26" s="14" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="Q26" s="14" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="R26" s="1">
         <v>11</v>
@@ -23524,16 +23709,16 @@
         <v>424</v>
       </c>
       <c r="O27" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="P27" s="14" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="Q27" s="42" t="s">
         <v>428</v>
       </c>
       <c r="R27" s="150" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
       <c r="S27" s="151"/>
       <c r="T27" s="151"/>
@@ -23559,10 +23744,10 @@
         <v>425</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="P28" s="90" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="Q28" s="42" t="s">
         <v>428</v>
@@ -23579,23 +23764,23 @@
     </row>
     <row r="29" spans="2:26">
       <c r="H29" s="1" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="30" spans="2:26">
       <c r="G30" s="66" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
     </row>
     <row r="34" spans="2:8">
       <c r="C34" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="D34" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
     </row>
     <row r="35" spans="2:8">
@@ -23611,7 +23796,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
     </row>
     <row r="40" spans="2:8">
@@ -23630,7 +23815,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
     </row>
     <row r="42" spans="2:8">
@@ -23643,224 +23828,224 @@
     </row>
     <row r="43" spans="2:8">
       <c r="C43" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="F43" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="D44" s="16" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="E44" s="58"/>
     </row>
     <row r="45" spans="2:8">
       <c r="D45" s="58" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="E45" s="58"/>
       <c r="F45" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="D46" s="16" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="E46" s="58"/>
     </row>
     <row r="47" spans="2:8">
       <c r="D47" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="1" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="C48" s="57" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="D48" s="57" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="E48" s="57" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="F48" s="57" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="G48" s="57" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="H48" s="89" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
     </row>
     <row r="49" spans="3:9">
       <c r="C49" s="57" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="D49" s="57" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="E49" s="57" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="F49" s="57" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="G49" s="57" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="H49" s="89" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
     </row>
     <row r="50" spans="3:9">
       <c r="C50" s="57" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="D50" s="57" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="E50" s="57" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="F50" s="57" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="G50" s="57" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="H50" s="89"/>
     </row>
     <row r="51" spans="3:9">
       <c r="C51" s="57" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="D51" s="57" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="E51" s="57" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="F51" s="57" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="G51" s="57" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="H51" s="89"/>
     </row>
     <row r="52" spans="3:9">
       <c r="C52" s="57" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="D52" s="57" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="E52" s="57" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="F52" s="57" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="G52" s="57" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="H52" s="89" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="53" spans="3:9">
       <c r="C53" s="57" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D53" s="96" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="E53" s="17"/>
     </row>
     <row r="54" spans="3:9">
       <c r="C54" s="89" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="D54" s="58" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="E54" s="17"/>
       <c r="H54" s="1" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="I54" s="58" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
     </row>
     <row r="55" spans="3:9">
       <c r="C55" s="89" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="D55" s="58" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
     </row>
     <row r="56" spans="3:9">
       <c r="C56" s="89" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D56" s="58" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
     </row>
     <row r="57" spans="3:9">
       <c r="C57" s="89" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="D57" s="97" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
     </row>
     <row r="58" spans="3:9">
       <c r="C58" s="89" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="D58" s="58" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
     </row>
     <row r="59" spans="3:9">
       <c r="C59" s="89" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="D59" s="58" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
     </row>
     <row r="60" spans="3:9">
       <c r="C60" s="89" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="D60" s="58"/>
     </row>
     <row r="63" spans="3:9">
       <c r="H63" s="58" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="64" spans="3:9">
       <c r="D64" s="1" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>445</v>
       </c>
       <c r="H64" s="58" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
     </row>
     <row r="65" spans="3:9">
@@ -23871,10 +24056,10 @@
         <v>443</v>
       </c>
       <c r="H65" s="58" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
     </row>
     <row r="66" spans="3:9">
@@ -23888,12 +24073,12 @@
         <v>444</v>
       </c>
       <c r="H66" s="58" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
     </row>
     <row r="67" spans="3:9">
       <c r="D67" s="1" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
     </row>
     <row r="68" spans="3:9">
@@ -23908,7 +24093,7 @@
     </row>
     <row r="70" spans="3:9">
       <c r="D70" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
     </row>
     <row r="72" spans="3:9">
@@ -23943,7 +24128,7 @@
         <v>459</v>
       </c>
       <c r="E78" s="138" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="F78" s="138"/>
       <c r="G78" s="57" t="s">
@@ -23961,7 +24146,7 @@
         <v>470</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="F80" s="57"/>
       <c r="G80" s="75" t="s">
@@ -23986,7 +24171,7 @@
     </row>
     <row r="83" spans="3:7">
       <c r="C83" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="D83" s="57"/>
       <c r="E83" s="57"/>
@@ -23998,7 +24183,7 @@
         <v>473</v>
       </c>
       <c r="E84" s="139" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F84" s="139"/>
       <c r="G84" s="155" t="s">
@@ -24043,10 +24228,10 @@
     </row>
     <row r="93" spans="3:7">
       <c r="C93" s="1" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="D93" s="58" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
     </row>
     <row r="95" spans="3:7">
@@ -24054,18 +24239,18 @@
         <v>0</v>
       </c>
       <c r="E95" s="58" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
     </row>
     <row r="96" spans="3:7">
       <c r="C96" s="1" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="D96" s="1">
         <v>1</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
     </row>
     <row r="97" spans="4:8">
@@ -24073,12 +24258,12 @@
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
     </row>
     <row r="98" spans="4:8">
       <c r="F98" s="58" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
     </row>
     <row r="99" spans="4:8">
@@ -24086,7 +24271,7 @@
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="100" spans="4:8">
@@ -24094,7 +24279,7 @@
         <v>4</v>
       </c>
       <c r="E100" s="59" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="101" spans="4:8">
@@ -24102,10 +24287,10 @@
         <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="102" spans="4:8">
@@ -24113,7 +24298,7 @@
         <v>6</v>
       </c>
       <c r="E102" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
     </row>
     <row r="103" spans="4:8">
@@ -24121,7 +24306,7 @@
         <v>7</v>
       </c>
       <c r="E103" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
     </row>
     <row r="104" spans="4:8">
@@ -24129,26 +24314,26 @@
         <v>8</v>
       </c>
       <c r="E104" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
     </row>
     <row r="105" spans="4:8">
       <c r="E105"/>
       <c r="F105" s="58" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
     </row>
     <row r="106" spans="4:8">
       <c r="F106" s="58" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
     </row>
     <row r="107" spans="4:8">
       <c r="F107" s="58" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="H107" s="58" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
     </row>
     <row r="108" spans="4:8">
@@ -24156,7 +24341,7 @@
         <v>9</v>
       </c>
       <c r="E108" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="109" spans="4:8">
@@ -24164,7 +24349,7 @@
         <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
     </row>
     <row r="110" spans="4:8">
@@ -24172,7 +24357,7 @@
         <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="F110" s="65"/>
       <c r="G110" s="65"/>
@@ -24182,7 +24367,7 @@
         <v>12</v>
       </c>
       <c r="E111" s="65" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
     </row>
     <row r="112" spans="4:8">
@@ -24190,7 +24375,7 @@
         <v>13</v>
       </c>
       <c r="E112" s="58" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
     </row>
     <row r="113" spans="4:6">
@@ -24198,7 +24383,7 @@
         <v>14</v>
       </c>
       <c r="E113" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
     </row>
     <row r="114" spans="4:6">
@@ -24206,7 +24391,7 @@
         <v>15</v>
       </c>
       <c r="E114" s="58" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
     </row>
     <row r="115" spans="4:6">
@@ -24214,12 +24399,12 @@
         <v>16</v>
       </c>
       <c r="E115" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
     </row>
     <row r="116" spans="4:6">
       <c r="F116" s="58" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
     </row>
     <row r="117" spans="4:6">
@@ -24227,7 +24412,7 @@
         <v>17</v>
       </c>
       <c r="E117" s="58" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
     </row>
     <row r="118" spans="4:6">
@@ -24235,22 +24420,22 @@
         <v>18</v>
       </c>
       <c r="E118" s="58" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
     </row>
     <row r="119" spans="4:6">
       <c r="E119" s="58" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
     </row>
     <row r="120" spans="4:6">
       <c r="E120" s="58" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
     </row>
     <row r="121" spans="4:6">
       <c r="E121" s="58" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
     </row>
     <row r="122" spans="4:6">
@@ -24258,17 +24443,17 @@
         <v>19</v>
       </c>
       <c r="E122" s="58" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
     </row>
     <row r="123" spans="4:6">
       <c r="F123" s="58" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
     </row>
     <row r="124" spans="4:6">
       <c r="E124" s="58" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
     </row>
   </sheetData>
@@ -24315,10 +24500,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AL123"/>
+  <dimension ref="A2:AM123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" defaultGridColor="0" topLeftCell="Z1" colorId="49" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="AK17" sqref="AK17"/>
+    <sheetView showGridLines="0" tabSelected="1" defaultGridColor="0" topLeftCell="AG25" colorId="49" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="AJ53" sqref="AJ53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -24435,7 +24620,7 @@
         <v>300</v>
       </c>
       <c r="AI14" s="38" t="s">
-        <v>1398</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="15" spans="3:35">
@@ -24454,7 +24639,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="3:30" ht="17.25">
+    <row r="17" spans="3:39" ht="17.25">
       <c r="C17" t="s">
         <v>315</v>
       </c>
@@ -24462,7 +24647,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="18" spans="3:30" ht="16.149999999999999" customHeight="1">
+    <row r="18" spans="3:39" ht="16.149999999999999" customHeight="1">
       <c r="C18" t="s">
         <v>316</v>
       </c>
@@ -24474,49 +24659,49 @@
       <c r="W18" s="158"/>
       <c r="X18" s="158"/>
     </row>
-    <row r="19" spans="3:30">
+    <row r="19" spans="3:39">
       <c r="T19" s="158"/>
       <c r="U19" s="158"/>
       <c r="V19" s="158"/>
       <c r="W19" s="158"/>
       <c r="X19" s="158"/>
     </row>
-    <row r="20" spans="3:30">
+    <row r="20" spans="3:39">
       <c r="T20" s="158"/>
       <c r="U20" s="158"/>
       <c r="V20" s="158"/>
       <c r="W20" s="158"/>
       <c r="X20" s="158"/>
     </row>
-    <row r="21" spans="3:30">
+    <row r="21" spans="3:39">
       <c r="T21" s="158"/>
       <c r="U21" s="158"/>
       <c r="V21" s="158"/>
       <c r="W21" s="158"/>
       <c r="X21" s="158"/>
     </row>
-    <row r="22" spans="3:30">
+    <row r="22" spans="3:39">
       <c r="T22" s="158"/>
       <c r="U22" s="158"/>
       <c r="V22" s="158"/>
       <c r="W22" s="158"/>
       <c r="X22" s="158"/>
     </row>
-    <row r="23" spans="3:30">
+    <row r="23" spans="3:39">
       <c r="T23" s="158"/>
       <c r="U23" s="158"/>
       <c r="V23" s="158"/>
       <c r="W23" s="158"/>
       <c r="X23" s="158"/>
     </row>
-    <row r="24" spans="3:30">
+    <row r="24" spans="3:39">
       <c r="T24" s="158"/>
       <c r="U24" s="158"/>
       <c r="V24" s="158"/>
       <c r="W24" s="158"/>
       <c r="X24" s="158"/>
     </row>
-    <row r="25" spans="3:30">
+    <row r="25" spans="3:39">
       <c r="D25" t="s">
         <v>286</v>
       </c>
@@ -24526,7 +24711,7 @@
       <c r="W25" s="158"/>
       <c r="X25" s="158"/>
     </row>
-    <row r="26" spans="3:30">
+    <row r="26" spans="3:39">
       <c r="E26" t="s">
         <v>287</v>
       </c>
@@ -24536,7 +24721,7 @@
       <c r="W26" s="158"/>
       <c r="X26" s="158"/>
     </row>
-    <row r="27" spans="3:30">
+    <row r="27" spans="3:39">
       <c r="D27" s="1" t="s">
         <v>284</v>
       </c>
@@ -24549,7 +24734,7 @@
       <c r="W27" s="158"/>
       <c r="X27" s="158"/>
     </row>
-    <row r="28" spans="3:30">
+    <row r="28" spans="3:39">
       <c r="D28" s="1"/>
       <c r="G28" s="36" t="s">
         <v>382</v>
@@ -24560,7 +24745,7 @@
       <c r="W28" s="158"/>
       <c r="X28" s="158"/>
     </row>
-    <row r="29" spans="3:30" ht="25.9" customHeight="1">
+    <row r="29" spans="3:39" ht="25.9" customHeight="1">
       <c r="D29" t="s">
         <v>283</v>
       </c>
@@ -24569,8 +24754,14 @@
       <c r="V29" s="158"/>
       <c r="W29" s="158"/>
       <c r="X29" s="158"/>
-    </row>
-    <row r="30" spans="3:30">
+      <c r="AI29" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="30" spans="3:39">
       <c r="E30" t="s">
         <v>282</v>
       </c>
@@ -24582,15 +24773,21 @@
       <c r="V30" s="28"/>
       <c r="W30" s="28"/>
       <c r="X30" s="28"/>
-    </row>
-    <row r="31" spans="3:30">
+      <c r="AM30" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="31" spans="3:39">
       <c r="T31" s="28"/>
       <c r="U31" s="28"/>
       <c r="V31" s="28"/>
       <c r="W31" s="28"/>
       <c r="X31" s="28"/>
-    </row>
-    <row r="32" spans="3:30">
+      <c r="AI31" s="29" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="32" spans="3:39">
       <c r="E32" t="s">
         <v>278</v>
       </c>
@@ -24610,8 +24807,11 @@
       <c r="AB32" s="158"/>
       <c r="AC32" s="158"/>
       <c r="AD32" s="158"/>
-    </row>
-    <row r="33" spans="4:38">
+      <c r="AI32" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="33" spans="4:39">
       <c r="D33" t="s">
         <v>290</v>
       </c>
@@ -24627,8 +24827,11 @@
       <c r="AA33" s="158"/>
       <c r="AB33" s="158"/>
       <c r="AC33" s="158"/>
-    </row>
-    <row r="34" spans="4:38">
+      <c r="AI33" s="29" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="34" spans="4:39">
       <c r="E34" t="s">
         <v>291</v>
       </c>
@@ -24644,8 +24847,11 @@
       <c r="AA34" s="158"/>
       <c r="AB34" s="158"/>
       <c r="AC34" s="158"/>
-    </row>
-    <row r="35" spans="4:38">
+      <c r="AI34" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="35" spans="4:39">
       <c r="D35" t="s">
         <v>281</v>
       </c>
@@ -24657,8 +24863,11 @@
       <c r="V35" s="28"/>
       <c r="W35" s="28"/>
       <c r="X35" s="28"/>
-    </row>
-    <row r="36" spans="4:38">
+      <c r="AI35" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="36" spans="4:39">
       <c r="H36" t="s">
         <v>385</v>
       </c>
@@ -24670,17 +24879,36 @@
       <c r="V36" s="28"/>
       <c r="W36" s="28"/>
       <c r="X36" s="28"/>
-    </row>
-    <row r="37" spans="4:38">
+      <c r="AI36" s="29" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="37" spans="4:39">
       <c r="T37" s="28"/>
       <c r="U37" s="110" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
       <c r="V37" s="28"/>
       <c r="W37" s="28"/>
       <c r="X37" s="28"/>
-    </row>
-    <row r="40" spans="4:38">
+      <c r="Y37" s="66" t="s">
+        <v>1397</v>
+      </c>
+      <c r="AI37" s="167" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="38" spans="4:39">
+      <c r="AI38" s="29" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="39" spans="4:39">
+      <c r="AI39" s="168" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="40" spans="4:39">
       <c r="R40" t="s">
         <v>317</v>
       </c>
@@ -24689,147 +24917,131 @@
       <c r="V40" s="28"/>
       <c r="W40" s="28"/>
       <c r="X40" s="28"/>
-      <c r="AL40" s="50" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="41" spans="4:38">
+      <c r="AH40" s="50" t="s">
+        <v>1396</v>
+      </c>
+      <c r="AM40" s="50"/>
+    </row>
+    <row r="41" spans="4:39">
       <c r="D41" t="s">
         <v>285</v>
       </c>
-      <c r="S41" t="s">
-        <v>542</v>
-      </c>
-      <c r="AL41" s="50" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="42" spans="4:38">
+      <c r="R41" t="s">
+        <v>318</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>1398</v>
+      </c>
+      <c r="AM41" s="50"/>
+    </row>
+    <row r="42" spans="4:39">
       <c r="D42" t="s">
         <v>288</v>
       </c>
       <c r="R42" t="s">
-        <v>318</v>
-      </c>
-      <c r="AL42" s="50" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="43" spans="4:38">
+        <v>1390</v>
+      </c>
+      <c r="T42" t="s">
+        <v>1391</v>
+      </c>
+      <c r="AI42" s="29" t="s">
+        <v>1406</v>
+      </c>
+      <c r="AM42" s="50"/>
+    </row>
+    <row r="43" spans="4:39">
       <c r="E43" t="s">
         <v>289</v>
       </c>
-      <c r="AL43" s="50" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="44" spans="4:38">
+      <c r="R43" t="s">
+        <v>1392</v>
+      </c>
+      <c r="T43" t="s">
+        <v>1393</v>
+      </c>
+      <c r="AI43" s="168" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="44" spans="4:39">
       <c r="D44" t="s">
         <v>280</v>
       </c>
       <c r="R44" t="s">
+        <v>1394</v>
+      </c>
+      <c r="T44" t="s">
+        <v>1395</v>
+      </c>
+      <c r="AI44" s="168" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="47" spans="4:39">
+      <c r="R47" t="s">
         <v>319</v>
       </c>
-      <c r="X44" t="s">
+    </row>
+    <row r="48" spans="4:39">
+      <c r="R48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="49" spans="4:25">
+      <c r="R49" t="s">
+        <v>321</v>
+      </c>
+      <c r="X49" t="s">
         <v>327</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Y49" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="45" spans="4:38">
-      <c r="R45" t="s">
-        <v>320</v>
-      </c>
-      <c r="X45" t="s">
+    <row r="50" spans="4:25">
+      <c r="R50" t="s">
+        <v>322</v>
+      </c>
+      <c r="X50" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="46" spans="4:38">
-      <c r="R46" t="s">
-        <v>321</v>
-      </c>
-      <c r="X46" t="s">
+    <row r="51" spans="4:25">
+      <c r="R51" t="s">
+        <v>323</v>
+      </c>
+      <c r="X51" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="47" spans="4:38">
-      <c r="R47" t="s">
-        <v>322</v>
-      </c>
-      <c r="X47" t="s">
+    <row r="52" spans="4:25">
+      <c r="R52" t="s">
+        <v>324</v>
+      </c>
+      <c r="X52" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="48" spans="4:38">
-      <c r="R48" t="s">
-        <v>323</v>
-      </c>
-      <c r="X48" t="s">
-        <v>331</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="49" spans="4:31">
-      <c r="R49" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="50" spans="4:31">
-      <c r="AD50" s="29" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="51" spans="4:31">
-      <c r="AD51" t="s">
-        <v>1022</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="52" spans="4:31">
-      <c r="AD52" s="29" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="53" spans="4:31">
+    <row r="53" spans="4:25">
       <c r="R53" t="s">
         <v>285</v>
       </c>
-      <c r="AD53" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="54" spans="4:31">
+      <c r="X53" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="54" spans="4:25">
       <c r="R54" t="s">
         <v>325</v>
       </c>
-      <c r="AD54" s="29" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="55" spans="4:31">
+    </row>
+    <row r="55" spans="4:25">
       <c r="S55" t="s">
         <v>326</v>
       </c>
-      <c r="AD55" s="19" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="56" spans="4:31">
-      <c r="AD56" s="29" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="57" spans="4:31" ht="17.25" thickBot="1">
-      <c r="AD57" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="58" spans="4:31" s="47" customFormat="1">
+    </row>
+    <row r="57" spans="4:25" ht="17.25" thickBot="1"/>
+    <row r="58" spans="4:25" s="47" customFormat="1">
       <c r="D58" s="45"/>
       <c r="E58" s="46"/>
       <c r="F58" s="46"/>
@@ -24839,7 +25051,7 @@
       <c r="J58" s="45"/>
       <c r="Q58" s="49"/>
     </row>
-    <row r="64" spans="4:31">
+    <row r="64" spans="4:25">
       <c r="K64" t="s">
         <v>412</v>
       </c>
@@ -24895,7 +25107,7 @@
         <v>6</v>
       </c>
       <c r="E75" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="77" spans="4:7">
@@ -24937,7 +25149,7 @@
         <v>365</v>
       </c>
       <c r="R82" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
     </row>
     <row r="83" spans="4:18">
@@ -25319,14 +25531,14 @@
     </row>
     <row r="4" spans="2:14">
       <c r="C4" s="27" t="s">
-        <v>1372</v>
+        <v>1363</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
       <c r="M4" s="125" t="s">
-        <v>1374</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="16.5">
@@ -25345,7 +25557,7 @@
       <c r="J5" s="40"/>
       <c r="K5" s="40"/>
       <c r="M5" s="124" t="s">
-        <v>1373</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="6" spans="2:14">
@@ -25444,7 +25656,7 @@
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1">
       <c r="B16" s="160" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C16" s="160"/>
       <c r="D16" s="160"/>
@@ -25453,7 +25665,7 @@
       <c r="G16" s="160"/>
       <c r="H16" s="160"/>
       <c r="I16" s="163" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="J16" s="163"/>
       <c r="K16" s="163"/>
@@ -25463,7 +25675,7 @@
     </row>
     <row r="17" spans="2:14" ht="15" customHeight="1">
       <c r="B17" s="160" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="C17" s="160"/>
       <c r="D17" s="160"/>
@@ -25472,7 +25684,7 @@
       <c r="G17" s="160"/>
       <c r="H17" s="160"/>
       <c r="I17" s="161" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="J17" s="161"/>
       <c r="K17" s="161"/>
@@ -25482,7 +25694,7 @@
     </row>
     <row r="18" spans="2:14" ht="15" customHeight="1">
       <c r="B18" s="160" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C18" s="160"/>
       <c r="D18" s="160"/>
@@ -25491,7 +25703,7 @@
       <c r="G18" s="160"/>
       <c r="H18" s="160"/>
       <c r="I18" s="161" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J18" s="161"/>
       <c r="K18" s="161"/>
@@ -25501,7 +25713,7 @@
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1">
       <c r="B19" s="160" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="C19" s="160"/>
       <c r="D19" s="160"/>
@@ -25510,7 +25722,7 @@
       <c r="G19" s="160"/>
       <c r="H19" s="160"/>
       <c r="I19" s="161" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="J19" s="161"/>
       <c r="K19" s="161"/>
@@ -25520,7 +25732,7 @@
     </row>
     <row r="20" spans="2:14" ht="15" customHeight="1">
       <c r="B20" s="160" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="C20" s="160"/>
       <c r="D20" s="160"/>
@@ -25529,7 +25741,7 @@
       <c r="G20" s="160"/>
       <c r="H20" s="160"/>
       <c r="I20" s="161" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
       <c r="J20" s="161"/>
       <c r="K20" s="161"/>
@@ -25539,7 +25751,7 @@
     </row>
     <row r="21" spans="2:14" ht="15" customHeight="1">
       <c r="B21" s="160" t="s">
-        <v>1384</v>
+        <v>1375</v>
       </c>
       <c r="C21" s="160"/>
       <c r="D21" s="160"/>
@@ -25548,7 +25760,7 @@
       <c r="G21" s="160"/>
       <c r="H21" s="160"/>
       <c r="I21" s="161" t="s">
-        <v>1385</v>
+        <v>1376</v>
       </c>
       <c r="J21" s="161"/>
       <c r="K21" s="161"/>
@@ -25558,7 +25770,7 @@
     </row>
     <row r="22" spans="2:14" ht="15" customHeight="1">
       <c r="B22" s="160" t="s">
-        <v>1386</v>
+        <v>1377</v>
       </c>
       <c r="C22" s="160"/>
       <c r="D22" s="160"/>
@@ -25567,7 +25779,7 @@
       <c r="G22" s="160"/>
       <c r="H22" s="160"/>
       <c r="I22" s="161" t="s">
-        <v>1387</v>
+        <v>1378</v>
       </c>
       <c r="J22" s="161"/>
       <c r="K22" s="161"/>
@@ -25721,71 +25933,71 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="C3" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="C6" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="C7" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="C8" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="D8" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="D9" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="E10" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="D11" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="C12" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="16" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="17" spans="2:31">
       <c r="B17" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="C17" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -25948,7 +26160,7 @@
     </row>
     <row r="22" spans="2:31">
       <c r="D22" s="58" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -25973,10 +26185,10 @@
     </row>
     <row r="23" spans="2:31">
       <c r="B23" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="C23" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -26023,7 +26235,7 @@
     </row>
     <row r="25" spans="2:31">
       <c r="B25" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="L25" s="17" t="s">
         <v>485</v>
@@ -26050,7 +26262,7 @@
     </row>
     <row r="26" spans="2:31">
       <c r="C26" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="L26" s="17" t="s">
         <v>483</v>
@@ -26145,10 +26357,10 @@
     </row>
     <row r="30" spans="2:31">
       <c r="B30" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D30" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -26175,119 +26387,119 @@
     </row>
     <row r="31" spans="2:31">
       <c r="C31" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
     </row>
     <row r="32" spans="2:31">
       <c r="C32" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="C35" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="C36" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="C37" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="C38" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="C39" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="C40" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C42" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="D44" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="52" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="114" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="114" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="114" t="s">
-        <v>1294</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="114" t="s">
-        <v>1295</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
-        <v>1259</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="64" spans="2:3">
@@ -26295,7 +26507,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="65" spans="2:5">
@@ -26303,7 +26515,7 @@
         <v>2</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="66" spans="2:5">
@@ -26328,56 +26540,56 @@
     </row>
     <row r="77" spans="2:5">
       <c r="C77" s="30" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="79" spans="2:5">
       <c r="C79" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="17.25">
       <c r="D80" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="E80" s="53" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="81" spans="2:5">
       <c r="D81" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="E81" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="82" spans="2:5">
       <c r="E82" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="83" spans="2:5">
       <c r="E83" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="84" spans="2:5" ht="17.25">
       <c r="D84" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="E84" s="74" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="86" spans="2:5">
       <c r="B86" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
     </row>
     <row r="87" spans="2:5">
       <c r="C87" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
   </sheetData>

--- a/xml/studyFile.xlsx
+++ b/xml/studyFile.xlsx
@@ -32,7 +32,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">前端!$A$1:$AH$60</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -7393,10 +7392,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Servlety→SpringMVC。SpringMVC的核心组件DispatcherServlet其实本质就是一个Servlet,在原来HttpServlet的基础上，又封装了一条逻辑。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Servlet没有main方法，所有行为由Container控制。Container就是一个java程序。</t>
   </si>
   <si>
@@ -7493,6 +7488,10 @@
       </rPr>
       <t>得到servlet配置对象，读取web.xml的&lt;init-param&gt;标签中配置一些变量值</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Servlety→SpringMVC SpringMVC的核心组件DispatcherServlet其实本质就是一个Servlet,在原来HttpServlet的基础上，又封装了一条逻辑。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -8512,6 +8511,10 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8572,15 +8575,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8593,8 +8587,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8602,10 +8602,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8614,19 +8623,9 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8670,74 +8669,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -18199,7 +18130,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="373545"/>
@@ -18958,12 +18889,12 @@
       <c r="D90" t="s">
         <v>827</v>
       </c>
-      <c r="Q90" s="130" t="s">
+      <c r="Q90" s="132" t="s">
         <v>718</v>
       </c>
-      <c r="R90" s="130"/>
-      <c r="S90" s="130"/>
-      <c r="T90" s="130"/>
+      <c r="R90" s="132"/>
+      <c r="S90" s="132"/>
+      <c r="T90" s="132"/>
     </row>
     <row r="91" spans="1:20">
       <c r="A91" s="79" t="s">
@@ -19758,11 +19689,11 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="168" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="166"/>
-      <c r="C14" s="166"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="168"/>
       <c r="H14" s="6" t="s">
         <v>17</v>
       </c>
@@ -20131,17 +20062,17 @@
       </c>
     </row>
     <row r="62" spans="6:10">
-      <c r="F62" s="166" t="s">
+      <c r="F62" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="G62" s="166"/>
+      <c r="G62" s="168"/>
       <c r="H62" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="63" spans="6:10">
-      <c r="F63" s="166"/>
-      <c r="G63" s="166"/>
+      <c r="F63" s="168"/>
+      <c r="G63" s="168"/>
       <c r="H63" s="6" t="s">
         <v>42</v>
       </c>
@@ -20743,10 +20674,10 @@
       <c r="A27" t="s">
         <v>509</v>
       </c>
-      <c r="B27" s="131" t="s">
+      <c r="B27" s="133" t="s">
         <v>859</v>
       </c>
-      <c r="C27" s="131"/>
+      <c r="C27" s="133"/>
       <c r="E27" s="68" t="s">
         <v>708</v>
       </c>
@@ -20828,13 +20759,13 @@
       <c r="I33" s="69"/>
       <c r="J33" s="69"/>
       <c r="K33" s="111"/>
-      <c r="L33" s="138" t="s">
+      <c r="L33" s="140" t="s">
         <v>1267</v>
       </c>
-      <c r="M33" s="138"/>
-      <c r="N33" s="138"/>
-      <c r="O33" s="138"/>
-      <c r="P33" s="138"/>
+      <c r="M33" s="140"/>
+      <c r="N33" s="140"/>
+      <c r="O33" s="140"/>
+      <c r="P33" s="140"/>
       <c r="Q33" s="80" t="s">
         <v>1265</v>
       </c>
@@ -20845,19 +20776,19 @@
       <c r="A34" t="s">
         <v>989</v>
       </c>
-      <c r="H34" s="136" t="s">
+      <c r="H34" s="138" t="s">
         <v>1259</v>
       </c>
-      <c r="I34" s="137"/>
-      <c r="J34" s="137"/>
-      <c r="K34" s="137"/>
-      <c r="L34" s="138" t="s">
+      <c r="I34" s="139"/>
+      <c r="J34" s="139"/>
+      <c r="K34" s="139"/>
+      <c r="L34" s="140" t="s">
         <v>1268</v>
       </c>
-      <c r="M34" s="138"/>
-      <c r="N34" s="138"/>
-      <c r="O34" s="138"/>
-      <c r="P34" s="138"/>
+      <c r="M34" s="140"/>
+      <c r="N34" s="140"/>
+      <c r="O34" s="140"/>
+      <c r="P34" s="140"/>
       <c r="Q34" s="80" t="s">
         <v>1269</v>
       </c>
@@ -20865,19 +20796,19 @@
       <c r="S34" s="80"/>
     </row>
     <row r="35" spans="1:19">
-      <c r="H35" s="136" t="s">
+      <c r="H35" s="138" t="s">
         <v>1258</v>
       </c>
-      <c r="I35" s="137"/>
-      <c r="J35" s="137"/>
-      <c r="K35" s="137"/>
-      <c r="L35" s="132" t="s">
+      <c r="I35" s="139"/>
+      <c r="J35" s="139"/>
+      <c r="K35" s="139"/>
+      <c r="L35" s="134" t="s">
         <v>1261</v>
       </c>
-      <c r="M35" s="133"/>
-      <c r="N35" s="133"/>
-      <c r="O35" s="133"/>
-      <c r="P35" s="134"/>
+      <c r="M35" s="135"/>
+      <c r="N35" s="135"/>
+      <c r="O35" s="135"/>
+      <c r="P35" s="136"/>
       <c r="Q35" s="112"/>
       <c r="R35" s="112"/>
       <c r="S35" s="112"/>
@@ -20924,16 +20855,16 @@
       <c r="G40" s="69" t="s">
         <v>1035</v>
       </c>
-      <c r="H40" s="132" t="s">
+      <c r="H40" s="134" t="s">
         <v>1070</v>
       </c>
-      <c r="I40" s="133"/>
-      <c r="J40" s="133"/>
-      <c r="K40" s="133"/>
-      <c r="L40" s="133"/>
-      <c r="M40" s="133"/>
-      <c r="N40" s="133"/>
-      <c r="O40" s="134"/>
+      <c r="I40" s="135"/>
+      <c r="J40" s="135"/>
+      <c r="K40" s="135"/>
+      <c r="L40" s="135"/>
+      <c r="M40" s="135"/>
+      <c r="N40" s="135"/>
+      <c r="O40" s="136"/>
       <c r="P40" s="69" t="s">
         <v>1036</v>
       </c>
@@ -21670,63 +21601,63 @@
       <c r="A195" t="s">
         <v>1219</v>
       </c>
-      <c r="J195" s="135" t="s">
+      <c r="J195" s="137" t="s">
         <v>510</v>
       </c>
-      <c r="K195" s="135"/>
-      <c r="L195" s="135"/>
+      <c r="K195" s="137"/>
+      <c r="L195" s="137"/>
     </row>
     <row r="196" spans="1:12">
-      <c r="J196" s="135"/>
-      <c r="K196" s="135"/>
-      <c r="L196" s="135"/>
+      <c r="J196" s="137"/>
+      <c r="K196" s="137"/>
+      <c r="L196" s="137"/>
     </row>
     <row r="197" spans="1:12">
       <c r="A197" t="s">
         <v>1220</v>
       </c>
-      <c r="J197" s="135"/>
-      <c r="K197" s="135"/>
-      <c r="L197" s="135"/>
+      <c r="J197" s="137"/>
+      <c r="K197" s="137"/>
+      <c r="L197" s="137"/>
     </row>
     <row r="198" spans="1:12">
       <c r="A198" t="s">
         <v>1221</v>
       </c>
-      <c r="J198" s="135"/>
-      <c r="K198" s="135"/>
-      <c r="L198" s="135"/>
+      <c r="J198" s="137"/>
+      <c r="K198" s="137"/>
+      <c r="L198" s="137"/>
     </row>
     <row r="199" spans="1:12">
       <c r="A199" t="s">
         <v>1222</v>
       </c>
-      <c r="J199" s="135"/>
-      <c r="K199" s="135"/>
-      <c r="L199" s="135"/>
+      <c r="J199" s="137"/>
+      <c r="K199" s="137"/>
+      <c r="L199" s="137"/>
     </row>
     <row r="200" spans="1:12">
       <c r="B200" t="s">
         <v>1223</v>
       </c>
-      <c r="J200" s="135"/>
-      <c r="K200" s="135"/>
-      <c r="L200" s="135"/>
+      <c r="J200" s="137"/>
+      <c r="K200" s="137"/>
+      <c r="L200" s="137"/>
     </row>
     <row r="201" spans="1:12">
-      <c r="J201" s="135"/>
-      <c r="K201" s="135"/>
-      <c r="L201" s="135"/>
+      <c r="J201" s="137"/>
+      <c r="K201" s="137"/>
+      <c r="L201" s="137"/>
     </row>
     <row r="202" spans="1:12">
-      <c r="J202" s="135"/>
-      <c r="K202" s="135"/>
-      <c r="L202" s="135"/>
+      <c r="J202" s="137"/>
+      <c r="K202" s="137"/>
+      <c r="L202" s="137"/>
     </row>
     <row r="203" spans="1:12">
-      <c r="J203" s="135"/>
-      <c r="K203" s="135"/>
-      <c r="L203" s="135"/>
+      <c r="J203" s="137"/>
+      <c r="K203" s="137"/>
+      <c r="L203" s="137"/>
     </row>
     <row r="205" spans="1:12">
       <c r="A205" t="s">
@@ -22867,12 +22798,12 @@
       <c r="Y82" s="81"/>
     </row>
     <row r="83" spans="4:25">
-      <c r="D83" s="139" t="s">
+      <c r="D83" s="141" t="s">
         <v>570</v>
       </c>
-      <c r="E83" s="139"/>
-      <c r="F83" s="139"/>
-      <c r="G83" s="139"/>
+      <c r="E83" s="141"/>
+      <c r="F83" s="141"/>
+      <c r="G83" s="141"/>
       <c r="R83" s="104" t="s">
         <v>1049</v>
       </c>
@@ -22885,10 +22816,10 @@
       <c r="Y83" s="81"/>
     </row>
     <row r="84" spans="4:25">
-      <c r="D84" s="139"/>
-      <c r="E84" s="139"/>
-      <c r="F84" s="139"/>
-      <c r="G84" s="139"/>
+      <c r="D84" s="141"/>
+      <c r="E84" s="141"/>
+      <c r="F84" s="141"/>
+      <c r="G84" s="141"/>
       <c r="R84" s="82" t="s">
         <v>1046</v>
       </c>
@@ -22901,22 +22832,22 @@
       <c r="Y84" s="84"/>
     </row>
     <row r="85" spans="4:25">
-      <c r="D85" s="139"/>
-      <c r="E85" s="139"/>
-      <c r="F85" s="139"/>
-      <c r="G85" s="139"/>
+      <c r="D85" s="141"/>
+      <c r="E85" s="141"/>
+      <c r="F85" s="141"/>
+      <c r="G85" s="141"/>
     </row>
     <row r="86" spans="4:25">
-      <c r="D86" s="139"/>
-      <c r="E86" s="139"/>
-      <c r="F86" s="139"/>
-      <c r="G86" s="139"/>
+      <c r="D86" s="141"/>
+      <c r="E86" s="141"/>
+      <c r="F86" s="141"/>
+      <c r="G86" s="141"/>
     </row>
     <row r="87" spans="4:25">
-      <c r="D87" s="139"/>
-      <c r="E87" s="139"/>
-      <c r="F87" s="139"/>
-      <c r="G87" s="139"/>
+      <c r="D87" s="141"/>
+      <c r="E87" s="141"/>
+      <c r="F87" s="141"/>
+      <c r="G87" s="141"/>
     </row>
     <row r="88" spans="4:25">
       <c r="D88" t="s">
@@ -22927,30 +22858,30 @@
       </c>
     </row>
     <row r="89" spans="4:25">
-      <c r="D89" s="146" t="s">
+      <c r="D89" s="148" t="s">
         <v>1359</v>
       </c>
-      <c r="E89" s="147"/>
-      <c r="F89" s="147"/>
-      <c r="G89" s="147"/>
-      <c r="H89" s="147"/>
-      <c r="I89" s="147"/>
-      <c r="J89" s="147"/>
-      <c r="K89" s="147"/>
-      <c r="L89" s="148"/>
+      <c r="E89" s="149"/>
+      <c r="F89" s="149"/>
+      <c r="G89" s="149"/>
+      <c r="H89" s="149"/>
+      <c r="I89" s="149"/>
+      <c r="J89" s="149"/>
+      <c r="K89" s="149"/>
+      <c r="L89" s="150"/>
     </row>
     <row r="90" spans="4:25" ht="54" customHeight="1">
-      <c r="D90" s="149" t="s">
+      <c r="D90" s="151" t="s">
         <v>1361</v>
       </c>
-      <c r="E90" s="149"/>
-      <c r="F90" s="149"/>
-      <c r="G90" s="149"/>
-      <c r="H90" s="149"/>
-      <c r="I90" s="149"/>
-      <c r="J90" s="149"/>
-      <c r="K90" s="149"/>
-      <c r="L90" s="149"/>
+      <c r="E90" s="151"/>
+      <c r="F90" s="151"/>
+      <c r="G90" s="151"/>
+      <c r="H90" s="151"/>
+      <c r="I90" s="151"/>
+      <c r="J90" s="151"/>
+      <c r="K90" s="151"/>
+      <c r="L90" s="151"/>
     </row>
     <row r="91" spans="4:25">
       <c r="E91" s="122"/>
@@ -23055,30 +22986,30 @@
       <c r="F110" t="s">
         <v>701</v>
       </c>
-      <c r="L110" s="140" t="s">
+      <c r="L110" s="142" t="s">
         <v>617</v>
       </c>
-      <c r="M110" s="141"/>
-      <c r="N110" s="141"/>
-      <c r="O110" s="141"/>
-      <c r="P110" s="141"/>
-      <c r="Q110" s="141"/>
-      <c r="R110" s="141"/>
-      <c r="S110" s="142"/>
+      <c r="M110" s="143"/>
+      <c r="N110" s="143"/>
+      <c r="O110" s="143"/>
+      <c r="P110" s="143"/>
+      <c r="Q110" s="143"/>
+      <c r="R110" s="143"/>
+      <c r="S110" s="144"/>
     </row>
     <row r="111" spans="3:19" ht="30.75">
       <c r="C111" ph="1"/>
       <c r="G111" s="55" t="s">
         <v>643</v>
       </c>
-      <c r="L111" s="143"/>
-      <c r="M111" s="144"/>
-      <c r="N111" s="144"/>
-      <c r="O111" s="144"/>
-      <c r="P111" s="144"/>
-      <c r="Q111" s="144"/>
-      <c r="R111" s="144"/>
-      <c r="S111" s="145"/>
+      <c r="L111" s="145"/>
+      <c r="M111" s="146"/>
+      <c r="N111" s="146"/>
+      <c r="O111" s="146"/>
+      <c r="P111" s="146"/>
+      <c r="Q111" s="146"/>
+      <c r="R111" s="146"/>
+      <c r="S111" s="147"/>
     </row>
     <row r="112" spans="3:19">
       <c r="E112" t="s">
@@ -23447,10 +23378,10 @@
       <c r="I16" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="M16" s="153" t="s">
+      <c r="M16" s="152" t="s">
         <v>263</v>
       </c>
-      <c r="N16" s="154"/>
+      <c r="N16" s="153"/>
       <c r="O16" s="39" t="s">
         <v>260</v>
       </c>
@@ -23468,7 +23399,7 @@
       <c r="B17" s="58" t="s">
         <v>1280</v>
       </c>
-      <c r="M17" s="152" t="s">
+      <c r="M17" s="156" t="s">
         <v>1090</v>
       </c>
       <c r="N17" s="12" t="s">
@@ -23483,13 +23414,13 @@
       <c r="Q17" s="41" t="s">
         <v>923</v>
       </c>
-      <c r="S17" s="150" t="s">
+      <c r="S17" s="157" t="s">
         <v>739</v>
       </c>
-      <c r="T17" s="151"/>
-      <c r="U17" s="151"/>
-      <c r="V17" s="151"/>
-      <c r="W17" s="151"/>
+      <c r="T17" s="158"/>
+      <c r="U17" s="158"/>
+      <c r="V17" s="158"/>
+      <c r="W17" s="158"/>
     </row>
     <row r="18" spans="2:26">
       <c r="B18" s="58" t="s">
@@ -23504,7 +23435,7 @@
       <c r="I18" s="12">
         <v>1</v>
       </c>
-      <c r="M18" s="152"/>
+      <c r="M18" s="156"/>
       <c r="N18" s="12" t="s">
         <v>902</v>
       </c>
@@ -23517,11 +23448,11 @@
       <c r="Q18" s="14" t="s">
         <v>848</v>
       </c>
-      <c r="S18" s="150"/>
-      <c r="T18" s="151"/>
-      <c r="U18" s="151"/>
-      <c r="V18" s="151"/>
-      <c r="W18" s="151"/>
+      <c r="S18" s="157"/>
+      <c r="T18" s="158"/>
+      <c r="U18" s="158"/>
+      <c r="V18" s="158"/>
+      <c r="W18" s="158"/>
     </row>
     <row r="19" spans="2:26">
       <c r="B19" s="58" t="s">
@@ -23539,7 +23470,7 @@
       <c r="I19" s="57">
         <v>1</v>
       </c>
-      <c r="M19" s="152"/>
+      <c r="M19" s="156"/>
       <c r="N19" s="18" t="s">
         <v>1091</v>
       </c>
@@ -23552,11 +23483,11 @@
       <c r="Q19" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="S19" s="150"/>
-      <c r="T19" s="151"/>
-      <c r="U19" s="151"/>
-      <c r="V19" s="151"/>
-      <c r="W19" s="151"/>
+      <c r="S19" s="157"/>
+      <c r="T19" s="158"/>
+      <c r="U19" s="158"/>
+      <c r="V19" s="158"/>
+      <c r="W19" s="158"/>
     </row>
     <row r="20" spans="2:26">
       <c r="E20" s="12">
@@ -23575,7 +23506,7 @@
       <c r="Q20" s="14"/>
     </row>
     <row r="21" spans="2:26">
-      <c r="M21" s="152" t="s">
+      <c r="M21" s="156" t="s">
         <v>257</v>
       </c>
       <c r="N21" s="12" t="s">
@@ -23590,16 +23521,16 @@
       <c r="Q21" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="R21" s="150" t="s">
+      <c r="R21" s="157" t="s">
         <v>481</v>
       </c>
-      <c r="S21" s="151"/>
-      <c r="T21" s="151"/>
-      <c r="U21" s="151"/>
-      <c r="V21" s="151"/>
+      <c r="S21" s="158"/>
+      <c r="T21" s="158"/>
+      <c r="U21" s="158"/>
+      <c r="V21" s="158"/>
     </row>
     <row r="22" spans="2:26">
-      <c r="M22" s="152"/>
+      <c r="M22" s="156"/>
       <c r="N22" s="18" t="s">
         <v>447</v>
       </c>
@@ -23612,11 +23543,11 @@
       <c r="Q22" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="R22" s="150"/>
-      <c r="S22" s="151"/>
-      <c r="T22" s="151"/>
-      <c r="U22" s="151"/>
-      <c r="V22" s="151"/>
+      <c r="R22" s="157"/>
+      <c r="S22" s="158"/>
+      <c r="T22" s="158"/>
+      <c r="U22" s="158"/>
+      <c r="V22" s="158"/>
     </row>
     <row r="23" spans="2:26">
       <c r="H23" s="12" t="s">
@@ -23625,7 +23556,7 @@
       <c r="I23" s="12">
         <v>2</v>
       </c>
-      <c r="M23" s="152"/>
+      <c r="M23" s="156"/>
       <c r="N23" s="18" t="s">
         <v>259</v>
       </c>
@@ -23638,11 +23569,11 @@
       <c r="Q23" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="R23" s="150"/>
-      <c r="S23" s="151"/>
-      <c r="T23" s="151"/>
-      <c r="U23" s="151"/>
-      <c r="V23" s="151"/>
+      <c r="R23" s="157"/>
+      <c r="S23" s="158"/>
+      <c r="T23" s="158"/>
+      <c r="U23" s="158"/>
+      <c r="V23" s="158"/>
     </row>
     <row r="24" spans="2:26">
       <c r="H24" s="12" t="s">
@@ -23662,7 +23593,7 @@
       </c>
     </row>
     <row r="25" spans="2:26">
-      <c r="M25" s="152" t="s">
+      <c r="M25" s="156" t="s">
         <v>423</v>
       </c>
       <c r="N25" s="39" t="s">
@@ -23685,7 +23616,7 @@
       </c>
     </row>
     <row r="26" spans="2:26">
-      <c r="M26" s="152"/>
+      <c r="M26" s="156"/>
       <c r="N26" s="90" t="s">
         <v>995</v>
       </c>
@@ -23704,7 +23635,7 @@
       </c>
     </row>
     <row r="27" spans="2:26">
-      <c r="M27" s="152"/>
+      <c r="M27" s="156"/>
       <c r="N27" s="39" t="s">
         <v>424</v>
       </c>
@@ -23717,17 +23648,17 @@
       <c r="Q27" s="42" t="s">
         <v>428</v>
       </c>
-      <c r="R27" s="150" t="s">
+      <c r="R27" s="157" t="s">
         <v>1118</v>
       </c>
-      <c r="S27" s="151"/>
-      <c r="T27" s="151"/>
-      <c r="U27" s="151"/>
-      <c r="V27" s="151"/>
-      <c r="W27" s="151"/>
-      <c r="X27" s="151"/>
-      <c r="Y27" s="151"/>
-      <c r="Z27" s="151"/>
+      <c r="S27" s="158"/>
+      <c r="T27" s="158"/>
+      <c r="U27" s="158"/>
+      <c r="V27" s="158"/>
+      <c r="W27" s="158"/>
+      <c r="X27" s="158"/>
+      <c r="Y27" s="158"/>
+      <c r="Z27" s="158"/>
     </row>
     <row r="28" spans="2:26">
       <c r="G28" s="12" t="s">
@@ -23739,7 +23670,7 @@
       <c r="I28" s="12">
         <v>4</v>
       </c>
-      <c r="M28" s="152"/>
+      <c r="M28" s="156"/>
       <c r="N28" s="39" t="s">
         <v>425</v>
       </c>
@@ -23752,15 +23683,15 @@
       <c r="Q28" s="42" t="s">
         <v>428</v>
       </c>
-      <c r="R28" s="150"/>
-      <c r="S28" s="151"/>
-      <c r="T28" s="151"/>
-      <c r="U28" s="151"/>
-      <c r="V28" s="151"/>
-      <c r="W28" s="151"/>
-      <c r="X28" s="151"/>
-      <c r="Y28" s="151"/>
-      <c r="Z28" s="151"/>
+      <c r="R28" s="157"/>
+      <c r="S28" s="158"/>
+      <c r="T28" s="158"/>
+      <c r="U28" s="158"/>
+      <c r="V28" s="158"/>
+      <c r="W28" s="158"/>
+      <c r="X28" s="158"/>
+      <c r="Y28" s="158"/>
+      <c r="Z28" s="158"/>
     </row>
     <row r="29" spans="2:26">
       <c r="H29" s="1" t="s">
@@ -24127,18 +24058,18 @@
       <c r="D78" s="69" t="s">
         <v>459</v>
       </c>
-      <c r="E78" s="138" t="s">
+      <c r="E78" s="140" t="s">
         <v>978</v>
       </c>
-      <c r="F78" s="138"/>
+      <c r="F78" s="140"/>
       <c r="G78" s="57" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="79" spans="3:9">
       <c r="D79" s="57"/>
-      <c r="E79" s="153"/>
-      <c r="F79" s="154"/>
+      <c r="E79" s="152"/>
+      <c r="F79" s="153"/>
       <c r="G79" s="57"/>
     </row>
     <row r="80" spans="3:9">
@@ -24179,22 +24110,22 @@
       <c r="G83" s="57"/>
     </row>
     <row r="84" spans="3:7">
-      <c r="D84" s="155" t="s">
+      <c r="D84" s="154" t="s">
         <v>473</v>
       </c>
-      <c r="E84" s="139" t="s">
+      <c r="E84" s="141" t="s">
         <v>982</v>
       </c>
-      <c r="F84" s="139"/>
-      <c r="G84" s="155" t="s">
+      <c r="F84" s="141"/>
+      <c r="G84" s="154" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="85" spans="3:7">
-      <c r="D85" s="156"/>
-      <c r="E85" s="139"/>
-      <c r="F85" s="139"/>
-      <c r="G85" s="156"/>
+      <c r="D85" s="155"/>
+      <c r="E85" s="141"/>
+      <c r="F85" s="141"/>
+      <c r="G85" s="155"/>
     </row>
     <row r="86" spans="3:7">
       <c r="E86" s="36" t="s">
@@ -24458,6 +24389,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="R21:V23"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="R27:Z28"/>
+    <mergeCell ref="S17:W19"/>
     <mergeCell ref="E84:F85"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="D84:D85"/>
@@ -24465,11 +24401,6 @@
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="M25:M28"/>
     <mergeCell ref="E78:F78"/>
-    <mergeCell ref="R21:V23"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="R27:Z28"/>
-    <mergeCell ref="S17:W19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A24:XFD25 A21:Q23 A28:Q28 Q61:XFD63 A1:P4 A6:P6 B5:P5 AA27:XFD28 A48:B48 D48:XFD48 A7:G7 I7:P7 A79:B79 D79:E79 A80:XFD83 A86:XFD94 A84:E84 A85:C85 G84:XFD84 G79:XFD79 H85:XFD85 A53:B63 D53:XFD53 H101:K101 A95:D95 F95:XFD95 F101 A17:Q19 W23:XFD23 A20:V20 AB17:XFD22 S17:W19 A45:E45 A43:B43 D43 F43:XFD43 A44:C44 E44:XFD44 A46:C47 E46:XFD47 A70:C70 E70:XFD70 G45:XFD45 G96:XFD97 F98:XFD100 A64:XFD69 D63:G63 A49:XFD51 A52:H52 J52:XFD52 E54:G54 I54:XFD60 A16:XFD16 D15:G15 I15:XFD15 A29:XFD30 H110:O110 F102:XFD105 F109:O109 E111:O112 F113:O113 D116:O121 F115:O115 E114:O114 E99:E105 E108:O108 A126:XFD1062 A123:C125 P123:XFD125 D124:O125 A96:C121 P106:XFD121 A122:D122 D123:E123 F122:XFD122 G123:O123 M101:XFD101 A71:XFD71 A72:B72 D72:XFD72 A73:XFD78 A27:N27 P27:Q27 A26:M26 O26:XFD26 A33:XFD42 A8:P9 AK1:XFD14 A31:L32 P31:XFD32 D12:P14 A11 C11:P11 B10:P10">
@@ -24502,8 +24433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AM123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" defaultGridColor="0" topLeftCell="AG25" colorId="49" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="AJ53" sqref="AJ53"/>
+    <sheetView showGridLines="0" tabSelected="1" defaultGridColor="0" topLeftCell="R28" colorId="49" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="AC49" sqref="AC49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -24571,20 +24502,20 @@
       </c>
     </row>
     <row r="12" spans="3:35">
-      <c r="C12" s="159" t="s">
+      <c r="C12" s="160" t="s">
         <v>311</v>
       </c>
-      <c r="D12" s="159"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="159"/>
-      <c r="L12" s="159"/>
-      <c r="M12" s="159"/>
-      <c r="N12" s="159"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="160"/>
+      <c r="K12" s="160"/>
+      <c r="L12" s="160"/>
+      <c r="M12" s="160"/>
+      <c r="N12" s="160"/>
       <c r="T12" t="s">
         <v>294</v>
       </c>
@@ -24593,18 +24524,18 @@
       </c>
     </row>
     <row r="13" spans="3:35">
-      <c r="C13" s="159"/>
-      <c r="D13" s="159"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="159"/>
-      <c r="K13" s="159"/>
-      <c r="L13" s="159"/>
-      <c r="M13" s="159"/>
-      <c r="N13" s="159"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="160"/>
+      <c r="K13" s="160"/>
+      <c r="L13" s="160"/>
+      <c r="M13" s="160"/>
+      <c r="N13" s="160"/>
       <c r="T13" t="s">
         <v>295</v>
       </c>
@@ -24651,75 +24582,75 @@
       <c r="C18" t="s">
         <v>316</v>
       </c>
-      <c r="T18" s="158" t="s">
+      <c r="T18" s="159" t="s">
         <v>299</v>
       </c>
-      <c r="U18" s="158"/>
-      <c r="V18" s="158"/>
-      <c r="W18" s="158"/>
-      <c r="X18" s="158"/>
+      <c r="U18" s="159"/>
+      <c r="V18" s="159"/>
+      <c r="W18" s="159"/>
+      <c r="X18" s="159"/>
     </row>
     <row r="19" spans="3:39">
-      <c r="T19" s="158"/>
-      <c r="U19" s="158"/>
-      <c r="V19" s="158"/>
-      <c r="W19" s="158"/>
-      <c r="X19" s="158"/>
+      <c r="T19" s="159"/>
+      <c r="U19" s="159"/>
+      <c r="V19" s="159"/>
+      <c r="W19" s="159"/>
+      <c r="X19" s="159"/>
     </row>
     <row r="20" spans="3:39">
-      <c r="T20" s="158"/>
-      <c r="U20" s="158"/>
-      <c r="V20" s="158"/>
-      <c r="W20" s="158"/>
-      <c r="X20" s="158"/>
+      <c r="T20" s="159"/>
+      <c r="U20" s="159"/>
+      <c r="V20" s="159"/>
+      <c r="W20" s="159"/>
+      <c r="X20" s="159"/>
     </row>
     <row r="21" spans="3:39">
-      <c r="T21" s="158"/>
-      <c r="U21" s="158"/>
-      <c r="V21" s="158"/>
-      <c r="W21" s="158"/>
-      <c r="X21" s="158"/>
+      <c r="T21" s="159"/>
+      <c r="U21" s="159"/>
+      <c r="V21" s="159"/>
+      <c r="W21" s="159"/>
+      <c r="X21" s="159"/>
     </row>
     <row r="22" spans="3:39">
-      <c r="T22" s="158"/>
-      <c r="U22" s="158"/>
-      <c r="V22" s="158"/>
-      <c r="W22" s="158"/>
-      <c r="X22" s="158"/>
+      <c r="T22" s="159"/>
+      <c r="U22" s="159"/>
+      <c r="V22" s="159"/>
+      <c r="W22" s="159"/>
+      <c r="X22" s="159"/>
     </row>
     <row r="23" spans="3:39">
-      <c r="T23" s="158"/>
-      <c r="U23" s="158"/>
-      <c r="V23" s="158"/>
-      <c r="W23" s="158"/>
-      <c r="X23" s="158"/>
+      <c r="T23" s="159"/>
+      <c r="U23" s="159"/>
+      <c r="V23" s="159"/>
+      <c r="W23" s="159"/>
+      <c r="X23" s="159"/>
     </row>
     <row r="24" spans="3:39">
-      <c r="T24" s="158"/>
-      <c r="U24" s="158"/>
-      <c r="V24" s="158"/>
-      <c r="W24" s="158"/>
-      <c r="X24" s="158"/>
+      <c r="T24" s="159"/>
+      <c r="U24" s="159"/>
+      <c r="V24" s="159"/>
+      <c r="W24" s="159"/>
+      <c r="X24" s="159"/>
     </row>
     <row r="25" spans="3:39">
       <c r="D25" t="s">
         <v>286</v>
       </c>
-      <c r="T25" s="158"/>
-      <c r="U25" s="158"/>
-      <c r="V25" s="158"/>
-      <c r="W25" s="158"/>
-      <c r="X25" s="158"/>
+      <c r="T25" s="159"/>
+      <c r="U25" s="159"/>
+      <c r="V25" s="159"/>
+      <c r="W25" s="159"/>
+      <c r="X25" s="159"/>
     </row>
     <row r="26" spans="3:39">
       <c r="E26" t="s">
         <v>287</v>
       </c>
-      <c r="T26" s="158"/>
-      <c r="U26" s="158"/>
-      <c r="V26" s="158"/>
-      <c r="W26" s="158"/>
-      <c r="X26" s="158"/>
+      <c r="T26" s="159"/>
+      <c r="U26" s="159"/>
+      <c r="V26" s="159"/>
+      <c r="W26" s="159"/>
+      <c r="X26" s="159"/>
     </row>
     <row r="27" spans="3:39">
       <c r="D27" s="1" t="s">
@@ -24728,37 +24659,37 @@
       <c r="G27" s="36" t="s">
         <v>383</v>
       </c>
-      <c r="T27" s="158"/>
-      <c r="U27" s="158"/>
-      <c r="V27" s="158"/>
-      <c r="W27" s="158"/>
-      <c r="X27" s="158"/>
+      <c r="T27" s="159"/>
+      <c r="U27" s="159"/>
+      <c r="V27" s="159"/>
+      <c r="W27" s="159"/>
+      <c r="X27" s="159"/>
     </row>
     <row r="28" spans="3:39">
       <c r="D28" s="1"/>
       <c r="G28" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="T28" s="158"/>
-      <c r="U28" s="158"/>
-      <c r="V28" s="158"/>
-      <c r="W28" s="158"/>
-      <c r="X28" s="158"/>
+      <c r="T28" s="159"/>
+      <c r="U28" s="159"/>
+      <c r="V28" s="159"/>
+      <c r="W28" s="159"/>
+      <c r="X28" s="159"/>
     </row>
     <row r="29" spans="3:39" ht="25.9" customHeight="1">
       <c r="D29" t="s">
         <v>283</v>
       </c>
-      <c r="T29" s="158"/>
-      <c r="U29" s="158"/>
-      <c r="V29" s="158"/>
-      <c r="W29" s="158"/>
-      <c r="X29" s="158"/>
+      <c r="T29" s="159"/>
+      <c r="U29" s="159"/>
+      <c r="V29" s="159"/>
+      <c r="W29" s="159"/>
+      <c r="X29" s="159"/>
       <c r="AI29" t="s">
         <v>1015</v>
       </c>
       <c r="AM29" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="30" spans="3:39">
@@ -24774,7 +24705,7 @@
       <c r="W30" s="28"/>
       <c r="X30" s="28"/>
       <c r="AM30" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="31" spans="3:39">
@@ -24794,19 +24725,19 @@
       <c r="F32" t="s">
         <v>279</v>
       </c>
-      <c r="T32" s="158" t="s">
+      <c r="T32" s="159" t="s">
         <v>301</v>
       </c>
-      <c r="U32" s="158"/>
-      <c r="V32" s="158"/>
-      <c r="W32" s="158"/>
-      <c r="X32" s="158"/>
-      <c r="Y32" s="158"/>
-      <c r="Z32" s="158"/>
-      <c r="AA32" s="158"/>
-      <c r="AB32" s="158"/>
-      <c r="AC32" s="158"/>
-      <c r="AD32" s="158"/>
+      <c r="U32" s="159"/>
+      <c r="V32" s="159"/>
+      <c r="W32" s="159"/>
+      <c r="X32" s="159"/>
+      <c r="Y32" s="159"/>
+      <c r="Z32" s="159"/>
+      <c r="AA32" s="159"/>
+      <c r="AB32" s="159"/>
+      <c r="AC32" s="159"/>
+      <c r="AD32" s="159"/>
       <c r="AI32" t="s">
         <v>1016</v>
       </c>
@@ -24815,18 +24746,18 @@
       <c r="D33" t="s">
         <v>290</v>
       </c>
-      <c r="T33" s="158" t="s">
+      <c r="T33" s="159" t="s">
         <v>302</v>
       </c>
-      <c r="U33" s="158"/>
-      <c r="V33" s="158"/>
-      <c r="W33" s="158"/>
-      <c r="X33" s="158"/>
-      <c r="Y33" s="158"/>
-      <c r="Z33" s="158"/>
-      <c r="AA33" s="158"/>
-      <c r="AB33" s="158"/>
-      <c r="AC33" s="158"/>
+      <c r="U33" s="159"/>
+      <c r="V33" s="159"/>
+      <c r="W33" s="159"/>
+      <c r="X33" s="159"/>
+      <c r="Y33" s="159"/>
+      <c r="Z33" s="159"/>
+      <c r="AA33" s="159"/>
+      <c r="AB33" s="159"/>
+      <c r="AC33" s="159"/>
       <c r="AI33" s="29" t="s">
         <v>1012</v>
       </c>
@@ -24835,20 +24766,20 @@
       <c r="E34" t="s">
         <v>291</v>
       </c>
-      <c r="T34" s="158" t="s">
+      <c r="T34" s="159" t="s">
         <v>303</v>
       </c>
-      <c r="U34" s="158"/>
-      <c r="V34" s="158"/>
-      <c r="W34" s="158"/>
-      <c r="X34" s="158"/>
-      <c r="Y34" s="158"/>
-      <c r="Z34" s="158"/>
-      <c r="AA34" s="158"/>
-      <c r="AB34" s="158"/>
-      <c r="AC34" s="158"/>
+      <c r="U34" s="159"/>
+      <c r="V34" s="159"/>
+      <c r="W34" s="159"/>
+      <c r="X34" s="159"/>
+      <c r="Y34" s="159"/>
+      <c r="Z34" s="159"/>
+      <c r="AA34" s="159"/>
+      <c r="AB34" s="159"/>
+      <c r="AC34" s="159"/>
       <c r="AI34" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="35" spans="4:39">
@@ -24864,7 +24795,7 @@
       <c r="W35" s="28"/>
       <c r="X35" s="28"/>
       <c r="AI35" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="36" spans="4:39">
@@ -24892,10 +24823,10 @@
       <c r="W37" s="28"/>
       <c r="X37" s="28"/>
       <c r="Y37" s="66" t="s">
-        <v>1397</v>
-      </c>
-      <c r="AI37" s="167" t="s">
-        <v>1403</v>
+        <v>1407</v>
+      </c>
+      <c r="AI37" s="130" t="s">
+        <v>1402</v>
       </c>
     </row>
     <row r="38" spans="4:39">
@@ -24904,8 +24835,8 @@
       </c>
     </row>
     <row r="39" spans="4:39">
-      <c r="AI39" s="168" t="s">
-        <v>1404</v>
+      <c r="AI39" s="131" t="s">
+        <v>1403</v>
       </c>
     </row>
     <row r="40" spans="4:39">
@@ -24930,7 +24861,7 @@
         <v>318</v>
       </c>
       <c r="AH41" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="AM41" s="50"/>
     </row>
@@ -24945,7 +24876,7 @@
         <v>1391</v>
       </c>
       <c r="AI42" s="29" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="AM42" s="50"/>
     </row>
@@ -24959,8 +24890,8 @@
       <c r="T43" t="s">
         <v>1393</v>
       </c>
-      <c r="AI43" s="168" t="s">
-        <v>1407</v>
+      <c r="AI43" s="131" t="s">
+        <v>1406</v>
       </c>
     </row>
     <row r="44" spans="4:39">
@@ -24973,8 +24904,8 @@
       <c r="T44" t="s">
         <v>1395</v>
       </c>
-      <c r="AI44" s="168" t="s">
-        <v>1405</v>
+      <c r="AI44" s="131" t="s">
+        <v>1404</v>
       </c>
     </row>
     <row r="47" spans="4:39">
@@ -25412,19 +25343,19 @@
       <c r="A118" s="44" t="s">
         <v>541</v>
       </c>
-      <c r="B118" s="152" t="s">
+      <c r="B118" s="156" t="s">
         <v>528</v>
       </c>
-      <c r="C118" s="152"/>
-      <c r="D118" s="152"/>
-      <c r="E118" s="152"/>
+      <c r="C118" s="156"/>
+      <c r="D118" s="156"/>
+      <c r="E118" s="156"/>
       <c r="F118" s="44" t="s">
         <v>531</v>
       </c>
-      <c r="G118" s="153" t="s">
+      <c r="G118" s="152" t="s">
         <v>534</v>
       </c>
-      <c r="H118" s="154"/>
+      <c r="H118" s="153"/>
       <c r="I118" s="44" t="s">
         <v>537</v>
       </c>
@@ -25433,19 +25364,19 @@
       <c r="A119" s="44" t="s">
         <v>527</v>
       </c>
-      <c r="B119" s="153" t="s">
+      <c r="B119" s="152" t="s">
         <v>529</v>
       </c>
-      <c r="C119" s="157"/>
-      <c r="D119" s="157"/>
-      <c r="E119" s="154"/>
+      <c r="C119" s="161"/>
+      <c r="D119" s="161"/>
+      <c r="E119" s="153"/>
       <c r="F119" s="44" t="s">
         <v>532</v>
       </c>
-      <c r="G119" s="153" t="s">
+      <c r="G119" s="152" t="s">
         <v>535</v>
       </c>
-      <c r="H119" s="154"/>
+      <c r="H119" s="153"/>
       <c r="I119" s="44" t="s">
         <v>539</v>
       </c>
@@ -25454,19 +25385,19 @@
       <c r="A120" s="44" t="s">
         <v>526</v>
       </c>
-      <c r="B120" s="153" t="s">
+      <c r="B120" s="152" t="s">
         <v>530</v>
       </c>
-      <c r="C120" s="157"/>
-      <c r="D120" s="157"/>
-      <c r="E120" s="154"/>
+      <c r="C120" s="161"/>
+      <c r="D120" s="161"/>
+      <c r="E120" s="153"/>
       <c r="F120" s="44" t="s">
         <v>533</v>
       </c>
-      <c r="G120" s="146" t="s">
+      <c r="G120" s="148" t="s">
         <v>536</v>
       </c>
-      <c r="H120" s="148"/>
+      <c r="H120" s="150"/>
       <c r="I120" s="44" t="s">
         <v>538</v>
       </c>
@@ -25476,17 +25407,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="T18:X29"/>
-    <mergeCell ref="T32:AD32"/>
-    <mergeCell ref="T33:AC33"/>
-    <mergeCell ref="T34:AC34"/>
-    <mergeCell ref="C12:N13"/>
     <mergeCell ref="B118:E118"/>
     <mergeCell ref="B119:E119"/>
     <mergeCell ref="B120:E120"/>
     <mergeCell ref="G118:H118"/>
     <mergeCell ref="G119:H119"/>
     <mergeCell ref="G120:H120"/>
+    <mergeCell ref="T18:X29"/>
+    <mergeCell ref="T32:AD32"/>
+    <mergeCell ref="T33:AC33"/>
+    <mergeCell ref="T34:AC34"/>
+    <mergeCell ref="C12:N13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25588,297 +25519,315 @@
       <c r="F12" s="165"/>
       <c r="G12" s="165"/>
       <c r="H12" s="165"/>
-      <c r="I12" s="164" t="s">
+      <c r="I12" s="162" t="s">
         <v>275</v>
       </c>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
-      <c r="L12" s="164"/>
-      <c r="M12" s="164"/>
-      <c r="N12" s="164"/>
+      <c r="J12" s="162"/>
+      <c r="K12" s="162"/>
+      <c r="L12" s="162"/>
+      <c r="M12" s="162"/>
+      <c r="N12" s="162"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1">
-      <c r="B13" s="160" t="s">
+      <c r="B13" s="163" t="s">
         <v>273</v>
       </c>
-      <c r="C13" s="160"/>
-      <c r="D13" s="160"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="161" t="s">
+      <c r="C13" s="163"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="164" t="s">
         <v>276</v>
       </c>
-      <c r="J13" s="161"/>
-      <c r="K13" s="161"/>
-      <c r="L13" s="161"/>
-      <c r="M13" s="161"/>
-      <c r="N13" s="161"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="164"/>
+      <c r="L13" s="164"/>
+      <c r="M13" s="164"/>
+      <c r="N13" s="164"/>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1">
-      <c r="B14" s="160" t="s">
+      <c r="B14" s="163" t="s">
         <v>352</v>
       </c>
-      <c r="C14" s="160"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="161" t="s">
+      <c r="C14" s="163"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="164" t="s">
         <v>353</v>
       </c>
-      <c r="J14" s="161"/>
-      <c r="K14" s="161"/>
-      <c r="L14" s="161"/>
-      <c r="M14" s="161"/>
-      <c r="N14" s="161"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="164"/>
+      <c r="L14" s="164"/>
+      <c r="M14" s="164"/>
+      <c r="N14" s="164"/>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1">
-      <c r="B15" s="162" t="s">
+      <c r="B15" s="166" t="s">
         <v>397</v>
       </c>
-      <c r="C15" s="162"/>
-      <c r="D15" s="162"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="162"/>
-      <c r="H15" s="162"/>
-      <c r="I15" s="161" t="s">
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="164" t="s">
         <v>398</v>
       </c>
-      <c r="J15" s="161"/>
-      <c r="K15" s="161"/>
-      <c r="L15" s="161"/>
-      <c r="M15" s="161"/>
-      <c r="N15" s="161"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="164"/>
+      <c r="L15" s="164"/>
+      <c r="M15" s="164"/>
+      <c r="N15" s="164"/>
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1">
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="163" t="s">
         <v>542</v>
       </c>
-      <c r="C16" s="160"/>
-      <c r="D16" s="160"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="163" t="s">
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="167" t="s">
         <v>543</v>
       </c>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="163"/>
-      <c r="N16" s="163"/>
+      <c r="J16" s="167"/>
+      <c r="K16" s="167"/>
+      <c r="L16" s="167"/>
+      <c r="M16" s="167"/>
+      <c r="N16" s="167"/>
     </row>
     <row r="17" spans="2:14" ht="15" customHeight="1">
-      <c r="B17" s="160" t="s">
+      <c r="B17" s="163" t="s">
         <v>693</v>
       </c>
-      <c r="C17" s="160"/>
-      <c r="D17" s="160"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="161" t="s">
+      <c r="C17" s="163"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="164" t="s">
         <v>694</v>
       </c>
-      <c r="J17" s="161"/>
-      <c r="K17" s="161"/>
-      <c r="L17" s="161"/>
-      <c r="M17" s="161"/>
-      <c r="N17" s="161"/>
+      <c r="J17" s="164"/>
+      <c r="K17" s="164"/>
+      <c r="L17" s="164"/>
+      <c r="M17" s="164"/>
+      <c r="N17" s="164"/>
     </row>
     <row r="18" spans="2:14" ht="15" customHeight="1">
-      <c r="B18" s="160" t="s">
+      <c r="B18" s="163" t="s">
         <v>695</v>
       </c>
-      <c r="C18" s="160"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="161" t="s">
+      <c r="C18" s="163"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="164" t="s">
         <v>696</v>
       </c>
-      <c r="J18" s="161"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="161"/>
-      <c r="N18" s="161"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="164"/>
+      <c r="L18" s="164"/>
+      <c r="M18" s="164"/>
+      <c r="N18" s="164"/>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1">
-      <c r="B19" s="160" t="s">
+      <c r="B19" s="163" t="s">
         <v>823</v>
       </c>
-      <c r="C19" s="160"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="161" t="s">
+      <c r="C19" s="163"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="164" t="s">
         <v>824</v>
       </c>
-      <c r="J19" s="161"/>
-      <c r="K19" s="161"/>
-      <c r="L19" s="161"/>
-      <c r="M19" s="161"/>
-      <c r="N19" s="161"/>
+      <c r="J19" s="164"/>
+      <c r="K19" s="164"/>
+      <c r="L19" s="164"/>
+      <c r="M19" s="164"/>
+      <c r="N19" s="164"/>
     </row>
     <row r="20" spans="2:14" ht="15" customHeight="1">
-      <c r="B20" s="160" t="s">
+      <c r="B20" s="163" t="s">
         <v>1127</v>
       </c>
-      <c r="C20" s="160"/>
-      <c r="D20" s="160"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="161" t="s">
+      <c r="C20" s="163"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="164" t="s">
         <v>1128</v>
       </c>
-      <c r="J20" s="161"/>
-      <c r="K20" s="161"/>
-      <c r="L20" s="161"/>
-      <c r="M20" s="161"/>
-      <c r="N20" s="161"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="164"/>
+      <c r="L20" s="164"/>
+      <c r="M20" s="164"/>
+      <c r="N20" s="164"/>
     </row>
     <row r="21" spans="2:14" ht="15" customHeight="1">
-      <c r="B21" s="160" t="s">
+      <c r="B21" s="163" t="s">
         <v>1375</v>
       </c>
-      <c r="C21" s="160"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="161" t="s">
+      <c r="C21" s="163"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="164" t="s">
         <v>1376</v>
       </c>
-      <c r="J21" s="161"/>
-      <c r="K21" s="161"/>
-      <c r="L21" s="161"/>
-      <c r="M21" s="161"/>
-      <c r="N21" s="161"/>
+      <c r="J21" s="164"/>
+      <c r="K21" s="164"/>
+      <c r="L21" s="164"/>
+      <c r="M21" s="164"/>
+      <c r="N21" s="164"/>
     </row>
     <row r="22" spans="2:14" ht="15" customHeight="1">
-      <c r="B22" s="160" t="s">
+      <c r="B22" s="163" t="s">
         <v>1377</v>
       </c>
-      <c r="C22" s="160"/>
-      <c r="D22" s="160"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="161" t="s">
+      <c r="C22" s="163"/>
+      <c r="D22" s="163"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="164" t="s">
         <v>1378</v>
       </c>
-      <c r="J22" s="161"/>
-      <c r="K22" s="161"/>
-      <c r="L22" s="161"/>
-      <c r="M22" s="161"/>
-      <c r="N22" s="161"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="164"/>
+      <c r="L22" s="164"/>
+      <c r="M22" s="164"/>
+      <c r="N22" s="164"/>
     </row>
     <row r="23" spans="2:14" ht="15" customHeight="1">
-      <c r="B23" s="160"/>
-      <c r="C23" s="160"/>
-      <c r="D23" s="160"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="161"/>
-      <c r="K23" s="161"/>
-      <c r="L23" s="161"/>
-      <c r="M23" s="161"/>
-      <c r="N23" s="161"/>
+      <c r="B23" s="163"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="164"/>
+      <c r="K23" s="164"/>
+      <c r="L23" s="164"/>
+      <c r="M23" s="164"/>
+      <c r="N23" s="164"/>
     </row>
     <row r="24" spans="2:14" ht="15" customHeight="1">
-      <c r="B24" s="160"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="160"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="161"/>
-      <c r="K24" s="161"/>
-      <c r="L24" s="161"/>
-      <c r="M24" s="161"/>
-      <c r="N24" s="161"/>
+      <c r="B24" s="163"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="163"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="164"/>
+      <c r="K24" s="164"/>
+      <c r="L24" s="164"/>
+      <c r="M24" s="164"/>
+      <c r="N24" s="164"/>
     </row>
     <row r="25" spans="2:14" ht="15" customHeight="1">
-      <c r="B25" s="160"/>
-      <c r="C25" s="160"/>
-      <c r="D25" s="160"/>
-      <c r="E25" s="160"/>
-      <c r="F25" s="160"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="161"/>
-      <c r="K25" s="161"/>
-      <c r="L25" s="161"/>
-      <c r="M25" s="161"/>
-      <c r="N25" s="161"/>
+      <c r="B25" s="163"/>
+      <c r="C25" s="163"/>
+      <c r="D25" s="163"/>
+      <c r="E25" s="163"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="164"/>
+      <c r="J25" s="164"/>
+      <c r="K25" s="164"/>
+      <c r="L25" s="164"/>
+      <c r="M25" s="164"/>
+      <c r="N25" s="164"/>
     </row>
     <row r="26" spans="2:14" ht="15" customHeight="1">
-      <c r="B26" s="160"/>
-      <c r="C26" s="160"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="161"/>
-      <c r="K26" s="161"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="161"/>
-      <c r="N26" s="161"/>
+      <c r="B26" s="163"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="164"/>
+      <c r="L26" s="164"/>
+      <c r="M26" s="164"/>
+      <c r="N26" s="164"/>
     </row>
     <row r="27" spans="2:14" ht="15" customHeight="1">
-      <c r="B27" s="160"/>
-      <c r="C27" s="160"/>
-      <c r="D27" s="160"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="161"/>
-      <c r="J27" s="161"/>
-      <c r="K27" s="161"/>
-      <c r="L27" s="161"/>
-      <c r="M27" s="161"/>
-      <c r="N27" s="161"/>
+      <c r="B27" s="163"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="164"/>
+      <c r="K27" s="164"/>
+      <c r="L27" s="164"/>
+      <c r="M27" s="164"/>
+      <c r="N27" s="164"/>
     </row>
     <row r="28" spans="2:14" ht="15" customHeight="1">
-      <c r="B28" s="160"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="161"/>
-      <c r="K28" s="161"/>
-      <c r="L28" s="161"/>
-      <c r="M28" s="161"/>
-      <c r="N28" s="161"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="164"/>
+      <c r="L28" s="164"/>
+      <c r="M28" s="164"/>
+      <c r="N28" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="I19:N19"/>
     <mergeCell ref="I12:N12"/>
     <mergeCell ref="B24:H24"/>
     <mergeCell ref="I24:N24"/>
@@ -25895,24 +25844,6 @@
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="I14:N14"/>
     <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="I15:N15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="I17:N17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="I28:N28"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="I26:N26"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xml/studyFile.xlsx
+++ b/xml/studyFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Hadoop" sheetId="1" r:id="rId1"/>
@@ -2353,14 +2353,6 @@
   </si>
   <si>
     <t>传递数据位置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>url栏，不产生影响</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求体中，产生影响（登录，上传文件）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -7492,6 +7484,14 @@
   </si>
   <si>
     <t>Servlety→SpringMVC SpringMVC的核心组件DispatcherServlet其实本质就是一个Servlet,在原来HttpServlet的基础上，又封装了一条逻辑。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接访问url栏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求体中，登录，上传文件的form表单</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -8575,6 +8575,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8587,14 +8596,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8602,19 +8605,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8622,6 +8616,12 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -18461,7 +18461,7 @@
     </row>
     <row r="14" spans="1:23">
       <c r="B14" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>144</v>
@@ -18469,30 +18469,30 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
+        <v>596</v>
+      </c>
+      <c r="B15" t="s">
         <v>598</v>
-      </c>
-      <c r="B15" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="B16" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="B17" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="B18" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="B19" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K19" t="s">
         <v>146</v>
@@ -18500,12 +18500,12 @@
     </row>
     <row r="20" spans="1:18">
       <c r="B20" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="B21" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H21" t="s">
         <v>145</v>
@@ -18516,15 +18516,15 @@
     </row>
     <row r="22" spans="1:18">
       <c r="B22" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="N22" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="B23" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="K23" t="s">
         <v>148</v>
@@ -18532,12 +18532,12 @@
     </row>
     <row r="24" spans="1:18">
       <c r="B24" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="B25" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H25" t="s">
         <v>172</v>
@@ -18548,20 +18548,20 @@
     </row>
     <row r="26" spans="1:18">
       <c r="B26" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="B29" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="R29" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J30" t="s">
         <v>151</v>
@@ -18572,7 +18572,7 @@
     </row>
     <row r="33" spans="6:25">
       <c r="F33" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="K33" t="s">
         <v>153</v>
@@ -18738,7 +18738,7 @@
     </row>
     <row r="64" spans="8:26">
       <c r="K64" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="66" spans="8:11">
@@ -18758,12 +18758,12 @@
     </row>
     <row r="73" spans="8:11">
       <c r="J73" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="74" spans="8:11">
       <c r="J74" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="76" spans="8:11">
@@ -18776,70 +18776,70 @@
     </row>
     <row r="77" spans="8:11">
       <c r="H77" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="J77" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="78" spans="8:11">
       <c r="H78" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="J78" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="79" spans="8:11">
       <c r="H79" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="J79" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="81" spans="1:20">
       <c r="A81" s="76" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B81" s="77"/>
       <c r="C81" s="78"/>
     </row>
     <row r="82" spans="1:20">
       <c r="A82" s="79" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B82" s="80"/>
       <c r="C82" s="81"/>
     </row>
     <row r="83" spans="1:20">
       <c r="A83" s="79" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B83" s="80"/>
       <c r="C83" s="81"/>
       <c r="H83" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="84" spans="1:20">
       <c r="A84" s="79" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B84" s="80"/>
       <c r="C84" s="81"/>
       <c r="I84" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="85" spans="1:20">
       <c r="A85" s="79" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B85" s="80"/>
       <c r="C85" s="81"/>
       <c r="I85" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -18847,50 +18847,50 @@
       <c r="B86" s="83"/>
       <c r="C86" s="84"/>
       <c r="I86" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="87" spans="1:20">
       <c r="A87" s="76" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B87" s="77"/>
       <c r="C87" s="78"/>
       <c r="I87" s="16" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="T87" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="88" spans="1:20">
       <c r="B88" s="80"/>
       <c r="C88" s="81"/>
       <c r="J88" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="89" spans="1:20">
       <c r="A89" s="104" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="B89" s="80"/>
       <c r="C89" s="81"/>
       <c r="J89" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="90" spans="1:20">
       <c r="A90" s="79" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B90" s="80"/>
       <c r="C90" s="81"/>
       <c r="D90" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="Q90" s="132" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="R90" s="132"/>
       <c r="S90" s="132"/>
@@ -18898,12 +18898,12 @@
     </row>
     <row r="91" spans="1:20">
       <c r="A91" s="79" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B91" s="80"/>
       <c r="C91" s="81"/>
       <c r="D91" s="65" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E91" s="65"/>
     </row>
@@ -18912,10 +18912,10 @@
       <c r="B92" s="80"/>
       <c r="C92" s="81"/>
       <c r="E92" s="65" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H92" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -18923,13 +18923,13 @@
       <c r="B93" s="80"/>
       <c r="C93" s="81"/>
       <c r="E93" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I93" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="J93" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="94" spans="1:20" ht="17.25">
@@ -18937,13 +18937,13 @@
       <c r="B94" s="83"/>
       <c r="C94" s="84"/>
       <c r="D94" s="64" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I94" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="J94" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -18951,93 +18951,93 @@
       <c r="B95" s="77"/>
       <c r="C95" s="78"/>
       <c r="E95" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="J95" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="96" spans="1:20">
       <c r="A96" s="79" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B96" s="80"/>
       <c r="C96" s="81"/>
       <c r="D96" s="76" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E96" s="77"/>
       <c r="F96" s="77"/>
       <c r="G96" s="78"/>
       <c r="K96" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="79" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B97" s="80"/>
       <c r="C97" s="81"/>
       <c r="D97" s="79" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E97" s="80"/>
       <c r="F97" s="80"/>
       <c r="G97" s="81"/>
       <c r="K97" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="79" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B98" s="80"/>
       <c r="C98" s="81"/>
       <c r="D98" s="79" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E98" s="80"/>
       <c r="F98" s="80"/>
       <c r="G98" s="81"/>
       <c r="K98" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="L98" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="79" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B99" s="80"/>
       <c r="C99" s="81"/>
       <c r="D99" s="79"/>
       <c r="E99" s="80" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F99" s="80"/>
       <c r="G99" s="81"/>
       <c r="L99" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="79" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B100" s="80"/>
       <c r="C100" s="81"/>
       <c r="D100" s="79"/>
       <c r="E100" s="80" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F100" s="80"/>
       <c r="G100" s="81"/>
       <c r="L100" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -19046,12 +19046,12 @@
       <c r="C101" s="81"/>
       <c r="D101" s="79"/>
       <c r="E101" s="80" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F101" s="80"/>
       <c r="G101" s="81"/>
       <c r="L101" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -19059,13 +19059,13 @@
       <c r="B102" s="80"/>
       <c r="C102" s="81"/>
       <c r="D102" s="82" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E102" s="83"/>
       <c r="F102" s="83"/>
       <c r="G102" s="84"/>
       <c r="K102" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -19073,7 +19073,7 @@
       <c r="B103" s="80"/>
       <c r="C103" s="81"/>
       <c r="D103" s="76" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E103" s="77"/>
       <c r="F103" s="77"/>
@@ -19081,7 +19081,7 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="79" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B104" s="80"/>
       <c r="C104" s="81"/>
@@ -19090,29 +19090,29 @@
       <c r="F104" s="80"/>
       <c r="G104" s="81"/>
       <c r="K104" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="L104" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="79" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B105" s="80"/>
       <c r="C105" s="81"/>
       <c r="D105" s="79" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E105" s="80"/>
       <c r="F105" s="80"/>
       <c r="G105" s="81"/>
       <c r="K105" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="L105" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -19120,13 +19120,13 @@
       <c r="B106" s="80"/>
       <c r="C106" s="81"/>
       <c r="D106" s="79" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E106" s="80"/>
       <c r="F106" s="80"/>
       <c r="G106" s="81"/>
       <c r="L106" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -19135,95 +19135,95 @@
       <c r="C107" s="84"/>
       <c r="D107" s="79"/>
       <c r="E107" s="80" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F107" s="80"/>
       <c r="G107" s="81"/>
       <c r="I107" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="J107" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="17.25">
       <c r="A108" s="76" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B108" s="77"/>
       <c r="C108" s="78"/>
       <c r="D108" s="79"/>
       <c r="E108" s="80" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F108" s="80"/>
       <c r="G108" s="81" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="J108" s="22" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="17.25">
       <c r="A109" s="85" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B109" s="80"/>
       <c r="C109" s="81"/>
       <c r="D109" s="79"/>
       <c r="E109" s="80" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F109" s="80"/>
       <c r="G109" s="81"/>
       <c r="J109" s="67" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="K109" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="79" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B110" s="80"/>
       <c r="C110" s="81"/>
       <c r="D110" s="82" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E110" s="83"/>
       <c r="F110" s="83"/>
       <c r="G110" s="84"/>
       <c r="I110" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="J110" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="79" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B111" s="80"/>
       <c r="C111" s="81"/>
       <c r="D111" s="76" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E111" s="77"/>
       <c r="F111" s="77"/>
       <c r="G111" s="78"/>
       <c r="I111" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="J111" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="79" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B112" s="80"/>
       <c r="C112" s="81"/>
@@ -19232,12 +19232,12 @@
       <c r="F112" s="80"/>
       <c r="G112" s="81"/>
       <c r="J112" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="113" spans="1:17">
       <c r="A113" s="79" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B113" s="80"/>
       <c r="C113" s="81"/>
@@ -19246,12 +19246,12 @@
       <c r="F113" s="80"/>
       <c r="G113" s="81"/>
       <c r="J113" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="114" spans="1:17">
       <c r="A114" s="79" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B114" s="80"/>
       <c r="C114" s="81"/>
@@ -19260,12 +19260,12 @@
       <c r="F114" s="80"/>
       <c r="G114" s="81"/>
       <c r="J114" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="115" spans="1:17">
       <c r="A115" s="79" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B115" s="80"/>
       <c r="C115" s="81"/>
@@ -19316,65 +19316,65 @@
     </row>
     <row r="120" spans="1:17">
       <c r="D120" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E120" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="121" spans="1:17">
       <c r="E121" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="122" spans="1:17">
       <c r="F122" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="124" spans="1:17">
       <c r="E124" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="125" spans="1:17">
       <c r="F125" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="126" spans="1:17">
       <c r="F126" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="127" spans="1:17">
       <c r="G127" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="128" spans="1:17">
       <c r="E128" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="129" spans="6:6">
       <c r="F129" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="130" spans="6:6">
       <c r="F130" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="131" spans="6:6">
       <c r="F131" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="132" spans="6:6">
       <c r="F132" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -19406,137 +19406,137 @@
   <sheetData>
     <row r="2" spans="4:13">
       <c r="L2" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="M2" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="3" spans="4:13">
       <c r="D3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="L3" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="M3" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="4" spans="4:13">
       <c r="F4" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="5" spans="4:13">
       <c r="D5" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="L5" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="M5" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="6" spans="4:13">
       <c r="L6" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="M6" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="8" spans="4:13">
       <c r="D8" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="L8" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M8" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="11" spans="4:13">
       <c r="D11" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="13" spans="4:13">
       <c r="D13" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="18" spans="4:5">
       <c r="D18" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="20" spans="4:5">
       <c r="D20" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="29" spans="4:5" ht="17.25">
       <c r="D29" s="107" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="30" spans="4:5">
       <c r="D30" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="31" spans="4:5">
       <c r="E31" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="32" spans="4:5" ht="17.25">
       <c r="D32" s="108" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="33" spans="4:5">
       <c r="D33" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="35" spans="4:5" ht="17.25">
       <c r="D35" s="107" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="36" spans="4:5">
       <c r="D36" s="88" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="37" spans="4:5">
       <c r="D37" s="88"/>
       <c r="E37" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="38" spans="4:5">
       <c r="E38" s="88" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="39" spans="4:5" ht="17.25">
       <c r="D39" s="108" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="40" spans="4:5">
       <c r="D40" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="41" spans="4:5">
       <c r="E41" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
   </sheetData>
@@ -19550,7 +19550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -19558,59 +19558,59 @@
   <sheetData>
     <row r="1" spans="1:7" ht="22.5">
       <c r="A1" s="63" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1" t="s">
         <v>1379</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1380</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="G15" s="62" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="F20" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -19646,7 +19646,7 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="B2" s="3" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>2</v>
@@ -19954,7 +19954,7 @@
         <v>391</v>
       </c>
       <c r="K43" s="52" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="44" spans="2:11">
@@ -19962,10 +19962,10 @@
         <v>25</v>
       </c>
       <c r="J44" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="K44" s="5" t="s">
         <v>929</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="45" spans="2:11">
@@ -19979,7 +19979,7 @@
         <v>392</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="46" spans="2:11">
@@ -20004,7 +20004,7 @@
     </row>
     <row r="51" spans="6:10">
       <c r="H51" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="52" spans="6:10">
@@ -20288,7 +20288,7 @@
         <v>126</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -20299,7 +20299,7 @@
         <v>127</v>
       </c>
       <c r="F22" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -20332,136 +20332,136 @@
   <sheetData>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="B35" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="B57" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="B60" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="F60" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="B61" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="B63" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="B64" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="B65" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="B66" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="B68" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="G68" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B69" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1305</v>
+      </c>
+      <c r="K69" t="s">
         <v>1306</v>
-      </c>
-      <c r="H69" t="s">
-        <v>1307</v>
-      </c>
-      <c r="K69" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D71" t="s">
         <v>1309</v>
       </c>
-      <c r="B71" t="s">
+      <c r="G71" t="s">
         <v>1310</v>
-      </c>
-      <c r="D71" t="s">
-        <v>1311</v>
-      </c>
-      <c r="G71" t="s">
-        <v>1312</v>
       </c>
     </row>
   </sheetData>
@@ -20492,7 +20492,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="N1" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -20507,12 +20507,12 @@
         <v>198</v>
       </c>
       <c r="N2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>194</v>
@@ -20521,13 +20521,13 @@
         <v>196</v>
       </c>
       <c r="F3" s="93" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>199</v>
       </c>
       <c r="N3" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -20538,28 +20538,28 @@
         <v>197</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>200</v>
       </c>
       <c r="N4" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="O5" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="O6" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="N8" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -20567,22 +20567,22 @@
         <v>209</v>
       </c>
       <c r="N9" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="N10" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="D14" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="D15" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -20619,17 +20619,17 @@
         <v>190</v>
       </c>
       <c r="V20" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21" spans="1:24">
       <c r="T21" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="22" spans="1:24">
       <c r="V22" s="60" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -20637,28 +20637,28 @@
         <v>333</v>
       </c>
       <c r="J23" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="24" spans="1:24">
       <c r="H24" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="V24" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="25" spans="1:24">
       <c r="E25" s="68" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="K25" s="120" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="26" spans="1:24">
       <c r="E26" s="68" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>225</v>
@@ -20667,7 +20667,7 @@
         <v>227</v>
       </c>
       <c r="V26" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -20675,14 +20675,14 @@
         <v>509</v>
       </c>
       <c r="B27" s="133" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C27" s="133"/>
       <c r="E27" s="68" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G27" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -20695,115 +20695,115 @@
     </row>
     <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B29" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G29" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="30" spans="1:24">
       <c r="B30" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="G30" s="119" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="H30" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="31" spans="1:24">
       <c r="A31" s="29" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B31" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="G31" t="s">
         <v>233</v>
       </c>
       <c r="Q31" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="U31" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="X31" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="32" spans="1:24">
       <c r="A32" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B32" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="G32" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="B33" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="H33" s="69" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="I33" s="69"/>
       <c r="J33" s="69"/>
       <c r="K33" s="111"/>
       <c r="L33" s="140" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="M33" s="140"/>
       <c r="N33" s="140"/>
       <c r="O33" s="140"/>
       <c r="P33" s="140"/>
       <c r="Q33" s="80" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="R33" s="80"/>
       <c r="S33" s="80"/>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="H34" s="138" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I34" s="139"/>
       <c r="J34" s="139"/>
       <c r="K34" s="139"/>
       <c r="L34" s="140" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="M34" s="140"/>
       <c r="N34" s="140"/>
       <c r="O34" s="140"/>
       <c r="P34" s="140"/>
       <c r="Q34" s="80" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="R34" s="80"/>
       <c r="S34" s="80"/>
     </row>
     <row r="35" spans="1:19">
       <c r="H35" s="138" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="I35" s="139"/>
       <c r="J35" s="139"/>
       <c r="K35" s="139"/>
       <c r="L35" s="134" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="M35" s="135"/>
       <c r="N35" s="135"/>
@@ -20823,7 +20823,7 @@
     </row>
     <row r="37" spans="1:19">
       <c r="B37" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="H37" t="s">
         <v>229</v>
@@ -20831,10 +20831,10 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B38" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="I38" t="s">
         <v>230</v>
@@ -20842,7 +20842,7 @@
     </row>
     <row r="39" spans="1:19">
       <c r="B39" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="I39" t="s">
         <v>231</v>
@@ -20850,13 +20850,13 @@
     </row>
     <row r="40" spans="1:19">
       <c r="F40" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G40" s="69" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="H40" s="134" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="I40" s="135"/>
       <c r="J40" s="135"/>
@@ -20866,7 +20866,7 @@
       <c r="N40" s="135"/>
       <c r="O40" s="136"/>
       <c r="P40" s="69" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -20874,15 +20874,15 @@
         <v>249</v>
       </c>
       <c r="H41" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B42" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="I42" t="s">
         <v>234</v>
@@ -20890,10 +20890,10 @@
     </row>
     <row r="43" spans="1:19">
       <c r="B43" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="H43" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -20901,62 +20901,62 @@
         <v>512</v>
       </c>
       <c r="I44" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="B45" s="16" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="H45" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="I45" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="L45" s="16" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="46" spans="1:19">
       <c r="B46" s="88" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G46" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="L46" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="47" spans="1:19">
       <c r="B47" s="16" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="48" spans="1:19">
       <c r="B48" s="16"/>
       <c r="H48" s="16" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="G49" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H49" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="H50" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -20964,10 +20964,10 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="H51" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -20975,10 +20975,10 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H52" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -20986,18 +20986,18 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="I53" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="B54" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="I54" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -21005,7 +21005,7 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -21013,10 +21013,10 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="G56" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -21024,504 +21024,504 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H57" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="M57" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="G59" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G60" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="16.149999999999999" customHeight="1">
       <c r="A61" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="G61" s="66" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="B62" s="53" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G63" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G64" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="H64" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="G67" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="H67" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="H68" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="I88" s="30" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="98" spans="1:16">
       <c r="A98" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="103" spans="1:16">
       <c r="I103" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="105" spans="1:16">
       <c r="I105" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="106" spans="1:16">
       <c r="A106" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="107" spans="1:16">
       <c r="A107" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="I107" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="P107" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="108" spans="1:16">
       <c r="A108" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="109" spans="1:16">
       <c r="A109" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="110" spans="1:16">
       <c r="A110" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="111" spans="1:16">
       <c r="A111" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="112" spans="1:16">
       <c r="A112" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="B124" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="B130" s="58" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
     <row r="131" spans="1:6">
       <c r="B131" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D131" s="1"/>
     </row>
     <row r="132" spans="1:6">
       <c r="B132" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="58" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C143" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F143" t="s">
         <v>1184</v>
-      </c>
-      <c r="F143" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B145" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="B146" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C149" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="B161" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="58"/>
       <c r="B162" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="B163" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="B164" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="B167" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="B168" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -21549,57 +21549,57 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="58" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="B176" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="B177" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="B178" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="B179" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="B180" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="B181" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="193" spans="1:12">
       <c r="A193" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="195" spans="1:12">
       <c r="A195" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="J195" s="137" t="s">
         <v>510</v>
@@ -21614,7 +21614,7 @@
     </row>
     <row r="197" spans="1:12">
       <c r="A197" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="J197" s="137"/>
       <c r="K197" s="137"/>
@@ -21622,7 +21622,7 @@
     </row>
     <row r="198" spans="1:12">
       <c r="A198" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="J198" s="137"/>
       <c r="K198" s="137"/>
@@ -21630,7 +21630,7 @@
     </row>
     <row r="199" spans="1:12">
       <c r="A199" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="J199" s="137"/>
       <c r="K199" s="137"/>
@@ -21638,7 +21638,7 @@
     </row>
     <row r="200" spans="1:12">
       <c r="B200" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="J200" s="137"/>
       <c r="K200" s="137"/>
@@ -21661,27 +21661,27 @@
     </row>
     <row r="205" spans="1:12">
       <c r="A205" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="206" spans="1:12">
       <c r="A206" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="207" spans="1:12">
       <c r="A207" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
   </sheetData>
@@ -21732,138 +21732,138 @@
     </row>
     <row r="7" spans="5:7">
       <c r="E7" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="8" spans="5:7">
       <c r="E8" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="11" spans="5:7" ht="33.75">
       <c r="E11" s="115" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="14" spans="5:7">
       <c r="E14" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="16" spans="5:7">
       <c r="E16" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="F24" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="F25" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="G25" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="F26" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="F27" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="F28" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="F29" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="33" spans="5:6">
       <c r="E33" s="116" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="F33" s="117"/>
     </row>
     <row r="34" spans="5:6">
       <c r="E34" s="118" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="F34" s="117"/>
     </row>
     <row r="35" spans="5:6">
       <c r="E35" s="118" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="F35" s="117"/>
     </row>
     <row r="36" spans="5:6">
       <c r="E36" s="118" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="F36" s="117"/>
     </row>
     <row r="37" spans="5:6">
       <c r="E37" s="118" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="F37" s="117"/>
     </row>
     <row r="38" spans="5:6">
       <c r="E38" s="118" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="F38" s="117"/>
     </row>
     <row r="39" spans="5:6">
       <c r="E39" s="118" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="F39" s="117"/>
     </row>
     <row r="40" spans="5:6">
       <c r="E40" s="118" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="F40" s="117"/>
     </row>
     <row r="44" spans="5:6">
       <c r="E44" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
   </sheetData>
@@ -21931,7 +21931,7 @@
     </row>
     <row r="10" spans="5:8">
       <c r="E10" s="58" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H10" t="s">
         <v>491</v>
@@ -21939,7 +21939,7 @@
     </row>
     <row r="11" spans="5:8">
       <c r="E11" s="58" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G11" t="s">
         <v>489</v>
@@ -21947,7 +21947,7 @@
     </row>
     <row r="12" spans="5:8">
       <c r="E12" s="58" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="H12" t="s">
         <v>490</v>
@@ -21955,12 +21955,12 @@
     </row>
     <row r="13" spans="5:8">
       <c r="E13" s="58" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="14" spans="5:8">
       <c r="H14" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15" spans="5:8">
@@ -21978,7 +21978,7 @@
     </row>
     <row r="18" spans="7:17">
       <c r="G18" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="I18" t="s">
         <v>487</v>
@@ -21996,7 +21996,7 @@
     </row>
     <row r="21" spans="7:17">
       <c r="Q21" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="22" spans="7:17">
@@ -22010,15 +22010,15 @@
         <v>468</v>
       </c>
       <c r="P22" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="23" spans="7:17">
       <c r="H23" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="Q23" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="24" spans="7:17">
@@ -22046,7 +22046,7 @@
     </row>
     <row r="29" spans="7:17">
       <c r="G29" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="30" spans="7:17">
@@ -22092,7 +22092,7 @@
     </row>
     <row r="39" spans="7:12">
       <c r="G39" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="40" spans="7:12">
@@ -22115,91 +22115,91 @@
     </row>
     <row r="43" spans="7:12">
       <c r="G43" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="44" spans="7:12" ht="18.75">
       <c r="G44" s="51"/>
       <c r="L44" s="61" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="45" spans="7:12">
       <c r="G45" s="52" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="46" spans="7:12">
       <c r="G46" s="53" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="48" spans="7:12">
       <c r="G48" s="43" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="53" spans="7:13">
       <c r="G53" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="54" spans="7:13">
       <c r="H54" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1072</v>
+      </c>
+      <c r="J54" t="s">
         <v>1073</v>
-      </c>
-      <c r="I54" t="s">
-        <v>1074</v>
-      </c>
-      <c r="J54" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="58" spans="7:13">
       <c r="G58" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="59" spans="7:13">
       <c r="G59" s="105" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="60" spans="7:13">
       <c r="H60" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="L60" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="61" spans="7:13">
       <c r="G61" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1075</v>
+      </c>
+      <c r="K61" t="s">
         <v>1076</v>
       </c>
-      <c r="I61" t="s">
+      <c r="M61" t="s">
         <v>1077</v>
-      </c>
-      <c r="K61" t="s">
-        <v>1078</v>
-      </c>
-      <c r="M61" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="63" spans="7:13">
       <c r="G63" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="64" spans="7:13">
       <c r="H64" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="65" spans="7:13">
       <c r="G65" s="106" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="H65" s="106"/>
       <c r="I65" s="106"/>
@@ -22210,7 +22210,7 @@
     </row>
     <row r="66" spans="7:13">
       <c r="G66" s="106" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="H66" s="106"/>
       <c r="I66" s="106"/>
@@ -22221,7 +22221,7 @@
     </row>
     <row r="67" spans="7:13">
       <c r="G67" s="106" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="H67" s="106"/>
       <c r="I67" s="106"/>
@@ -22232,7 +22232,7 @@
     </row>
     <row r="68" spans="7:13">
       <c r="G68" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
   </sheetData>
@@ -22263,30 +22263,30 @@
   <sheetData>
     <row r="2" spans="4:9">
       <c r="F2" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="3" spans="4:9">
       <c r="F3" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="4" spans="4:9">
       <c r="E4" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F4" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="5" spans="4:9">
       <c r="F5" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="6" spans="4:9">
       <c r="F6" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="7" spans="4:9">
@@ -22310,36 +22310,36 @@
         <v>252</v>
       </c>
       <c r="E9" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="10" spans="4:9">
       <c r="D10" s="66" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="12" spans="4:9">
       <c r="H12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I12" t="s">
         <v>1002</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="13" spans="4:9">
       <c r="H13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I13" t="s">
         <v>1003</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="14" spans="4:9">
       <c r="I14" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="17" spans="3:13">
@@ -22356,15 +22356,15 @@
       </c>
       <c r="D19" s="17"/>
       <c r="K19" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="20" spans="3:13">
       <c r="E20" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="K20" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="21" spans="3:13">
@@ -22372,7 +22372,7 @@
         <v>406</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="22" spans="3:13">
@@ -22382,7 +22382,7 @@
     </row>
     <row r="23" spans="3:13">
       <c r="F23" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="25" spans="3:13" ht="17.25">
@@ -22402,18 +22402,18 @@
     </row>
     <row r="30" spans="3:13">
       <c r="K30" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="M30" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="31" spans="3:13">
       <c r="E31" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="M31" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="32" spans="3:13">
@@ -22424,231 +22424,231 @@
         <v>403</v>
       </c>
       <c r="M32" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="33" spans="4:20">
       <c r="E33" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="M33" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="36" spans="4:20">
       <c r="E36" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="T36" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="37" spans="4:20">
       <c r="D37" t="s">
+        <v>556</v>
+      </c>
+      <c r="E37" t="s">
         <v>558</v>
-      </c>
-      <c r="E37" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="38" spans="4:20">
       <c r="E38" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="40" spans="4:20">
       <c r="D40" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E40" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="41" spans="4:20">
       <c r="G41" s="19" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="42" spans="4:20">
       <c r="E42" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G42" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H42" s="66" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="43" spans="4:20">
       <c r="E43" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G43" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="44" spans="4:20">
       <c r="E44" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="47" spans="4:20">
       <c r="D47" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I47" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="48" spans="4:20">
       <c r="E48" s="54" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="J48" s="54" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="49" spans="1:18">
       <c r="E49" s="54" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="L49" s="54" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="50" spans="1:18">
       <c r="E50" s="54" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="K50" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="L50" s="54" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="51" spans="1:18">
       <c r="E51" s="54" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="L51" s="54" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="52" spans="1:18">
       <c r="F52" s="54" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="J52" s="94" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="L52" s="54"/>
     </row>
     <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E53" s="54" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="J53" s="94"/>
       <c r="L53" s="54"/>
     </row>
     <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E54" s="99" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="F54" s="54"/>
       <c r="J54" s="54" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="L54" s="54"/>
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="58" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B55" s="58"/>
       <c r="C55" s="58"/>
       <c r="E55" s="99" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="J55" s="54"/>
       <c r="L55" s="54"/>
     </row>
     <row r="56" spans="1:18">
       <c r="A56" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B56" s="109"/>
       <c r="C56" s="109"/>
       <c r="E56" s="95"/>
       <c r="F56" s="54" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J56" s="94" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="109" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="F57" s="54" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J57" s="94" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="121" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="E58" s="101" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="58" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="E59" s="101" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="60" spans="1:18">
       <c r="A60" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="E60" s="54" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="R60" s="102"/>
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="129" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="E61" s="54" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="R61" s="30"/>
     </row>
     <row r="62" spans="1:18">
       <c r="D62" s="100" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="E62" s="54"/>
       <c r="R62" s="30"/>
     </row>
     <row r="63" spans="1:18">
       <c r="D63" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E63" s="54"/>
       <c r="I63" s="54"/>
@@ -22709,28 +22709,28 @@
     </row>
     <row r="75" spans="4:25">
       <c r="D75" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E75" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="76" spans="4:25">
       <c r="E76" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="77" spans="4:25">
       <c r="F77" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="78" spans="4:25">
       <c r="E78" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="R78" s="76" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="S78" s="77"/>
       <c r="T78" s="77"/>
@@ -22742,10 +22742,10 @@
     </row>
     <row r="79" spans="4:25">
       <c r="F79" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="R79" s="103" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="S79" s="80"/>
       <c r="T79" s="80"/>
@@ -22757,7 +22757,7 @@
     </row>
     <row r="80" spans="4:25">
       <c r="R80" s="104" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="S80" s="80"/>
       <c r="T80" s="80"/>
@@ -22769,10 +22769,10 @@
     </row>
     <row r="81" spans="4:25">
       <c r="D81" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="R81" s="79" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="S81" s="80"/>
       <c r="T81" s="80"/>
@@ -22784,10 +22784,10 @@
     </row>
     <row r="82" spans="4:25">
       <c r="D82" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="R82" s="104" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="S82" s="80"/>
       <c r="T82" s="80"/>
@@ -22799,13 +22799,13 @@
     </row>
     <row r="83" spans="4:25">
       <c r="D83" s="141" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E83" s="141"/>
       <c r="F83" s="141"/>
       <c r="G83" s="141"/>
       <c r="R83" s="104" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="S83" s="80"/>
       <c r="T83" s="80"/>
@@ -22821,7 +22821,7 @@
       <c r="F84" s="141"/>
       <c r="G84" s="141"/>
       <c r="R84" s="82" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="S84" s="83"/>
       <c r="T84" s="83"/>
@@ -22851,15 +22851,15 @@
     </row>
     <row r="88" spans="4:25">
       <c r="D88" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F88" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="89" spans="4:25">
       <c r="D89" s="148" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="E89" s="149"/>
       <c r="F89" s="149"/>
@@ -22872,7 +22872,7 @@
     </row>
     <row r="90" spans="4:25" ht="54" customHeight="1">
       <c r="D90" s="151" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="E90" s="151"/>
       <c r="F90" s="151"/>
@@ -22891,103 +22891,103 @@
     </row>
     <row r="93" spans="4:25">
       <c r="D93" s="56" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E93" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="94" spans="4:25">
       <c r="E94" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="95" spans="4:25">
       <c r="E95" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="I95" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="96" spans="4:25">
       <c r="E96" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="97" spans="3:19">
       <c r="E97" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="98" spans="3:19">
       <c r="E98" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="99" spans="3:19">
       <c r="E99" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="100" spans="3:19">
       <c r="E100" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="101" spans="3:19">
       <c r="E101" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="102" spans="3:19">
       <c r="D102" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="104" spans="3:19">
       <c r="E104" s="123" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F104" s="123" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G104" s="123"/>
     </row>
     <row r="105" spans="3:19">
       <c r="F105" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="106" spans="3:19">
       <c r="F106" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="107" spans="3:19">
       <c r="F107" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="108" spans="3:19">
       <c r="F108" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="109" spans="3:19">
       <c r="F109" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="110" spans="3:19" ht="16.149999999999999" customHeight="1">
       <c r="E110" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F110" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="L110" s="142" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="M110" s="143"/>
       <c r="N110" s="143"/>
@@ -23000,7 +23000,7 @@
     <row r="111" spans="3:19" ht="30.75">
       <c r="C111" ph="1"/>
       <c r="G111" s="55" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="L111" s="145"/>
       <c r="M111" s="146"/>
@@ -23013,29 +23013,29 @@
     </row>
     <row r="112" spans="3:19">
       <c r="E112" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F112" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="L112" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="115" spans="5:14">
       <c r="E115" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F115" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="116" spans="5:14">
       <c r="E116" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F116" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="119" spans="5:14">
@@ -23045,13 +23045,13 @@
     </row>
     <row r="120" spans="5:14">
       <c r="E120" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="H120" t="s">
         <v>337</v>
       </c>
       <c r="L120" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="121" spans="5:14">
@@ -23068,13 +23068,13 @@
         <v>272</v>
       </c>
       <c r="J121" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="L121" s="126" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="N121" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="122" spans="5:14">
@@ -23094,7 +23094,7 @@
         <v>339</v>
       </c>
       <c r="L122" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="123" spans="5:14">
@@ -23111,7 +23111,7 @@
         <v>272</v>
       </c>
       <c r="J123" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="124" spans="5:14">
@@ -23131,7 +23131,7 @@
         <v>345</v>
       </c>
       <c r="L124" s="126" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="125" spans="5:14">
@@ -23170,46 +23170,46 @@
     </row>
     <row r="127" spans="5:14">
       <c r="L127" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="128" spans="5:14">
       <c r="L128" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="129" spans="6:18">
       <c r="F129" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="L129" s="127" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="R129" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="130" spans="6:18">
       <c r="F130" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="L130" s="127" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="131" spans="6:18">
       <c r="L131" s="127" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="132" spans="6:18">
       <c r="L132" s="128" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="133" spans="6:18">
       <c r="L133" s="128" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
   </sheetData>
@@ -23260,25 +23260,25 @@
     </row>
     <row r="3" spans="1:18">
       <c r="D3" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="H7" s="72" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="N8" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="O8" s="58" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -23291,7 +23291,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>115</v>
@@ -23299,59 +23299,59 @@
     </row>
     <row r="11" spans="1:18">
       <c r="B11" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="G11" s="12">
         <v>7</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="O11" s="89" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="113" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B12" s="113" t="s">
         <v>1271</v>
       </c>
-      <c r="B12" s="113" t="s">
-        <v>1273</v>
-      </c>
       <c r="C12" s="113" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="D12" s="58"/>
       <c r="H12" s="71" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="I12" s="12">
         <v>3</v>
       </c>
       <c r="O12" s="89" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="92" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C13" s="92">
         <v>2</v>
       </c>
       <c r="O13" s="89" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="92" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="B14" s="92">
         <v>2</v>
@@ -23360,12 +23360,12 @@
         <v>2</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="92" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B15" s="92">
         <v>1</v>
@@ -23378,10 +23378,10 @@
       <c r="I16" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="M16" s="152" t="s">
+      <c r="M16" s="155" t="s">
         <v>263</v>
       </c>
-      <c r="N16" s="153"/>
+      <c r="N16" s="156"/>
       <c r="O16" s="39" t="s">
         <v>260</v>
       </c>
@@ -23397,10 +23397,10 @@
     </row>
     <row r="17" spans="2:26">
       <c r="B17" s="58" t="s">
-        <v>1280</v>
-      </c>
-      <c r="M17" s="156" t="s">
-        <v>1090</v>
+        <v>1278</v>
+      </c>
+      <c r="M17" s="154" t="s">
+        <v>1088</v>
       </c>
       <c r="N17" s="12" t="s">
         <v>256</v>
@@ -23409,73 +23409,73 @@
         <v>264</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="Q17" s="41" t="s">
-        <v>923</v>
-      </c>
-      <c r="S17" s="157" t="s">
-        <v>739</v>
-      </c>
-      <c r="T17" s="158"/>
-      <c r="U17" s="158"/>
-      <c r="V17" s="158"/>
-      <c r="W17" s="158"/>
+        <v>921</v>
+      </c>
+      <c r="S17" s="152" t="s">
+        <v>737</v>
+      </c>
+      <c r="T17" s="153"/>
+      <c r="U17" s="153"/>
+      <c r="V17" s="153"/>
+      <c r="W17" s="153"/>
     </row>
     <row r="18" spans="2:26">
       <c r="B18" s="58" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>134</v>
       </c>
       <c r="H18" s="98" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="I18" s="12">
         <v>1</v>
       </c>
-      <c r="M18" s="156"/>
+      <c r="M18" s="154"/>
       <c r="N18" s="12" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>264</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="Q18" s="14" t="s">
-        <v>848</v>
-      </c>
-      <c r="S18" s="157"/>
-      <c r="T18" s="158"/>
-      <c r="U18" s="158"/>
-      <c r="V18" s="158"/>
-      <c r="W18" s="158"/>
+        <v>846</v>
+      </c>
+      <c r="S18" s="152"/>
+      <c r="T18" s="153"/>
+      <c r="U18" s="153"/>
+      <c r="V18" s="153"/>
+      <c r="W18" s="153"/>
     </row>
     <row r="19" spans="2:26">
       <c r="B19" s="58" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G19" s="12">
         <v>5</v>
       </c>
       <c r="H19" s="73" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="I19" s="57">
         <v>1</v>
       </c>
-      <c r="M19" s="156"/>
+      <c r="M19" s="154"/>
       <c r="N19" s="18" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="P19" s="17" t="s">
         <v>265</v>
@@ -23483,11 +23483,11 @@
       <c r="Q19" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="S19" s="157"/>
-      <c r="T19" s="158"/>
-      <c r="U19" s="158"/>
-      <c r="V19" s="158"/>
-      <c r="W19" s="158"/>
+      <c r="S19" s="152"/>
+      <c r="T19" s="153"/>
+      <c r="U19" s="153"/>
+      <c r="V19" s="153"/>
+      <c r="W19" s="153"/>
     </row>
     <row r="20" spans="2:26">
       <c r="E20" s="12">
@@ -23506,7 +23506,7 @@
       <c r="Q20" s="14"/>
     </row>
     <row r="21" spans="2:26">
-      <c r="M21" s="156" t="s">
+      <c r="M21" s="154" t="s">
         <v>257</v>
       </c>
       <c r="N21" s="12" t="s">
@@ -23521,16 +23521,16 @@
       <c r="Q21" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="R21" s="157" t="s">
+      <c r="R21" s="152" t="s">
         <v>481</v>
       </c>
-      <c r="S21" s="158"/>
-      <c r="T21" s="158"/>
-      <c r="U21" s="158"/>
-      <c r="V21" s="158"/>
+      <c r="S21" s="153"/>
+      <c r="T21" s="153"/>
+      <c r="U21" s="153"/>
+      <c r="V21" s="153"/>
     </row>
     <row r="22" spans="2:26">
-      <c r="M22" s="156"/>
+      <c r="M22" s="154"/>
       <c r="N22" s="18" t="s">
         <v>447</v>
       </c>
@@ -23543,11 +23543,11 @@
       <c r="Q22" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="R22" s="157"/>
-      <c r="S22" s="158"/>
-      <c r="T22" s="158"/>
-      <c r="U22" s="158"/>
-      <c r="V22" s="158"/>
+      <c r="R22" s="152"/>
+      <c r="S22" s="153"/>
+      <c r="T22" s="153"/>
+      <c r="U22" s="153"/>
+      <c r="V22" s="153"/>
     </row>
     <row r="23" spans="2:26">
       <c r="H23" s="12" t="s">
@@ -23556,7 +23556,7 @@
       <c r="I23" s="12">
         <v>2</v>
       </c>
-      <c r="M23" s="156"/>
+      <c r="M23" s="154"/>
       <c r="N23" s="18" t="s">
         <v>259</v>
       </c>
@@ -23569,18 +23569,18 @@
       <c r="Q23" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="R23" s="157"/>
-      <c r="S23" s="158"/>
-      <c r="T23" s="158"/>
-      <c r="U23" s="158"/>
-      <c r="V23" s="158"/>
+      <c r="R23" s="152"/>
+      <c r="S23" s="153"/>
+      <c r="T23" s="153"/>
+      <c r="U23" s="153"/>
+      <c r="V23" s="153"/>
     </row>
     <row r="24" spans="2:26">
       <c r="H24" s="12" t="s">
         <v>141</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="O24" s="17"/>
       <c r="P24" s="17"/>
@@ -23593,11 +23593,11 @@
       </c>
     </row>
     <row r="25" spans="2:26">
-      <c r="M25" s="156" t="s">
+      <c r="M25" s="154" t="s">
         <v>423</v>
       </c>
       <c r="N25" s="39" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="O25" s="14" t="s">
         <v>426</v>
@@ -23616,16 +23616,16 @@
       </c>
     </row>
     <row r="26" spans="2:26">
-      <c r="M26" s="156"/>
+      <c r="M26" s="154"/>
       <c r="N26" s="90" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="O26" s="14"/>
       <c r="P26" s="14" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="Q26" s="14" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="R26" s="1">
         <v>11</v>
@@ -23635,30 +23635,30 @@
       </c>
     </row>
     <row r="27" spans="2:26">
-      <c r="M27" s="156"/>
+      <c r="M27" s="154"/>
       <c r="N27" s="39" t="s">
         <v>424</v>
       </c>
       <c r="O27" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="P27" s="14" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="Q27" s="42" t="s">
         <v>428</v>
       </c>
-      <c r="R27" s="157" t="s">
-        <v>1118</v>
-      </c>
-      <c r="S27" s="158"/>
-      <c r="T27" s="158"/>
-      <c r="U27" s="158"/>
-      <c r="V27" s="158"/>
-      <c r="W27" s="158"/>
-      <c r="X27" s="158"/>
-      <c r="Y27" s="158"/>
-      <c r="Z27" s="158"/>
+      <c r="R27" s="152" t="s">
+        <v>1116</v>
+      </c>
+      <c r="S27" s="153"/>
+      <c r="T27" s="153"/>
+      <c r="U27" s="153"/>
+      <c r="V27" s="153"/>
+      <c r="W27" s="153"/>
+      <c r="X27" s="153"/>
+      <c r="Y27" s="153"/>
+      <c r="Z27" s="153"/>
     </row>
     <row r="28" spans="2:26">
       <c r="G28" s="12" t="s">
@@ -23670,48 +23670,48 @@
       <c r="I28" s="12">
         <v>4</v>
       </c>
-      <c r="M28" s="156"/>
+      <c r="M28" s="154"/>
       <c r="N28" s="39" t="s">
         <v>425</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="P28" s="90" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="Q28" s="42" t="s">
         <v>428</v>
       </c>
-      <c r="R28" s="157"/>
-      <c r="S28" s="158"/>
-      <c r="T28" s="158"/>
-      <c r="U28" s="158"/>
-      <c r="V28" s="158"/>
-      <c r="W28" s="158"/>
-      <c r="X28" s="158"/>
-      <c r="Y28" s="158"/>
-      <c r="Z28" s="158"/>
+      <c r="R28" s="152"/>
+      <c r="S28" s="153"/>
+      <c r="T28" s="153"/>
+      <c r="U28" s="153"/>
+      <c r="V28" s="153"/>
+      <c r="W28" s="153"/>
+      <c r="X28" s="153"/>
+      <c r="Y28" s="153"/>
+      <c r="Z28" s="153"/>
     </row>
     <row r="29" spans="2:26">
       <c r="H29" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="30" spans="2:26">
       <c r="G30" s="66" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="34" spans="2:8">
       <c r="C34" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D34" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="35" spans="2:8">
@@ -23727,7 +23727,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="40" spans="2:8">
@@ -23746,7 +23746,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="42" spans="2:8">
@@ -23759,224 +23759,224 @@
     </row>
     <row r="43" spans="2:8">
       <c r="C43" t="s">
+        <v>887</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="F43" t="s">
         <v>889</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="F43" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="D44" s="16" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E44" s="58"/>
     </row>
     <row r="45" spans="2:8">
       <c r="D45" s="58" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E45" s="58"/>
       <c r="F45" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="D46" s="16" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E46" s="58"/>
     </row>
     <row r="47" spans="2:8">
       <c r="D47" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C48" s="57" t="s">
+        <v>761</v>
+      </c>
+      <c r="D48" s="57" t="s">
+        <v>762</v>
+      </c>
+      <c r="E48" s="57" t="s">
         <v>763</v>
       </c>
-      <c r="D48" s="57" t="s">
+      <c r="F48" s="57" t="s">
         <v>764</v>
       </c>
-      <c r="E48" s="57" t="s">
+      <c r="G48" s="57" t="s">
         <v>765</v>
       </c>
-      <c r="F48" s="57" t="s">
-        <v>766</v>
-      </c>
-      <c r="G48" s="57" t="s">
-        <v>767</v>
-      </c>
       <c r="H48" s="89" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="49" spans="3:9">
       <c r="C49" s="57" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D49" s="57" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E49" s="57" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F49" s="57" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G49" s="57" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H49" s="89" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="50" spans="3:9">
       <c r="C50" s="57" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D50" s="57" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E50" s="57" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F50" s="57" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G50" s="57" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="H50" s="89"/>
     </row>
     <row r="51" spans="3:9">
       <c r="C51" s="57" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D51" s="57" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E51" s="57" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F51" s="57" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="G51" s="57" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="H51" s="89"/>
     </row>
     <row r="52" spans="3:9">
       <c r="C52" s="57" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D52" s="57" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E52" s="57" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F52" s="57" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="G52" s="57" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="H52" s="89" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="53" spans="3:9">
       <c r="C53" s="57" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D53" s="96" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E53" s="17"/>
     </row>
     <row r="54" spans="3:9">
       <c r="C54" s="89" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D54" s="58" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E54" s="17"/>
       <c r="H54" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="I54" s="58" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="55" spans="3:9">
       <c r="C55" s="89" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D55" s="58" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="56" spans="3:9">
       <c r="C56" s="89" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D56" s="58" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="57" spans="3:9">
       <c r="C57" s="89" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D57" s="97" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="58" spans="3:9">
       <c r="C58" s="89" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D58" s="58" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="59" spans="3:9">
       <c r="C59" s="89" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D59" s="58" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="60" spans="3:9">
       <c r="C60" s="89" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D60" s="58"/>
     </row>
     <row r="63" spans="3:9">
       <c r="H63" s="58" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="64" spans="3:9">
       <c r="D64" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>445</v>
       </c>
       <c r="H64" s="58" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="65" spans="3:9">
@@ -23987,10 +23987,10 @@
         <v>443</v>
       </c>
       <c r="H65" s="58" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="66" spans="3:9">
@@ -24004,12 +24004,12 @@
         <v>444</v>
       </c>
       <c r="H66" s="58" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="67" spans="3:9">
       <c r="D67" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="68" spans="3:9">
@@ -24024,7 +24024,7 @@
     </row>
     <row r="70" spans="3:9">
       <c r="D70" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="72" spans="3:9">
@@ -24059,7 +24059,7 @@
         <v>459</v>
       </c>
       <c r="E78" s="140" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="F78" s="140"/>
       <c r="G78" s="57" t="s">
@@ -24068,8 +24068,8 @@
     </row>
     <row r="79" spans="3:9">
       <c r="D79" s="57"/>
-      <c r="E79" s="152"/>
-      <c r="F79" s="153"/>
+      <c r="E79" s="155"/>
+      <c r="F79" s="156"/>
       <c r="G79" s="57"/>
     </row>
     <row r="80" spans="3:9">
@@ -24077,7 +24077,7 @@
         <v>470</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F80" s="57"/>
       <c r="G80" s="75" t="s">
@@ -24102,7 +24102,7 @@
     </row>
     <row r="83" spans="3:7">
       <c r="C83" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D83" s="57"/>
       <c r="E83" s="57"/>
@@ -24110,22 +24110,22 @@
       <c r="G83" s="57"/>
     </row>
     <row r="84" spans="3:7">
-      <c r="D84" s="154" t="s">
+      <c r="D84" s="157" t="s">
         <v>473</v>
       </c>
       <c r="E84" s="141" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F84" s="141"/>
-      <c r="G84" s="154" t="s">
+      <c r="G84" s="157" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="85" spans="3:7">
-      <c r="D85" s="155"/>
+      <c r="D85" s="158"/>
       <c r="E85" s="141"/>
       <c r="F85" s="141"/>
-      <c r="G85" s="155"/>
+      <c r="G85" s="158"/>
     </row>
     <row r="86" spans="3:7">
       <c r="E86" s="36" t="s">
@@ -24159,10 +24159,10 @@
     </row>
     <row r="93" spans="3:7">
       <c r="C93" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D93" s="58" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="95" spans="3:7">
@@ -24170,18 +24170,18 @@
         <v>0</v>
       </c>
       <c r="E95" s="58" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="96" spans="3:7">
       <c r="C96" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D96" s="1">
         <v>1</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="97" spans="4:8">
@@ -24189,12 +24189,12 @@
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="98" spans="4:8">
       <c r="F98" s="58" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="99" spans="4:8">
@@ -24202,7 +24202,7 @@
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="100" spans="4:8">
@@ -24210,7 +24210,7 @@
         <v>4</v>
       </c>
       <c r="E100" s="59" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="101" spans="4:8">
@@ -24218,10 +24218,10 @@
         <v>5</v>
       </c>
       <c r="E101" t="s">
+        <v>791</v>
+      </c>
+      <c r="H101" s="1" t="s">
         <v>793</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="102" spans="4:8">
@@ -24229,7 +24229,7 @@
         <v>6</v>
       </c>
       <c r="E102" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="103" spans="4:8">
@@ -24237,7 +24237,7 @@
         <v>7</v>
       </c>
       <c r="E103" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="104" spans="4:8">
@@ -24245,26 +24245,26 @@
         <v>8</v>
       </c>
       <c r="E104" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="105" spans="4:8">
       <c r="E105"/>
       <c r="F105" s="58" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="106" spans="4:8">
       <c r="F106" s="58" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="107" spans="4:8">
       <c r="F107" s="58" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="H107" s="58" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="108" spans="4:8">
@@ -24272,7 +24272,7 @@
         <v>9</v>
       </c>
       <c r="E108" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="109" spans="4:8">
@@ -24280,7 +24280,7 @@
         <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="110" spans="4:8">
@@ -24288,7 +24288,7 @@
         <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F110" s="65"/>
       <c r="G110" s="65"/>
@@ -24298,7 +24298,7 @@
         <v>12</v>
       </c>
       <c r="E111" s="65" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="112" spans="4:8">
@@ -24306,7 +24306,7 @@
         <v>13</v>
       </c>
       <c r="E112" s="58" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="113" spans="4:6">
@@ -24314,7 +24314,7 @@
         <v>14</v>
       </c>
       <c r="E113" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="114" spans="4:6">
@@ -24322,7 +24322,7 @@
         <v>15</v>
       </c>
       <c r="E114" s="58" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="115" spans="4:6">
@@ -24330,12 +24330,12 @@
         <v>16</v>
       </c>
       <c r="E115" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="116" spans="4:6">
       <c r="F116" s="58" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="117" spans="4:6">
@@ -24343,7 +24343,7 @@
         <v>17</v>
       </c>
       <c r="E117" s="58" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="118" spans="4:6">
@@ -24351,22 +24351,22 @@
         <v>18</v>
       </c>
       <c r="E118" s="58" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="119" spans="4:6">
       <c r="E119" s="58" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="120" spans="4:6">
       <c r="E120" s="58" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="121" spans="4:6">
       <c r="E121" s="58" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="122" spans="4:6">
@@ -24374,26 +24374,21 @@
         <v>19</v>
       </c>
       <c r="E122" s="58" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="123" spans="4:6">
       <c r="F123" s="58" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="124" spans="4:6">
       <c r="E124" s="58" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="R21:V23"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="R27:Z28"/>
-    <mergeCell ref="S17:W19"/>
     <mergeCell ref="E84:F85"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="D84:D85"/>
@@ -24401,6 +24396,11 @@
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="M25:M28"/>
     <mergeCell ref="E78:F78"/>
+    <mergeCell ref="R21:V23"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="R27:Z28"/>
+    <mergeCell ref="S17:W19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A24:XFD25 A21:Q23 A28:Q28 Q61:XFD63 A1:P4 A6:P6 B5:P5 AA27:XFD28 A48:B48 D48:XFD48 A7:G7 I7:P7 A79:B79 D79:E79 A80:XFD83 A86:XFD94 A84:E84 A85:C85 G84:XFD84 G79:XFD79 H85:XFD85 A53:B63 D53:XFD53 H101:K101 A95:D95 F95:XFD95 F101 A17:Q19 W23:XFD23 A20:V20 AB17:XFD22 S17:W19 A45:E45 A43:B43 D43 F43:XFD43 A44:C44 E44:XFD44 A46:C47 E46:XFD47 A70:C70 E70:XFD70 G45:XFD45 G96:XFD97 F98:XFD100 A64:XFD69 D63:G63 A49:XFD51 A52:H52 J52:XFD52 E54:G54 I54:XFD60 A16:XFD16 D15:G15 I15:XFD15 A29:XFD30 H110:O110 F102:XFD105 F109:O109 E111:O112 F113:O113 D116:O121 F115:O115 E114:O114 E99:E105 E108:O108 A126:XFD1062 A123:C125 P123:XFD125 D124:O125 A96:C121 P106:XFD121 A122:D122 D123:E123 F122:XFD122 G123:O123 M101:XFD101 A71:XFD71 A72:B72 D72:XFD72 A73:XFD78 A27:N27 P27:Q27 A26:M26 O26:XFD26 A33:XFD42 A8:P9 AK1:XFD14 A31:L32 P31:XFD32 D12:P14 A11 C11:P11 B10:P10">
@@ -24433,8 +24433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AM123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" defaultGridColor="0" topLeftCell="R28" colorId="49" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="AC49" sqref="AC49"/>
+    <sheetView showGridLines="0" defaultGridColor="0" topLeftCell="A115" colorId="49" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F127" sqref="F127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -24502,20 +24502,20 @@
       </c>
     </row>
     <row r="12" spans="3:35">
-      <c r="C12" s="160" t="s">
+      <c r="C12" s="161" t="s">
         <v>311</v>
       </c>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="160"/>
-      <c r="K12" s="160"/>
-      <c r="L12" s="160"/>
-      <c r="M12" s="160"/>
-      <c r="N12" s="160"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
+      <c r="K12" s="161"/>
+      <c r="L12" s="161"/>
+      <c r="M12" s="161"/>
+      <c r="N12" s="161"/>
       <c r="T12" t="s">
         <v>294</v>
       </c>
@@ -24524,18 +24524,18 @@
       </c>
     </row>
     <row r="13" spans="3:35">
-      <c r="C13" s="160"/>
-      <c r="D13" s="160"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="160"/>
-      <c r="K13" s="160"/>
-      <c r="L13" s="160"/>
-      <c r="M13" s="160"/>
-      <c r="N13" s="160"/>
+      <c r="C13" s="161"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="161"/>
+      <c r="L13" s="161"/>
+      <c r="M13" s="161"/>
+      <c r="N13" s="161"/>
       <c r="T13" t="s">
         <v>295</v>
       </c>
@@ -24551,7 +24551,7 @@
         <v>300</v>
       </c>
       <c r="AI14" s="38" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="15" spans="3:35">
@@ -24582,75 +24582,75 @@
       <c r="C18" t="s">
         <v>316</v>
       </c>
-      <c r="T18" s="159" t="s">
+      <c r="T18" s="160" t="s">
         <v>299</v>
       </c>
-      <c r="U18" s="159"/>
-      <c r="V18" s="159"/>
-      <c r="W18" s="159"/>
-      <c r="X18" s="159"/>
+      <c r="U18" s="160"/>
+      <c r="V18" s="160"/>
+      <c r="W18" s="160"/>
+      <c r="X18" s="160"/>
     </row>
     <row r="19" spans="3:39">
-      <c r="T19" s="159"/>
-      <c r="U19" s="159"/>
-      <c r="V19" s="159"/>
-      <c r="W19" s="159"/>
-      <c r="X19" s="159"/>
+      <c r="T19" s="160"/>
+      <c r="U19" s="160"/>
+      <c r="V19" s="160"/>
+      <c r="W19" s="160"/>
+      <c r="X19" s="160"/>
     </row>
     <row r="20" spans="3:39">
-      <c r="T20" s="159"/>
-      <c r="U20" s="159"/>
-      <c r="V20" s="159"/>
-      <c r="W20" s="159"/>
-      <c r="X20" s="159"/>
+      <c r="T20" s="160"/>
+      <c r="U20" s="160"/>
+      <c r="V20" s="160"/>
+      <c r="W20" s="160"/>
+      <c r="X20" s="160"/>
     </row>
     <row r="21" spans="3:39">
-      <c r="T21" s="159"/>
-      <c r="U21" s="159"/>
-      <c r="V21" s="159"/>
-      <c r="W21" s="159"/>
-      <c r="X21" s="159"/>
+      <c r="T21" s="160"/>
+      <c r="U21" s="160"/>
+      <c r="V21" s="160"/>
+      <c r="W21" s="160"/>
+      <c r="X21" s="160"/>
     </row>
     <row r="22" spans="3:39">
-      <c r="T22" s="159"/>
-      <c r="U22" s="159"/>
-      <c r="V22" s="159"/>
-      <c r="W22" s="159"/>
-      <c r="X22" s="159"/>
+      <c r="T22" s="160"/>
+      <c r="U22" s="160"/>
+      <c r="V22" s="160"/>
+      <c r="W22" s="160"/>
+      <c r="X22" s="160"/>
     </row>
     <row r="23" spans="3:39">
-      <c r="T23" s="159"/>
-      <c r="U23" s="159"/>
-      <c r="V23" s="159"/>
-      <c r="W23" s="159"/>
-      <c r="X23" s="159"/>
+      <c r="T23" s="160"/>
+      <c r="U23" s="160"/>
+      <c r="V23" s="160"/>
+      <c r="W23" s="160"/>
+      <c r="X23" s="160"/>
     </row>
     <row r="24" spans="3:39">
-      <c r="T24" s="159"/>
-      <c r="U24" s="159"/>
-      <c r="V24" s="159"/>
-      <c r="W24" s="159"/>
-      <c r="X24" s="159"/>
+      <c r="T24" s="160"/>
+      <c r="U24" s="160"/>
+      <c r="V24" s="160"/>
+      <c r="W24" s="160"/>
+      <c r="X24" s="160"/>
     </row>
     <row r="25" spans="3:39">
       <c r="D25" t="s">
         <v>286</v>
       </c>
-      <c r="T25" s="159"/>
-      <c r="U25" s="159"/>
-      <c r="V25" s="159"/>
-      <c r="W25" s="159"/>
-      <c r="X25" s="159"/>
+      <c r="T25" s="160"/>
+      <c r="U25" s="160"/>
+      <c r="V25" s="160"/>
+      <c r="W25" s="160"/>
+      <c r="X25" s="160"/>
     </row>
     <row r="26" spans="3:39">
       <c r="E26" t="s">
         <v>287</v>
       </c>
-      <c r="T26" s="159"/>
-      <c r="U26" s="159"/>
-      <c r="V26" s="159"/>
-      <c r="W26" s="159"/>
-      <c r="X26" s="159"/>
+      <c r="T26" s="160"/>
+      <c r="U26" s="160"/>
+      <c r="V26" s="160"/>
+      <c r="W26" s="160"/>
+      <c r="X26" s="160"/>
     </row>
     <row r="27" spans="3:39">
       <c r="D27" s="1" t="s">
@@ -24659,37 +24659,37 @@
       <c r="G27" s="36" t="s">
         <v>383</v>
       </c>
-      <c r="T27" s="159"/>
-      <c r="U27" s="159"/>
-      <c r="V27" s="159"/>
-      <c r="W27" s="159"/>
-      <c r="X27" s="159"/>
+      <c r="T27" s="160"/>
+      <c r="U27" s="160"/>
+      <c r="V27" s="160"/>
+      <c r="W27" s="160"/>
+      <c r="X27" s="160"/>
     </row>
     <row r="28" spans="3:39">
       <c r="D28" s="1"/>
       <c r="G28" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="T28" s="159"/>
-      <c r="U28" s="159"/>
-      <c r="V28" s="159"/>
-      <c r="W28" s="159"/>
-      <c r="X28" s="159"/>
+      <c r="T28" s="160"/>
+      <c r="U28" s="160"/>
+      <c r="V28" s="160"/>
+      <c r="W28" s="160"/>
+      <c r="X28" s="160"/>
     </row>
     <row r="29" spans="3:39" ht="25.9" customHeight="1">
       <c r="D29" t="s">
         <v>283</v>
       </c>
-      <c r="T29" s="159"/>
-      <c r="U29" s="159"/>
-      <c r="V29" s="159"/>
-      <c r="W29" s="159"/>
-      <c r="X29" s="159"/>
+      <c r="T29" s="160"/>
+      <c r="U29" s="160"/>
+      <c r="V29" s="160"/>
+      <c r="W29" s="160"/>
+      <c r="X29" s="160"/>
       <c r="AI29" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AM29" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="30" spans="3:39">
@@ -24705,7 +24705,7 @@
       <c r="W30" s="28"/>
       <c r="X30" s="28"/>
       <c r="AM30" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="31" spans="3:39">
@@ -24715,7 +24715,7 @@
       <c r="W31" s="28"/>
       <c r="X31" s="28"/>
       <c r="AI31" s="29" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="32" spans="3:39">
@@ -24725,61 +24725,61 @@
       <c r="F32" t="s">
         <v>279</v>
       </c>
-      <c r="T32" s="159" t="s">
+      <c r="T32" s="160" t="s">
         <v>301</v>
       </c>
-      <c r="U32" s="159"/>
-      <c r="V32" s="159"/>
-      <c r="W32" s="159"/>
-      <c r="X32" s="159"/>
-      <c r="Y32" s="159"/>
-      <c r="Z32" s="159"/>
-      <c r="AA32" s="159"/>
-      <c r="AB32" s="159"/>
-      <c r="AC32" s="159"/>
-      <c r="AD32" s="159"/>
+      <c r="U32" s="160"/>
+      <c r="V32" s="160"/>
+      <c r="W32" s="160"/>
+      <c r="X32" s="160"/>
+      <c r="Y32" s="160"/>
+      <c r="Z32" s="160"/>
+      <c r="AA32" s="160"/>
+      <c r="AB32" s="160"/>
+      <c r="AC32" s="160"/>
+      <c r="AD32" s="160"/>
       <c r="AI32" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="33" spans="4:39">
       <c r="D33" t="s">
         <v>290</v>
       </c>
-      <c r="T33" s="159" t="s">
+      <c r="T33" s="160" t="s">
         <v>302</v>
       </c>
-      <c r="U33" s="159"/>
-      <c r="V33" s="159"/>
-      <c r="W33" s="159"/>
-      <c r="X33" s="159"/>
-      <c r="Y33" s="159"/>
-      <c r="Z33" s="159"/>
-      <c r="AA33" s="159"/>
-      <c r="AB33" s="159"/>
-      <c r="AC33" s="159"/>
+      <c r="U33" s="160"/>
+      <c r="V33" s="160"/>
+      <c r="W33" s="160"/>
+      <c r="X33" s="160"/>
+      <c r="Y33" s="160"/>
+      <c r="Z33" s="160"/>
+      <c r="AA33" s="160"/>
+      <c r="AB33" s="160"/>
+      <c r="AC33" s="160"/>
       <c r="AI33" s="29" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="34" spans="4:39">
       <c r="E34" t="s">
         <v>291</v>
       </c>
-      <c r="T34" s="159" t="s">
+      <c r="T34" s="160" t="s">
         <v>303</v>
       </c>
-      <c r="U34" s="159"/>
-      <c r="V34" s="159"/>
-      <c r="W34" s="159"/>
-      <c r="X34" s="159"/>
-      <c r="Y34" s="159"/>
-      <c r="Z34" s="159"/>
-      <c r="AA34" s="159"/>
-      <c r="AB34" s="159"/>
-      <c r="AC34" s="159"/>
+      <c r="U34" s="160"/>
+      <c r="V34" s="160"/>
+      <c r="W34" s="160"/>
+      <c r="X34" s="160"/>
+      <c r="Y34" s="160"/>
+      <c r="Z34" s="160"/>
+      <c r="AA34" s="160"/>
+      <c r="AB34" s="160"/>
+      <c r="AC34" s="160"/>
       <c r="AI34" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="35" spans="4:39">
@@ -24795,7 +24795,7 @@
       <c r="W35" s="28"/>
       <c r="X35" s="28"/>
       <c r="AI35" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="36" spans="4:39">
@@ -24811,32 +24811,32 @@
       <c r="W36" s="28"/>
       <c r="X36" s="28"/>
       <c r="AI36" s="29" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="37" spans="4:39">
       <c r="T37" s="28"/>
       <c r="U37" s="110" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="V37" s="28"/>
       <c r="W37" s="28"/>
       <c r="X37" s="28"/>
       <c r="Y37" s="66" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="AI37" s="130" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="38" spans="4:39">
       <c r="AI38" s="29" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="39" spans="4:39">
       <c r="AI39" s="131" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="40" spans="4:39">
@@ -24849,7 +24849,7 @@
       <c r="W40" s="28"/>
       <c r="X40" s="28"/>
       <c r="AH40" s="50" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="AM40" s="50"/>
     </row>
@@ -24861,7 +24861,7 @@
         <v>318</v>
       </c>
       <c r="AH41" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="AM41" s="50"/>
     </row>
@@ -24870,13 +24870,13 @@
         <v>288</v>
       </c>
       <c r="R42" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="T42" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="AI42" s="29" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="AM42" s="50"/>
     </row>
@@ -24885,13 +24885,13 @@
         <v>289</v>
       </c>
       <c r="R43" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="T43" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="AI43" s="131" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="44" spans="4:39">
@@ -24899,13 +24899,13 @@
         <v>280</v>
       </c>
       <c r="R44" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="T44" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="AI44" s="131" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="47" spans="4:39">
@@ -25038,7 +25038,7 @@
         <v>6</v>
       </c>
       <c r="E75" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="77" spans="4:7">
@@ -25080,7 +25080,7 @@
         <v>365</v>
       </c>
       <c r="R82" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="83" spans="4:18">
@@ -25269,7 +25269,7 @@
     </row>
     <row r="103" spans="1:17">
       <c r="B103" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D103" s="33"/>
       <c r="E103" s="33"/>
@@ -25341,65 +25341,65 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="44" t="s">
-        <v>541</v>
-      </c>
-      <c r="B118" s="156" t="s">
+        <v>539</v>
+      </c>
+      <c r="B118" s="154" t="s">
         <v>528</v>
       </c>
-      <c r="C118" s="156"/>
-      <c r="D118" s="156"/>
-      <c r="E118" s="156"/>
+      <c r="C118" s="154"/>
+      <c r="D118" s="154"/>
+      <c r="E118" s="154"/>
       <c r="F118" s="44" t="s">
-        <v>531</v>
-      </c>
-      <c r="G118" s="152" t="s">
-        <v>534</v>
-      </c>
-      <c r="H118" s="153"/>
+        <v>529</v>
+      </c>
+      <c r="G118" s="155" t="s">
+        <v>532</v>
+      </c>
+      <c r="H118" s="156"/>
       <c r="I118" s="44" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="44" t="s">
         <v>527</v>
       </c>
-      <c r="B119" s="152" t="s">
-        <v>529</v>
-      </c>
-      <c r="C119" s="161"/>
-      <c r="D119" s="161"/>
-      <c r="E119" s="153"/>
+      <c r="B119" s="155" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C119" s="159"/>
+      <c r="D119" s="159"/>
+      <c r="E119" s="156"/>
       <c r="F119" s="44" t="s">
-        <v>532</v>
-      </c>
-      <c r="G119" s="152" t="s">
-        <v>535</v>
-      </c>
-      <c r="H119" s="153"/>
+        <v>530</v>
+      </c>
+      <c r="G119" s="155" t="s">
+        <v>533</v>
+      </c>
+      <c r="H119" s="156"/>
       <c r="I119" s="44" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="44" t="s">
         <v>526</v>
       </c>
-      <c r="B120" s="152" t="s">
-        <v>530</v>
-      </c>
-      <c r="C120" s="161"/>
-      <c r="D120" s="161"/>
-      <c r="E120" s="153"/>
+      <c r="B120" s="155" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C120" s="159"/>
+      <c r="D120" s="159"/>
+      <c r="E120" s="156"/>
       <c r="F120" s="44" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G120" s="148" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H120" s="150"/>
       <c r="I120" s="44" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -25407,17 +25407,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="T18:X29"/>
+    <mergeCell ref="T32:AD32"/>
+    <mergeCell ref="T33:AC33"/>
+    <mergeCell ref="T34:AC34"/>
+    <mergeCell ref="C12:N13"/>
     <mergeCell ref="B118:E118"/>
     <mergeCell ref="B119:E119"/>
     <mergeCell ref="B120:E120"/>
     <mergeCell ref="G118:H118"/>
     <mergeCell ref="G119:H119"/>
     <mergeCell ref="G120:H120"/>
-    <mergeCell ref="T18:X29"/>
-    <mergeCell ref="T32:AD32"/>
-    <mergeCell ref="T33:AC33"/>
-    <mergeCell ref="T34:AC34"/>
-    <mergeCell ref="C12:N13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25462,14 +25462,14 @@
     </row>
     <row r="4" spans="2:14">
       <c r="C4" s="27" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
       <c r="M4" s="125" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="16.5">
@@ -25488,7 +25488,7 @@
       <c r="J5" s="40"/>
       <c r="K5" s="40"/>
       <c r="M5" s="124" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="6" spans="2:14">
@@ -25510,324 +25510,306 @@
       <c r="G7" s="23"/>
     </row>
     <row r="12" spans="2:14" ht="26.45" customHeight="1">
-      <c r="B12" s="165" t="s">
+      <c r="B12" s="167" t="s">
         <v>274</v>
       </c>
-      <c r="C12" s="165"/>
-      <c r="D12" s="165"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="162" t="s">
+      <c r="C12" s="167"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="167"/>
+      <c r="G12" s="167"/>
+      <c r="H12" s="167"/>
+      <c r="I12" s="166" t="s">
         <v>275</v>
       </c>
-      <c r="J12" s="162"/>
-      <c r="K12" s="162"/>
-      <c r="L12" s="162"/>
-      <c r="M12" s="162"/>
-      <c r="N12" s="162"/>
+      <c r="J12" s="166"/>
+      <c r="K12" s="166"/>
+      <c r="L12" s="166"/>
+      <c r="M12" s="166"/>
+      <c r="N12" s="166"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1">
-      <c r="B13" s="163" t="s">
+      <c r="B13" s="162" t="s">
         <v>273</v>
       </c>
-      <c r="C13" s="163"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="164" t="s">
+      <c r="C13" s="162"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="163" t="s">
         <v>276</v>
       </c>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164"/>
-      <c r="L13" s="164"/>
-      <c r="M13" s="164"/>
-      <c r="N13" s="164"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
+      <c r="L13" s="163"/>
+      <c r="M13" s="163"/>
+      <c r="N13" s="163"/>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1">
-      <c r="B14" s="163" t="s">
+      <c r="B14" s="162" t="s">
         <v>352</v>
       </c>
-      <c r="C14" s="163"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="164" t="s">
+      <c r="C14" s="162"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="163" t="s">
         <v>353</v>
       </c>
-      <c r="J14" s="164"/>
-      <c r="K14" s="164"/>
-      <c r="L14" s="164"/>
-      <c r="M14" s="164"/>
-      <c r="N14" s="164"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="163"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="163"/>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1">
-      <c r="B15" s="166" t="s">
+      <c r="B15" s="164" t="s">
         <v>397</v>
       </c>
-      <c r="C15" s="166"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="166"/>
-      <c r="H15" s="166"/>
-      <c r="I15" s="164" t="s">
+      <c r="C15" s="164"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="163" t="s">
         <v>398</v>
       </c>
-      <c r="J15" s="164"/>
-      <c r="K15" s="164"/>
-      <c r="L15" s="164"/>
-      <c r="M15" s="164"/>
-      <c r="N15" s="164"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
+      <c r="L15" s="163"/>
+      <c r="M15" s="163"/>
+      <c r="N15" s="163"/>
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1">
-      <c r="B16" s="163" t="s">
-        <v>542</v>
-      </c>
-      <c r="C16" s="163"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="167" t="s">
-        <v>543</v>
-      </c>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
-      <c r="L16" s="167"/>
-      <c r="M16" s="167"/>
-      <c r="N16" s="167"/>
+      <c r="B16" s="162" t="s">
+        <v>540</v>
+      </c>
+      <c r="C16" s="162"/>
+      <c r="D16" s="162"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="165" t="s">
+        <v>541</v>
+      </c>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
+      <c r="M16" s="165"/>
+      <c r="N16" s="165"/>
     </row>
     <row r="17" spans="2:14" ht="15" customHeight="1">
-      <c r="B17" s="163" t="s">
+      <c r="B17" s="162" t="s">
+        <v>691</v>
+      </c>
+      <c r="C17" s="162"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="163" t="s">
+        <v>692</v>
+      </c>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
+      <c r="L17" s="163"/>
+      <c r="M17" s="163"/>
+      <c r="N17" s="163"/>
+    </row>
+    <row r="18" spans="2:14" ht="15" customHeight="1">
+      <c r="B18" s="162" t="s">
         <v>693</v>
       </c>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="164" t="s">
+      <c r="C18" s="162"/>
+      <c r="D18" s="162"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="162"/>
+      <c r="G18" s="162"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="163" t="s">
         <v>694</v>
       </c>
-      <c r="J17" s="164"/>
-      <c r="K17" s="164"/>
-      <c r="L17" s="164"/>
-      <c r="M17" s="164"/>
-      <c r="N17" s="164"/>
-    </row>
-    <row r="18" spans="2:14" ht="15" customHeight="1">
-      <c r="B18" s="163" t="s">
-        <v>695</v>
-      </c>
-      <c r="C18" s="163"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="164" t="s">
-        <v>696</v>
-      </c>
-      <c r="J18" s="164"/>
-      <c r="K18" s="164"/>
-      <c r="L18" s="164"/>
-      <c r="M18" s="164"/>
-      <c r="N18" s="164"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
+      <c r="L18" s="163"/>
+      <c r="M18" s="163"/>
+      <c r="N18" s="163"/>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1">
-      <c r="B19" s="163" t="s">
-        <v>823</v>
-      </c>
-      <c r="C19" s="163"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="164" t="s">
-        <v>824</v>
-      </c>
-      <c r="J19" s="164"/>
-      <c r="K19" s="164"/>
-      <c r="L19" s="164"/>
-      <c r="M19" s="164"/>
-      <c r="N19" s="164"/>
+      <c r="B19" s="162" t="s">
+        <v>821</v>
+      </c>
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="163" t="s">
+        <v>822</v>
+      </c>
+      <c r="J19" s="163"/>
+      <c r="K19" s="163"/>
+      <c r="L19" s="163"/>
+      <c r="M19" s="163"/>
+      <c r="N19" s="163"/>
     </row>
     <row r="20" spans="2:14" ht="15" customHeight="1">
-      <c r="B20" s="163" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C20" s="163"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="163"/>
-      <c r="I20" s="164" t="s">
-        <v>1128</v>
-      </c>
-      <c r="J20" s="164"/>
-      <c r="K20" s="164"/>
-      <c r="L20" s="164"/>
-      <c r="M20" s="164"/>
-      <c r="N20" s="164"/>
+      <c r="B20" s="162" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="163" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J20" s="163"/>
+      <c r="K20" s="163"/>
+      <c r="L20" s="163"/>
+      <c r="M20" s="163"/>
+      <c r="N20" s="163"/>
     </row>
     <row r="21" spans="2:14" ht="15" customHeight="1">
-      <c r="B21" s="163" t="s">
+      <c r="B21" s="162" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C21" s="162"/>
+      <c r="D21" s="162"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="162"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="162"/>
+      <c r="I21" s="163" t="s">
+        <v>1374</v>
+      </c>
+      <c r="J21" s="163"/>
+      <c r="K21" s="163"/>
+      <c r="L21" s="163"/>
+      <c r="M21" s="163"/>
+      <c r="N21" s="163"/>
+    </row>
+    <row r="22" spans="2:14" ht="15" customHeight="1">
+      <c r="B22" s="162" t="s">
         <v>1375</v>
       </c>
-      <c r="C21" s="163"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="163"/>
-      <c r="I21" s="164" t="s">
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="163" t="s">
         <v>1376</v>
       </c>
-      <c r="J21" s="164"/>
-      <c r="K21" s="164"/>
-      <c r="L21" s="164"/>
-      <c r="M21" s="164"/>
-      <c r="N21" s="164"/>
-    </row>
-    <row r="22" spans="2:14" ht="15" customHeight="1">
-      <c r="B22" s="163" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C22" s="163"/>
-      <c r="D22" s="163"/>
-      <c r="E22" s="163"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="163"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="164" t="s">
-        <v>1378</v>
-      </c>
-      <c r="J22" s="164"/>
-      <c r="K22" s="164"/>
-      <c r="L22" s="164"/>
-      <c r="M22" s="164"/>
-      <c r="N22" s="164"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="163"/>
+      <c r="L22" s="163"/>
+      <c r="M22" s="163"/>
+      <c r="N22" s="163"/>
     </row>
     <row r="23" spans="2:14" ht="15" customHeight="1">
-      <c r="B23" s="163"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="164"/>
-      <c r="J23" s="164"/>
-      <c r="K23" s="164"/>
-      <c r="L23" s="164"/>
-      <c r="M23" s="164"/>
-      <c r="N23" s="164"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="163"/>
+      <c r="K23" s="163"/>
+      <c r="L23" s="163"/>
+      <c r="M23" s="163"/>
+      <c r="N23" s="163"/>
     </row>
     <row r="24" spans="2:14" ht="15" customHeight="1">
-      <c r="B24" s="163"/>
-      <c r="C24" s="163"/>
-      <c r="D24" s="163"/>
-      <c r="E24" s="163"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="163"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="164"/>
-      <c r="K24" s="164"/>
-      <c r="L24" s="164"/>
-      <c r="M24" s="164"/>
-      <c r="N24" s="164"/>
+      <c r="B24" s="162"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="162"/>
+      <c r="H24" s="162"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="163"/>
+      <c r="K24" s="163"/>
+      <c r="L24" s="163"/>
+      <c r="M24" s="163"/>
+      <c r="N24" s="163"/>
     </row>
     <row r="25" spans="2:14" ht="15" customHeight="1">
-      <c r="B25" s="163"/>
-      <c r="C25" s="163"/>
-      <c r="D25" s="163"/>
-      <c r="E25" s="163"/>
-      <c r="F25" s="163"/>
-      <c r="G25" s="163"/>
-      <c r="H25" s="163"/>
-      <c r="I25" s="164"/>
-      <c r="J25" s="164"/>
-      <c r="K25" s="164"/>
-      <c r="L25" s="164"/>
-      <c r="M25" s="164"/>
-      <c r="N25" s="164"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
+      <c r="H25" s="162"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="163"/>
+      <c r="K25" s="163"/>
+      <c r="L25" s="163"/>
+      <c r="M25" s="163"/>
+      <c r="N25" s="163"/>
     </row>
     <row r="26" spans="2:14" ht="15" customHeight="1">
-      <c r="B26" s="163"/>
-      <c r="C26" s="163"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="164"/>
-      <c r="K26" s="164"/>
-      <c r="L26" s="164"/>
-      <c r="M26" s="164"/>
-      <c r="N26" s="164"/>
+      <c r="B26" s="162"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="162"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="162"/>
+      <c r="H26" s="162"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="163"/>
+      <c r="K26" s="163"/>
+      <c r="L26" s="163"/>
+      <c r="M26" s="163"/>
+      <c r="N26" s="163"/>
     </row>
     <row r="27" spans="2:14" ht="15" customHeight="1">
-      <c r="B27" s="163"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="163"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="164"/>
-      <c r="J27" s="164"/>
-      <c r="K27" s="164"/>
-      <c r="L27" s="164"/>
-      <c r="M27" s="164"/>
-      <c r="N27" s="164"/>
+      <c r="B27" s="162"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="162"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="163"/>
+      <c r="K27" s="163"/>
+      <c r="L27" s="163"/>
+      <c r="M27" s="163"/>
+      <c r="N27" s="163"/>
     </row>
     <row r="28" spans="2:14" ht="15" customHeight="1">
-      <c r="B28" s="163"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="164"/>
-      <c r="J28" s="164"/>
-      <c r="K28" s="164"/>
-      <c r="L28" s="164"/>
-      <c r="M28" s="164"/>
-      <c r="N28" s="164"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="163"/>
+      <c r="L28" s="163"/>
+      <c r="M28" s="163"/>
+      <c r="N28" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="I28:N28"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="I15:N15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="I17:N17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="I19:N19"/>
     <mergeCell ref="I12:N12"/>
     <mergeCell ref="B24:H24"/>
     <mergeCell ref="I24:N24"/>
@@ -25844,6 +25826,24 @@
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="I14:N14"/>
     <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="I26:N26"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25864,71 +25864,71 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="C3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="C6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C7" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="C8" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D8" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="D9" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="E10" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="D11" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="C12" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="16" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="17" spans="2:31">
       <c r="B17" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C17" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -26091,7 +26091,7 @@
     </row>
     <row r="22" spans="2:31">
       <c r="D22" s="58" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -26116,10 +26116,10 @@
     </row>
     <row r="23" spans="2:31">
       <c r="B23" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C23" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -26166,7 +26166,7 @@
     </row>
     <row r="25" spans="2:31">
       <c r="B25" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="L25" s="17" t="s">
         <v>485</v>
@@ -26193,7 +26193,7 @@
     </row>
     <row r="26" spans="2:31">
       <c r="C26" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="L26" s="17" t="s">
         <v>483</v>
@@ -26288,10 +26288,10 @@
     </row>
     <row r="30" spans="2:31">
       <c r="B30" t="s">
+        <v>728</v>
+      </c>
+      <c r="D30" t="s">
         <v>730</v>
-      </c>
-      <c r="D30" t="s">
-        <v>732</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -26318,119 +26318,119 @@
     </row>
     <row r="31" spans="2:31">
       <c r="C31" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="32" spans="2:31">
       <c r="C32" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" t="s">
+        <v>729</v>
+      </c>
+      <c r="C35" t="s">
         <v>731</v>
-      </c>
-      <c r="C35" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C36" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="C37" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="C38" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="C39" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="C40" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" t="s">
+        <v>739</v>
+      </c>
+      <c r="C42" t="s">
         <v>741</v>
-      </c>
-      <c r="C42" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" t="s">
+        <v>738</v>
+      </c>
+      <c r="D44" t="s">
         <v>740</v>
-      </c>
-      <c r="D44" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="52" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="114" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="114" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="114" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="114" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="64" spans="2:3">
@@ -26438,7 +26438,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="65" spans="2:5">
@@ -26446,7 +26446,7 @@
         <v>2</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="66" spans="2:5">
@@ -26471,56 +26471,56 @@
     </row>
     <row r="77" spans="2:5">
       <c r="C77" s="30" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="79" spans="2:5">
       <c r="C79" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="17.25">
       <c r="D80" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E80" s="53" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="81" spans="2:5">
       <c r="D81" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E81" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="82" spans="2:5">
       <c r="E82" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="83" spans="2:5">
       <c r="E83" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="84" spans="2:5" ht="17.25">
       <c r="D84" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E84" s="74" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="86" spans="2:5">
       <c r="B86" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="87" spans="2:5">
       <c r="C87" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
   </sheetData>
